--- a/BackTest/2019-10-17 BackTest BAT.xlsx
+++ b/BackTest/2019-10-17 BackTest BAT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>6</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>258.3</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>6</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>258.3</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>6</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>258.3</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>7</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>258.2</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>7</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>258.3</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>7</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>258.3</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>9</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-50</v>
+      </c>
       <c r="L18" t="n">
         <v>258.1</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>11</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>258.1</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>13</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-25</v>
+      </c>
       <c r="L20" t="n">
         <v>257.9</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>14</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-50</v>
+      </c>
       <c r="L21" t="n">
         <v>257.6</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>14</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-50</v>
+      </c>
       <c r="L22" t="n">
         <v>257.2</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>16</v>
       </c>
       <c r="K23" t="n">
-        <v>-42.85714285714285</v>
+        <v>-60</v>
       </c>
       <c r="L23" t="n">
         <v>256.6</v>
@@ -1466,7 +1488,7 @@
         <v>18</v>
       </c>
       <c r="K24" t="n">
-        <v>-25</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L24" t="n">
         <v>256.2</v>
@@ -1515,7 +1537,7 @@
         <v>18</v>
       </c>
       <c r="K25" t="n">
-        <v>-25</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L25" t="n">
         <v>255.9</v>
@@ -1564,7 +1586,7 @@
         <v>18</v>
       </c>
       <c r="K26" t="n">
-        <v>-14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L26" t="n">
         <v>255.6</v>
@@ -1613,7 +1635,7 @@
         <v>19</v>
       </c>
       <c r="K27" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>255.4</v>
@@ -1662,7 +1684,7 @@
         <v>19</v>
       </c>
       <c r="K28" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L28" t="n">
         <v>255.4</v>
@@ -1711,7 +1733,7 @@
         <v>19</v>
       </c>
       <c r="K29" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>255.2</v>
@@ -1760,7 +1782,7 @@
         <v>19</v>
       </c>
       <c r="K30" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L30" t="n">
         <v>255.2</v>
@@ -1809,7 +1831,7 @@
         <v>19</v>
       </c>
       <c r="K31" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L31" t="n">
         <v>255.3</v>
@@ -1860,7 +1882,7 @@
         <v>19</v>
       </c>
       <c r="K32" t="n">
-        <v>-23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
         <v>255.4</v>
@@ -1911,7 +1933,7 @@
         <v>19</v>
       </c>
       <c r="K33" t="n">
-        <v>-23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L33" t="n">
         <v>255.7</v>
@@ -2013,7 +2035,7 @@
         <v>23</v>
       </c>
       <c r="K35" t="n">
-        <v>-12.5</v>
+        <v>20</v>
       </c>
       <c r="L35" t="n">
         <v>255.7</v>
@@ -2064,7 +2086,7 @@
         <v>23</v>
       </c>
       <c r="K36" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>255.8</v>
@@ -2115,7 +2137,7 @@
         <v>25</v>
       </c>
       <c r="K37" t="n">
-        <v>-22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L37" t="n">
         <v>255.6</v>
@@ -2166,7 +2188,7 @@
         <v>26</v>
       </c>
       <c r="K38" t="n">
-        <v>-17.64705882352941</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L38" t="n">
         <v>255.3</v>
@@ -2217,7 +2239,7 @@
         <v>28</v>
       </c>
       <c r="K39" t="n">
-        <v>-17.64705882352941</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L39" t="n">
         <v>255.2</v>
@@ -2268,7 +2290,7 @@
         <v>28</v>
       </c>
       <c r="K40" t="n">
-        <v>-6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L40" t="n">
         <v>255.1</v>
@@ -2319,7 +2341,7 @@
         <v>29</v>
       </c>
       <c r="K41" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L41" t="n">
         <v>254.9</v>
@@ -2370,7 +2392,7 @@
         <v>30</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L42" t="n">
         <v>254.8</v>
@@ -2421,7 +2443,7 @@
         <v>30</v>
       </c>
       <c r="K43" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L43" t="n">
         <v>254.7</v>
@@ -2472,7 +2494,7 @@
         <v>30</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L44" t="n">
         <v>254.8</v>
@@ -2523,7 +2545,7 @@
         <v>30</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L45" t="n">
         <v>254.7</v>
@@ -2574,7 +2596,7 @@
         <v>30</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L46" t="n">
         <v>254.6</v>
@@ -2625,7 +2647,7 @@
         <v>30</v>
       </c>
       <c r="K47" t="n">
-        <v>-9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L47" t="n">
         <v>254.7</v>
@@ -2676,7 +2698,7 @@
         <v>31</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L48" t="n">
         <v>255</v>
@@ -2727,7 +2749,7 @@
         <v>31</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L49" t="n">
         <v>255.1</v>
@@ -2778,7 +2800,7 @@
         <v>31</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L50" t="n">
         <v>255.2</v>
@@ -2829,7 +2851,7 @@
         <v>31</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
         <v>255.4</v>
@@ -2880,7 +2902,7 @@
         <v>31</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
         <v>255.5</v>
@@ -2931,7 +2953,7 @@
         <v>31</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
         <v>255.6</v>
@@ -2982,7 +3004,7 @@
         <v>33</v>
       </c>
       <c r="K54" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L54" t="n">
         <v>255.9</v>
@@ -3033,7 +3055,7 @@
         <v>34</v>
       </c>
       <c r="K55" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
         <v>256.3</v>
@@ -3084,7 +3106,7 @@
         <v>35</v>
       </c>
       <c r="K56" t="n">
-        <v>16.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L56" t="n">
         <v>256.6</v>
@@ -3135,7 +3157,7 @@
         <v>36</v>
       </c>
       <c r="K57" t="n">
-        <v>45.45454545454545</v>
+        <v>60</v>
       </c>
       <c r="L57" t="n">
         <v>257</v>
@@ -3186,7 +3208,7 @@
         <v>37</v>
       </c>
       <c r="K58" t="n">
-        <v>63.63636363636363</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L58" t="n">
         <v>257.4</v>
@@ -3237,7 +3259,7 @@
         <v>38</v>
       </c>
       <c r="K59" t="n">
-        <v>60</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L59" t="n">
         <v>257.9</v>
@@ -3288,7 +3310,7 @@
         <v>39</v>
       </c>
       <c r="K60" t="n">
-        <v>45.45454545454545</v>
+        <v>50</v>
       </c>
       <c r="L60" t="n">
         <v>258.3</v>
@@ -3339,7 +3361,7 @@
         <v>40</v>
       </c>
       <c r="K61" t="n">
-        <v>63.63636363636363</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L61" t="n">
         <v>258.8</v>
@@ -3390,7 +3412,7 @@
         <v>40</v>
       </c>
       <c r="K62" t="n">
-        <v>60</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L62" t="n">
         <v>259.3</v>
@@ -3441,7 +3463,7 @@
         <v>41</v>
       </c>
       <c r="K63" t="n">
-        <v>63.63636363636363</v>
+        <v>50</v>
       </c>
       <c r="L63" t="n">
         <v>259.9</v>
@@ -3492,7 +3514,7 @@
         <v>41</v>
       </c>
       <c r="K64" t="n">
-        <v>63.63636363636363</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L64" t="n">
         <v>260.3</v>
@@ -3543,7 +3565,7 @@
         <v>42</v>
       </c>
       <c r="K65" t="n">
-        <v>66.66666666666666</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L65" t="n">
         <v>260.7</v>
@@ -3645,7 +3667,7 @@
         <v>44</v>
       </c>
       <c r="K67" t="n">
-        <v>42.85714285714285</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L67" t="n">
         <v>261.4</v>
@@ -3696,7 +3718,7 @@
         <v>44</v>
       </c>
       <c r="K68" t="n">
-        <v>38.46153846153847</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>261.5</v>
@@ -3747,7 +3769,7 @@
         <v>45</v>
       </c>
       <c r="K69" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>261.6</v>
@@ -3798,7 +3820,7 @@
         <v>45</v>
       </c>
       <c r="K70" t="n">
-        <v>42.85714285714285</v>
+        <v>20</v>
       </c>
       <c r="L70" t="n">
         <v>261.8</v>
@@ -3849,7 +3871,7 @@
         <v>46</v>
       </c>
       <c r="K71" t="n">
-        <v>46.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>262</v>
@@ -3900,7 +3922,7 @@
         <v>47</v>
       </c>
       <c r="K72" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>262.1</v>
@@ -3951,7 +3973,7 @@
         <v>48</v>
       </c>
       <c r="K73" t="n">
-        <v>29.41176470588236</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L73" t="n">
         <v>262</v>
@@ -4002,7 +4024,7 @@
         <v>49</v>
       </c>
       <c r="K74" t="n">
-        <v>12.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L74" t="n">
         <v>261.8</v>
@@ -4053,7 +4075,7 @@
         <v>49</v>
       </c>
       <c r="K75" t="n">
-        <v>6.666666666666667</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L75" t="n">
         <v>261.5</v>
@@ -4104,7 +4126,7 @@
         <v>49</v>
       </c>
       <c r="K76" t="n">
-        <v>14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L76" t="n">
         <v>261.2</v>
@@ -4155,7 +4177,7 @@
         <v>50</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>261</v>
@@ -4206,7 +4228,7 @@
         <v>51</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L78" t="n">
         <v>260.9</v>
@@ -4257,7 +4279,7 @@
         <v>51</v>
       </c>
       <c r="K79" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>260.7</v>
@@ -4308,7 +4330,7 @@
         <v>51</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L80" t="n">
         <v>260.5</v>
@@ -4359,7 +4381,7 @@
         <v>52</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L81" t="n">
         <v>260.3</v>
@@ -4410,7 +4432,7 @@
         <v>54</v>
       </c>
       <c r="K82" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>260</v>
@@ -4461,7 +4483,7 @@
         <v>54</v>
       </c>
       <c r="K83" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L83" t="n">
         <v>259.8</v>
@@ -4512,7 +4534,7 @@
         <v>55</v>
       </c>
       <c r="K84" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>259.8</v>
@@ -4563,7 +4585,7 @@
         <v>56</v>
       </c>
       <c r="K85" t="n">
-        <v>-28.57142857142857</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L85" t="n">
         <v>259.7</v>
@@ -4614,7 +4636,7 @@
         <v>57</v>
       </c>
       <c r="K86" t="n">
-        <v>-20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L86" t="n">
         <v>259.7</v>
@@ -4665,7 +4687,7 @@
         <v>57</v>
       </c>
       <c r="K87" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>259.8</v>
@@ -4716,7 +4738,7 @@
         <v>57</v>
       </c>
       <c r="K88" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>259.8</v>
@@ -4767,7 +4789,7 @@
         <v>58</v>
       </c>
       <c r="K89" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L89" t="n">
         <v>259.9</v>
@@ -4869,7 +4891,7 @@
         <v>59</v>
       </c>
       <c r="K91" t="n">
-        <v>-23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L91" t="n">
         <v>259.8</v>
@@ -4920,7 +4942,7 @@
         <v>60</v>
       </c>
       <c r="K92" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>260</v>
@@ -4971,7 +4993,7 @@
         <v>60</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L93" t="n">
         <v>260.2</v>
@@ -5022,7 +5044,7 @@
         <v>61</v>
       </c>
       <c r="K94" t="n">
-        <v>16.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L94" t="n">
         <v>260.4</v>
@@ -5073,7 +5095,7 @@
         <v>61</v>
       </c>
       <c r="K95" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L95" t="n">
         <v>260.7</v>
@@ -5124,7 +5146,7 @@
         <v>62</v>
       </c>
       <c r="K96" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L96" t="n">
         <v>260.8</v>
@@ -5175,7 +5197,7 @@
         <v>62</v>
       </c>
       <c r="K97" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L97" t="n">
         <v>260.9</v>
@@ -5226,7 +5248,7 @@
         <v>63</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L98" t="n">
         <v>260.9</v>
@@ -5328,7 +5350,7 @@
         <v>64</v>
       </c>
       <c r="K100" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L100" t="n">
         <v>260.9</v>
@@ -5379,7 +5401,7 @@
         <v>65</v>
       </c>
       <c r="K101" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L101" t="n">
         <v>260.9</v>
@@ -5430,7 +5452,7 @@
         <v>65</v>
       </c>
       <c r="K102" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L102" t="n">
         <v>260.8</v>
@@ -5481,7 +5503,7 @@
         <v>65</v>
       </c>
       <c r="K103" t="n">
-        <v>9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L103" t="n">
         <v>260.7</v>
@@ -5532,7 +5554,7 @@
         <v>66</v>
       </c>
       <c r="K104" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L104" t="n">
         <v>260.6</v>
@@ -5583,7 +5605,7 @@
         <v>67</v>
       </c>
       <c r="K105" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L105" t="n">
         <v>260.4</v>
@@ -5634,7 +5656,7 @@
         <v>70</v>
       </c>
       <c r="K106" t="n">
-        <v>23.07692307692308</v>
+        <v>25</v>
       </c>
       <c r="L106" t="n">
         <v>260.6</v>
@@ -5685,7 +5707,7 @@
         <v>70</v>
       </c>
       <c r="K107" t="n">
-        <v>23.07692307692308</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L107" t="n">
         <v>260.8</v>
@@ -5736,7 +5758,7 @@
         <v>72</v>
       </c>
       <c r="K108" t="n">
-        <v>6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L108" t="n">
         <v>260.9</v>
@@ -5787,7 +5809,7 @@
         <v>74</v>
       </c>
       <c r="K109" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="L109" t="n">
         <v>261.2</v>
@@ -5838,7 +5860,7 @@
         <v>75</v>
       </c>
       <c r="K110" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L110" t="n">
         <v>261.5</v>
@@ -5889,7 +5911,7 @@
         <v>75</v>
       </c>
       <c r="K111" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L111" t="n">
         <v>261.9</v>
@@ -5940,7 +5962,7 @@
         <v>75</v>
       </c>
       <c r="K112" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L112" t="n">
         <v>262.3</v>
@@ -5991,7 +6013,7 @@
         <v>75</v>
       </c>
       <c r="K113" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>262.7</v>
@@ -6042,7 +6064,7 @@
         <v>79</v>
       </c>
       <c r="K114" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>262.6</v>
@@ -6093,7 +6115,7 @@
         <v>82</v>
       </c>
       <c r="K115" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>262.9</v>
@@ -6144,7 +6166,7 @@
         <v>83</v>
       </c>
       <c r="K116" t="n">
-        <v>4.761904761904762</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L116" t="n">
         <v>262.8</v>
@@ -6195,7 +6217,7 @@
         <v>83</v>
       </c>
       <c r="K117" t="n">
-        <v>4.761904761904762</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L117" t="n">
         <v>262.7</v>
@@ -6246,7 +6268,7 @@
         <v>83</v>
       </c>
       <c r="K118" t="n">
-        <v>10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L118" t="n">
         <v>262.8</v>
@@ -6297,7 +6319,7 @@
         <v>84</v>
       </c>
       <c r="K119" t="n">
-        <v>14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L119" t="n">
         <v>262.8</v>
@@ -6348,7 +6370,7 @@
         <v>86</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L120" t="n">
         <v>262.5</v>
@@ -6399,7 +6421,7 @@
         <v>87</v>
       </c>
       <c r="K121" t="n">
-        <v>9.090909090909092</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L121" t="n">
         <v>262.3</v>
@@ -6450,7 +6472,7 @@
         <v>88</v>
       </c>
       <c r="K122" t="n">
-        <v>13.04347826086956</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L122" t="n">
         <v>262.2</v>
@@ -6501,7 +6523,7 @@
         <v>89</v>
       </c>
       <c r="K123" t="n">
-        <v>16.66666666666666</v>
+        <v>40</v>
       </c>
       <c r="L123" t="n">
         <v>262.2</v>
@@ -6552,7 +6574,7 @@
         <v>90</v>
       </c>
       <c r="K124" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>262.5</v>
@@ -6603,7 +6625,7 @@
         <v>90</v>
       </c>
       <c r="K125" t="n">
-        <v>13.04347826086956</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L125" t="n">
         <v>262.5</v>
@@ -6654,7 +6676,7 @@
         <v>91</v>
       </c>
       <c r="K126" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>262.5</v>
@@ -6705,7 +6727,7 @@
         <v>91</v>
       </c>
       <c r="K127" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>262.5</v>
@@ -6756,7 +6778,7 @@
         <v>93</v>
       </c>
       <c r="K128" t="n">
-        <v>-4.761904761904762</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L128" t="n">
         <v>262.3</v>
@@ -6807,7 +6829,7 @@
         <v>93</v>
       </c>
       <c r="K129" t="n">
-        <v>-15.78947368421053</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L129" t="n">
         <v>262</v>
@@ -6858,7 +6880,7 @@
         <v>95</v>
       </c>
       <c r="K130" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>262.1</v>
@@ -6909,7 +6931,7 @@
         <v>95</v>
       </c>
       <c r="K131" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L131" t="n">
         <v>262.1</v>
@@ -6960,7 +6982,7 @@
         <v>96</v>
       </c>
       <c r="K132" t="n">
-        <v>-4.761904761904762</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L132" t="n">
         <v>262.1</v>
@@ -7011,7 +7033,7 @@
         <v>97</v>
       </c>
       <c r="K133" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L133" t="n">
         <v>261.9</v>
@@ -7062,7 +7084,7 @@
         <v>99</v>
       </c>
       <c r="K134" t="n">
-        <v>20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L134" t="n">
         <v>262</v>
@@ -7113,7 +7135,7 @@
         <v>100</v>
       </c>
       <c r="K135" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L135" t="n">
         <v>262.2</v>
@@ -7164,7 +7186,7 @@
         <v>101</v>
       </c>
       <c r="K136" t="n">
-        <v>22.22222222222222</v>
+        <v>40</v>
       </c>
       <c r="L136" t="n">
         <v>262.6</v>
@@ -7215,7 +7237,7 @@
         <v>101</v>
       </c>
       <c r="K137" t="n">
-        <v>22.22222222222222</v>
+        <v>75</v>
       </c>
       <c r="L137" t="n">
         <v>263</v>
@@ -7266,7 +7288,7 @@
         <v>102</v>
       </c>
       <c r="K138" t="n">
-        <v>15.78947368421053</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L138" t="n">
         <v>263.5</v>
@@ -7317,7 +7339,7 @@
         <v>103</v>
       </c>
       <c r="K139" t="n">
-        <v>15.78947368421053</v>
+        <v>50</v>
       </c>
       <c r="L139" t="n">
         <v>264.1</v>
@@ -7368,7 +7390,7 @@
         <v>103</v>
       </c>
       <c r="K140" t="n">
-        <v>29.41176470588236</v>
+        <v>50</v>
       </c>
       <c r="L140" t="n">
         <v>264.5</v>
@@ -7470,7 +7492,7 @@
         <v>107</v>
       </c>
       <c r="K142" t="n">
-        <v>15.78947368421053</v>
+        <v>40</v>
       </c>
       <c r="L142" t="n">
         <v>265</v>
@@ -7521,7 +7543,7 @@
         <v>108</v>
       </c>
       <c r="K143" t="n">
-        <v>15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L143" t="n">
         <v>265.5</v>
@@ -7572,7 +7594,7 @@
         <v>110</v>
       </c>
       <c r="K144" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L144" t="n">
         <v>266</v>
@@ -7623,7 +7645,7 @@
         <v>110</v>
       </c>
       <c r="K145" t="n">
-        <v>30</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L145" t="n">
         <v>266.4</v>
@@ -7674,7 +7696,7 @@
         <v>112</v>
       </c>
       <c r="K146" t="n">
-        <v>23.80952380952381</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L146" t="n">
         <v>266.5</v>
@@ -7776,7 +7798,7 @@
         <v>114</v>
       </c>
       <c r="K148" t="n">
-        <v>42.85714285714285</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L148" t="n">
         <v>267.1</v>
@@ -7827,7 +7849,7 @@
         <v>115</v>
       </c>
       <c r="K149" t="n">
-        <v>36.36363636363637</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L149" t="n">
         <v>267.3</v>
@@ -7878,7 +7900,7 @@
         <v>116</v>
       </c>
       <c r="K150" t="n">
-        <v>33.33333333333333</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L150" t="n">
         <v>267.6</v>
@@ -7929,7 +7951,7 @@
         <v>117</v>
       </c>
       <c r="K151" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L151" t="n">
         <v>268</v>
@@ -7980,7 +8002,7 @@
         <v>118</v>
       </c>
       <c r="K152" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L152" t="n">
         <v>268.3</v>
@@ -8031,7 +8053,7 @@
         <v>118</v>
       </c>
       <c r="K153" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>268.5</v>
@@ -8082,7 +8104,7 @@
         <v>119</v>
       </c>
       <c r="K154" t="n">
-        <v>30</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L154" t="n">
         <v>268.6</v>
@@ -8133,7 +8155,7 @@
         <v>119</v>
       </c>
       <c r="K155" t="n">
-        <v>26.31578947368421</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L155" t="n">
         <v>268.7</v>
@@ -8184,7 +8206,7 @@
         <v>120</v>
       </c>
       <c r="K156" t="n">
-        <v>26.31578947368421</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L156" t="n">
         <v>269.1</v>
@@ -8235,7 +8257,7 @@
         <v>122</v>
       </c>
       <c r="K157" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L157" t="n">
         <v>269.6</v>
@@ -8286,7 +8308,7 @@
         <v>124</v>
       </c>
       <c r="K158" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>269.8</v>
@@ -8337,7 +8359,7 @@
         <v>125</v>
       </c>
       <c r="K159" t="n">
-        <v>18.18181818181818</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L159" t="n">
         <v>270</v>
@@ -8388,7 +8410,7 @@
         <v>126</v>
       </c>
       <c r="K160" t="n">
-        <v>13.04347826086956</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L160" t="n">
         <v>270</v>
@@ -8439,7 +8461,7 @@
         <v>128</v>
       </c>
       <c r="K161" t="n">
-        <v>30.43478260869566</v>
+        <v>20</v>
       </c>
       <c r="L161" t="n">
         <v>270.3</v>
@@ -8490,7 +8512,7 @@
         <v>128</v>
       </c>
       <c r="K162" t="n">
-        <v>23.80952380952381</v>
+        <v>20</v>
       </c>
       <c r="L162" t="n">
         <v>270.5</v>
@@ -8541,7 +8563,7 @@
         <v>129</v>
       </c>
       <c r="K163" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>270.6</v>
@@ -8592,7 +8614,7 @@
         <v>129</v>
       </c>
       <c r="K164" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>270.6</v>
@@ -8643,7 +8665,7 @@
         <v>129</v>
       </c>
       <c r="K165" t="n">
-        <v>5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L165" t="n">
         <v>270.6</v>
@@ -8694,7 +8716,7 @@
         <v>129</v>
       </c>
       <c r="K166" t="n">
-        <v>17.64705882352941</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L166" t="n">
         <v>270.5</v>
@@ -8745,7 +8767,7 @@
         <v>134</v>
       </c>
       <c r="K167" t="n">
-        <v>-14.28571428571428</v>
+        <v>-60</v>
       </c>
       <c r="L167" t="n">
         <v>269.7</v>
@@ -8796,7 +8818,7 @@
         <v>137</v>
       </c>
       <c r="K168" t="n">
-        <v>-4.347826086956522</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L168" t="n">
         <v>269.4</v>
@@ -8847,7 +8869,7 @@
         <v>139</v>
       </c>
       <c r="K169" t="n">
-        <v>-8.333333333333332</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L169" t="n">
         <v>269</v>
@@ -8898,7 +8920,7 @@
         <v>141</v>
       </c>
       <c r="K170" t="n">
-        <v>-4</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L170" t="n">
         <v>268.9</v>
@@ -8949,7 +8971,7 @@
         <v>142</v>
       </c>
       <c r="K171" t="n">
-        <v>4</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L171" t="n">
         <v>268.7</v>
@@ -9000,7 +9022,7 @@
         <v>144</v>
       </c>
       <c r="K172" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L172" t="n">
         <v>268.3</v>
@@ -9051,7 +9073,7 @@
         <v>144</v>
       </c>
       <c r="K173" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L173" t="n">
         <v>268</v>
@@ -9102,7 +9124,7 @@
         <v>146</v>
       </c>
       <c r="K174" t="n">
-        <v>-3.703703703703703</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L174" t="n">
         <v>267.9</v>
@@ -9153,7 +9175,7 @@
         <v>146</v>
       </c>
       <c r="K175" t="n">
-        <v>-3.703703703703703</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L175" t="n">
         <v>267.8</v>
@@ -9204,7 +9226,7 @@
         <v>146</v>
       </c>
       <c r="K176" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L176" t="n">
         <v>267.7</v>
@@ -9255,7 +9277,7 @@
         <v>147</v>
       </c>
       <c r="K177" t="n">
-        <v>-12</v>
+        <v>20</v>
       </c>
       <c r="L177" t="n">
         <v>268.2</v>
@@ -9306,7 +9328,7 @@
         <v>147</v>
       </c>
       <c r="K178" t="n">
-        <v>-4.347826086956522</v>
+        <v>50</v>
       </c>
       <c r="L178" t="n">
         <v>268.4</v>
@@ -9357,7 +9379,7 @@
         <v>148</v>
       </c>
       <c r="K179" t="n">
-        <v>-4.347826086956522</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L179" t="n">
         <v>268.7</v>
@@ -9408,7 +9430,7 @@
         <v>149</v>
       </c>
       <c r="K180" t="n">
-        <v>4.347826086956522</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L180" t="n">
         <v>268.9</v>
@@ -9459,7 +9481,7 @@
         <v>150</v>
       </c>
       <c r="K181" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L181" t="n">
         <v>268.9</v>
@@ -9510,7 +9532,7 @@
         <v>150</v>
       </c>
       <c r="K182" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L182" t="n">
         <v>269.1</v>
@@ -9561,7 +9583,7 @@
         <v>151</v>
       </c>
       <c r="K183" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L183" t="n">
         <v>269.2</v>
@@ -9612,7 +9634,7 @@
         <v>153</v>
       </c>
       <c r="K184" t="n">
-        <v>-16.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L184" t="n">
         <v>268.9</v>
@@ -9663,7 +9685,7 @@
         <v>153</v>
       </c>
       <c r="K185" t="n">
-        <v>-16.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L185" t="n">
         <v>268.6</v>
@@ -9714,7 +9736,7 @@
         <v>155</v>
       </c>
       <c r="K186" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L186" t="n">
         <v>268.5</v>
@@ -9765,7 +9787,7 @@
         <v>157</v>
       </c>
       <c r="K187" t="n">
-        <v>4.347826086956522</v>
+        <v>-40</v>
       </c>
       <c r="L187" t="n">
         <v>268.1</v>
@@ -9816,7 +9838,7 @@
         <v>159</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L188" t="n">
         <v>267.9</v>
@@ -9867,7 +9889,7 @@
         <v>159</v>
       </c>
       <c r="K189" t="n">
-        <v>10</v>
+        <v>-20</v>
       </c>
       <c r="L189" t="n">
         <v>267.8</v>
@@ -9918,7 +9940,7 @@
         <v>161</v>
       </c>
       <c r="K190" t="n">
-        <v>10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L190" t="n">
         <v>267.8</v>
@@ -9969,7 +9991,7 @@
         <v>162</v>
       </c>
       <c r="K191" t="n">
-        <v>10</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L191" t="n">
         <v>268</v>
@@ -10020,7 +10042,7 @@
         <v>162</v>
       </c>
       <c r="K192" t="n">
-        <v>22.22222222222222</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L192" t="n">
         <v>268.2</v>
@@ -10071,7 +10093,7 @@
         <v>164</v>
       </c>
       <c r="K193" t="n">
-        <v>30</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L193" t="n">
         <v>268.7</v>
@@ -10122,7 +10144,7 @@
         <v>164</v>
       </c>
       <c r="K194" t="n">
-        <v>22.22222222222222</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L194" t="n">
         <v>269.4</v>
@@ -10173,7 +10195,7 @@
         <v>165</v>
       </c>
       <c r="K195" t="n">
-        <v>26.31578947368421</v>
+        <v>60</v>
       </c>
       <c r="L195" t="n">
         <v>270.2</v>
@@ -10224,7 +10246,7 @@
         <v>166</v>
       </c>
       <c r="K196" t="n">
-        <v>20</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L196" t="n">
         <v>270.7</v>

--- a/BackTest/2019-10-17 BackTest BAT.xlsx
+++ b/BackTest/2019-10-17 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S196"/>
+  <dimension ref="A1:M175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,18 +596,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>258.1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>258.3</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>258.3</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>258.3</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>7</v>
-      </c>
-      <c r="K15" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L15" t="n">
-        <v>258.2</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>258.3</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>258.3</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L18" t="n">
-        <v>258.1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>11</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>258.1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>13</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L20" t="n">
-        <v>257.9</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>14</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L21" t="n">
-        <v>257.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>257.85</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>14</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L22" t="n">
-        <v>257.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>257.75</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>16</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L23" t="n">
-        <v>256.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>257.45</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>18</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L24" t="n">
-        <v>256.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>257.25</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,29 +1256,19 @@
         <v>258.9666666666666</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="K25" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L25" t="n">
-        <v>255.9</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>257.05</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,29 +1295,23 @@
         <v>258.8833333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="K26" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L26" t="n">
-        <v>255.6</v>
+        <v>255</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>256.95</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,29 +1338,23 @@
         <v>258.8333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>255.4</v>
+        <v>255</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>256.85</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,29 +1381,23 @@
         <v>258.7666666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19</v>
+        <v>254</v>
       </c>
       <c r="K28" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L28" t="n">
-        <v>255.4</v>
+        <v>255</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>256.75</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,29 +1424,23 @@
         <v>258.6833333333333</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>255.2</v>
+        <v>255</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>256.65</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,29 +1467,23 @@
         <v>258.6166666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="K30" t="n">
-        <v>20</v>
-      </c>
-      <c r="L30" t="n">
-        <v>255.2</v>
+        <v>255</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>256.55</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,31 +1510,23 @@
         <v>258.5166666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>19</v>
+        <v>254</v>
       </c>
       <c r="K31" t="n">
-        <v>20</v>
-      </c>
-      <c r="L31" t="n">
-        <v>255.3</v>
+        <v>255</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>256.45</v>
-      </c>
-      <c r="N31" t="n">
-        <v>257</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,31 +1553,23 @@
         <v>258.4166666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="K32" t="n">
-        <v>100</v>
-      </c>
-      <c r="L32" t="n">
-        <v>255.4</v>
+        <v>255</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>256.3</v>
-      </c>
-      <c r="N32" t="n">
-        <v>256.9666666666666</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,31 +1596,23 @@
         <v>258.3166666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="K33" t="n">
-        <v>100</v>
-      </c>
-      <c r="L33" t="n">
-        <v>255.7</v>
+        <v>255</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>256.15</v>
-      </c>
-      <c r="N33" t="n">
-        <v>256.8666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1975,31 +1639,23 @@
         <v>258.1666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="K34" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L34" t="n">
-        <v>255.6</v>
+        <v>255</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>255.9</v>
-      </c>
-      <c r="N34" t="n">
-        <v>256.7</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,31 +1682,23 @@
         <v>258.05</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="K35" t="n">
-        <v>20</v>
-      </c>
-      <c r="L35" t="n">
-        <v>255.7</v>
+        <v>255</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>255.8</v>
-      </c>
-      <c r="N35" t="n">
-        <v>256.6</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,31 +1725,23 @@
         <v>257.9166666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>255.8</v>
+        <v>255</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>255.7</v>
-      </c>
-      <c r="N36" t="n">
-        <v>256.5666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,31 +1768,23 @@
         <v>257.8</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="K37" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L37" t="n">
-        <v>255.6</v>
+        <v>255</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>255.5</v>
-      </c>
-      <c r="N37" t="n">
-        <v>256.4333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,31 +1811,23 @@
         <v>257.6833333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="K38" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L38" t="n">
-        <v>255.3</v>
+        <v>255</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>255.35</v>
-      </c>
-      <c r="N38" t="n">
-        <v>256.2666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,31 +1854,23 @@
         <v>257.5833333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="K39" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L39" t="n">
-        <v>255.2</v>
+        <v>255</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>255.2</v>
-      </c>
-      <c r="N39" t="n">
-        <v>256.1666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2281,31 +1897,23 @@
         <v>257.5</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="K40" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L40" t="n">
-        <v>255.1</v>
+        <v>255</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>255.15</v>
-      </c>
-      <c r="N40" t="n">
-        <v>256.0666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2332,31 +1940,23 @@
         <v>257.4166666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c r="K41" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L41" t="n">
-        <v>254.9</v>
+        <v>255</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>255.1</v>
-      </c>
-      <c r="N41" t="n">
-        <v>255.9333333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2383,31 +1983,23 @@
         <v>257.3166666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="K42" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L42" t="n">
-        <v>254.8</v>
+        <v>255</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>255.1</v>
-      </c>
-      <c r="N42" t="n">
-        <v>255.8</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2434,31 +2026,23 @@
         <v>257.1833333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="K43" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L43" t="n">
-        <v>254.7</v>
+        <v>255</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>255.2</v>
-      </c>
-      <c r="N43" t="n">
-        <v>255.6666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2485,31 +2069,23 @@
         <v>257.05</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="K44" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L44" t="n">
-        <v>254.8</v>
+        <v>255</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>255.2</v>
-      </c>
-      <c r="N44" t="n">
-        <v>255.5333333333333</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2536,31 +2112,23 @@
         <v>256.9333333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="K45" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L45" t="n">
-        <v>254.7</v>
+        <v>255</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>255.2</v>
-      </c>
-      <c r="N45" t="n">
-        <v>255.4333333333333</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2587,31 +2155,23 @@
         <v>256.8333333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="K46" t="n">
-        <v>20</v>
-      </c>
-      <c r="L46" t="n">
-        <v>254.6</v>
+        <v>255</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>255.2</v>
-      </c>
-      <c r="N46" t="n">
-        <v>255.3333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,31 +2198,23 @@
         <v>256.75</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="K47" t="n">
-        <v>50</v>
-      </c>
-      <c r="L47" t="n">
-        <v>254.7</v>
+        <v>255</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>255.15</v>
-      </c>
-      <c r="N47" t="n">
-        <v>255.2333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2689,31 +2241,23 @@
         <v>256.7166666666666</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="K48" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L48" t="n">
-        <v>255</v>
+        <v>255</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>255.15</v>
-      </c>
-      <c r="N48" t="n">
-        <v>255.2333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,31 +2284,23 @@
         <v>256.6666666666667</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="K49" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L49" t="n">
-        <v>255.1</v>
+        <v>255</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>255.15</v>
-      </c>
-      <c r="N49" t="n">
-        <v>255.1666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2791,31 +2327,23 @@
         <v>256.6166666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="K50" t="n">
-        <v>100</v>
-      </c>
-      <c r="L50" t="n">
-        <v>255.2</v>
+        <v>255</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>255.15</v>
-      </c>
-      <c r="N50" t="n">
-        <v>255.1666666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2842,31 +2370,23 @@
         <v>256.5666666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="K51" t="n">
-        <v>100</v>
-      </c>
-      <c r="L51" t="n">
-        <v>255.4</v>
+        <v>255</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>255.15</v>
-      </c>
-      <c r="N51" t="n">
-        <v>255.2</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2893,31 +2413,23 @@
         <v>256.5166666666667</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>31</v>
+        <v>255</v>
       </c>
       <c r="K52" t="n">
-        <v>100</v>
-      </c>
-      <c r="L52" t="n">
-        <v>255.5</v>
+        <v>255</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>255.15</v>
-      </c>
-      <c r="N52" t="n">
-        <v>255.2333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,31 +2456,23 @@
         <v>256.4666666666666</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="K53" t="n">
-        <v>100</v>
-      </c>
-      <c r="L53" t="n">
-        <v>255.6</v>
+        <v>255</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>255.15</v>
-      </c>
-      <c r="N53" t="n">
-        <v>255.3333333333333</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2995,31 +2499,23 @@
         <v>256.4666666666666</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="K54" t="n">
-        <v>100</v>
-      </c>
-      <c r="L54" t="n">
-        <v>255.9</v>
+        <v>255</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>255.35</v>
-      </c>
-      <c r="N54" t="n">
-        <v>255.4333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3046,31 +2542,23 @@
         <v>256.4833333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c r="K55" t="n">
-        <v>100</v>
-      </c>
-      <c r="L55" t="n">
-        <v>256.3</v>
+        <v>255</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>255.5</v>
-      </c>
-      <c r="N55" t="n">
-        <v>255.5666666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3097,31 +2585,23 @@
         <v>256.4833333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>35</v>
+        <v>258</v>
       </c>
       <c r="K56" t="n">
-        <v>60</v>
-      </c>
-      <c r="L56" t="n">
-        <v>256.6</v>
+        <v>255</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>255.6</v>
-      </c>
-      <c r="N56" t="n">
-        <v>255.6666666666667</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3148,31 +2628,23 @@
         <v>256.5</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="K57" t="n">
-        <v>60</v>
-      </c>
-      <c r="L57" t="n">
-        <v>257</v>
+        <v>255</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>255.85</v>
-      </c>
-      <c r="N57" t="n">
-        <v>255.7666666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3199,31 +2671,23 @@
         <v>256.5166666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="K58" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L58" t="n">
-        <v>257.4</v>
+        <v>255</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="N58" t="n">
-        <v>255.9</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2717,18 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
-      </c>
-      <c r="J59" t="n">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L59" t="n">
-        <v>257.9</v>
+        <v>255</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>256.5</v>
-      </c>
-      <c r="N59" t="n">
-        <v>256.0666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2758,18 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>50</v>
-      </c>
-      <c r="L60" t="n">
-        <v>258.3</v>
+        <v>255</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>256.75</v>
-      </c>
-      <c r="N60" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2799,18 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L61" t="n">
-        <v>258.8</v>
+        <v>255</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>257.1</v>
-      </c>
-      <c r="N61" t="n">
-        <v>256.3666666666667</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2840,18 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
-      </c>
-      <c r="J62" t="n">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L62" t="n">
-        <v>259.3</v>
+        <v>255</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="N62" t="n">
-        <v>256.5333333333334</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2881,18 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>50</v>
-      </c>
-      <c r="L63" t="n">
-        <v>259.9</v>
+        <v>255</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>257.75</v>
-      </c>
-      <c r="N63" t="n">
-        <v>256.7333333333333</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2922,18 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L64" t="n">
-        <v>260.3</v>
+        <v>255</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>258.1</v>
-      </c>
-      <c r="N64" t="n">
-        <v>257</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2963,18 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>6</v>
-      </c>
-      <c r="J65" t="n">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L65" t="n">
-        <v>260.7</v>
+        <v>255</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>258.5</v>
-      </c>
-      <c r="N65" t="n">
-        <v>257.2333333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +3004,18 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>6</v>
-      </c>
-      <c r="J66" t="n">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L66" t="n">
-        <v>261.2</v>
+        <v>255</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>258.9</v>
-      </c>
-      <c r="N66" t="n">
-        <v>257.4666666666666</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +3045,18 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
-      </c>
-      <c r="J67" t="n">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L67" t="n">
-        <v>261.4</v>
+        <v>255</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>259.2</v>
-      </c>
-      <c r="N67" t="n">
-        <v>257.7</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3086,18 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
-      </c>
-      <c r="J68" t="n">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>261.5</v>
+        <v>255</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>259.45</v>
-      </c>
-      <c r="N68" t="n">
-        <v>257.9666666666666</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3127,18 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
-      </c>
-      <c r="J69" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L69" t="n">
-        <v>261.6</v>
+        <v>255</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>259.75</v>
-      </c>
-      <c r="N69" t="n">
-        <v>258.2</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,29 +3168,19 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>20</v>
-      </c>
-      <c r="L70" t="n">
-        <v>261.8</v>
+        <v>255</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>260.05</v>
-      </c>
-      <c r="N70" t="n">
-        <v>258.4333333333333</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
-        <v>1</v>
+        <v>1.022450980392157</v>
       </c>
     </row>
     <row r="71">
@@ -3865,28 +3209,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>46</v>
-      </c>
-      <c r="K71" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L71" t="n">
-        <v>262</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>260.4</v>
-      </c>
-      <c r="N71" t="n">
-        <v>258.7333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3244,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>5</v>
-      </c>
-      <c r="J72" t="n">
-        <v>47</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>262.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="N72" t="n">
-        <v>258.9666666666666</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3279,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
-      </c>
-      <c r="J73" t="n">
-        <v>48</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L73" t="n">
-        <v>262</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>260.95</v>
-      </c>
-      <c r="N73" t="n">
-        <v>259.1666666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3314,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
-      </c>
-      <c r="J74" t="n">
-        <v>49</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L74" t="n">
-        <v>261.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>261.05</v>
-      </c>
-      <c r="N74" t="n">
-        <v>259.3333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3349,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
-      </c>
-      <c r="J75" t="n">
-        <v>49</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L75" t="n">
-        <v>261.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="N75" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3384,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>49</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L76" t="n">
-        <v>261.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="N76" t="n">
-        <v>259.6666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3419,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>50</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L77" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="N77" t="n">
-        <v>259.8</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3454,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
-      </c>
-      <c r="J78" t="n">
-        <v>51</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L78" t="n">
-        <v>260.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="N78" t="n">
-        <v>259.9333333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3489,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
-      </c>
-      <c r="J79" t="n">
-        <v>51</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L79" t="n">
-        <v>260.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>261.15</v>
-      </c>
-      <c r="N79" t="n">
-        <v>260.0666666666667</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3524,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
-      </c>
-      <c r="J80" t="n">
-        <v>51</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L80" t="n">
-        <v>260.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>261.15</v>
-      </c>
-      <c r="N80" t="n">
-        <v>260.2</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3559,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
-      </c>
-      <c r="J81" t="n">
-        <v>52</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L81" t="n">
-        <v>260.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>261.15</v>
-      </c>
-      <c r="N81" t="n">
-        <v>260.3666666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3594,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>54</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L82" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>261.05</v>
-      </c>
-      <c r="N82" t="n">
-        <v>260.4666666666666</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3629,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
-      </c>
-      <c r="J83" t="n">
-        <v>54</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L83" t="n">
-        <v>259.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>260.9</v>
-      </c>
-      <c r="N83" t="n">
-        <v>260.5666666666667</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3664,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>55</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>259.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>260.8</v>
-      </c>
-      <c r="N84" t="n">
-        <v>260.6333333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3699,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>56</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L85" t="n">
-        <v>259.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="N85" t="n">
-        <v>260.6333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3734,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
-      </c>
-      <c r="J86" t="n">
-        <v>57</v>
-      </c>
-      <c r="K86" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L86" t="n">
-        <v>259.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>260.45</v>
-      </c>
-      <c r="N86" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3769,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
-      </c>
-      <c r="J87" t="n">
-        <v>57</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>259.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>260.4</v>
-      </c>
-      <c r="N87" t="n">
-        <v>260.7333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3804,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
-      </c>
-      <c r="J88" t="n">
-        <v>57</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>259.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>260.35</v>
-      </c>
-      <c r="N88" t="n">
-        <v>260.7333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3839,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>4</v>
-      </c>
-      <c r="J89" t="n">
-        <v>58</v>
-      </c>
-      <c r="K89" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L89" t="n">
-        <v>259.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>260.3</v>
-      </c>
-      <c r="N89" t="n">
-        <v>260.7333333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3874,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
-      </c>
-      <c r="J90" t="n">
-        <v>59</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L90" t="n">
-        <v>259.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>260.2</v>
-      </c>
-      <c r="N90" t="n">
-        <v>260.7333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3909,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
-      </c>
-      <c r="J91" t="n">
-        <v>59</v>
-      </c>
-      <c r="K91" t="n">
-        <v>20</v>
-      </c>
-      <c r="L91" t="n">
-        <v>259.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>260.05</v>
-      </c>
-      <c r="N91" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3944,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J92" t="n">
-        <v>60</v>
-      </c>
-      <c r="K92" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L92" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>260</v>
-      </c>
-      <c r="N92" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3979,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
-      </c>
-      <c r="J93" t="n">
-        <v>60</v>
-      </c>
-      <c r="K93" t="n">
-        <v>20</v>
-      </c>
-      <c r="L93" t="n">
-        <v>260.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>260</v>
-      </c>
-      <c r="N93" t="n">
-        <v>260.6666666666667</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +4014,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>61</v>
-      </c>
-      <c r="K94" t="n">
-        <v>60</v>
-      </c>
-      <c r="L94" t="n">
-        <v>260.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>260.1</v>
-      </c>
-      <c r="N94" t="n">
-        <v>260.6666666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +4049,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>61</v>
-      </c>
-      <c r="K95" t="n">
-        <v>50</v>
-      </c>
-      <c r="L95" t="n">
-        <v>260.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>260.2</v>
-      </c>
-      <c r="N95" t="n">
-        <v>260.6333333333333</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4084,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>4</v>
-      </c>
-      <c r="J96" t="n">
-        <v>62</v>
-      </c>
-      <c r="K96" t="n">
-        <v>20</v>
-      </c>
-      <c r="L96" t="n">
-        <v>260.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>260.25</v>
-      </c>
-      <c r="N96" t="n">
-        <v>260.5666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4119,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>4</v>
-      </c>
-      <c r="J97" t="n">
-        <v>62</v>
-      </c>
-      <c r="K97" t="n">
-        <v>20</v>
-      </c>
-      <c r="L97" t="n">
-        <v>260.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>260.35</v>
-      </c>
-      <c r="N97" t="n">
-        <v>260.5666666666667</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4154,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
-      </c>
-      <c r="J98" t="n">
-        <v>63</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L98" t="n">
-        <v>260.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>260.35</v>
-      </c>
-      <c r="N98" t="n">
-        <v>260.5333333333334</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4189,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
-      </c>
-      <c r="J99" t="n">
-        <v>63</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>260.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>260.35</v>
-      </c>
-      <c r="N99" t="n">
-        <v>260.4666666666666</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4224,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>4</v>
-      </c>
-      <c r="J100" t="n">
-        <v>64</v>
-      </c>
-      <c r="K100" t="n">
-        <v>20</v>
-      </c>
-      <c r="L100" t="n">
-        <v>260.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>260.4</v>
-      </c>
-      <c r="N100" t="n">
-        <v>260.4333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4259,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>65</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L101" t="n">
-        <v>260.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>260.35</v>
-      </c>
-      <c r="N101" t="n">
-        <v>260.3333333333333</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4294,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
-      </c>
-      <c r="J102" t="n">
-        <v>65</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L102" t="n">
-        <v>260.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>260.4</v>
-      </c>
-      <c r="N102" t="n">
-        <v>260.2666666666667</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4329,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
-      </c>
-      <c r="J103" t="n">
-        <v>65</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L103" t="n">
-        <v>260.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>260.45</v>
-      </c>
-      <c r="N103" t="n">
-        <v>260.2333333333333</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4364,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>4</v>
-      </c>
-      <c r="J104" t="n">
-        <v>66</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L104" t="n">
-        <v>260.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="N104" t="n">
-        <v>260.2666666666667</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4399,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
-      </c>
-      <c r="J105" t="n">
-        <v>67</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L105" t="n">
-        <v>260.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>260.55</v>
-      </c>
-      <c r="N105" t="n">
-        <v>260.2666666666667</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4434,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>6</v>
-      </c>
-      <c r="J106" t="n">
-        <v>70</v>
-      </c>
-      <c r="K106" t="n">
-        <v>25</v>
-      </c>
-      <c r="L106" t="n">
-        <v>260.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>260.7</v>
-      </c>
-      <c r="N106" t="n">
-        <v>260.3666666666667</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4469,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>6</v>
-      </c>
-      <c r="J107" t="n">
-        <v>70</v>
-      </c>
-      <c r="K107" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L107" t="n">
-        <v>260.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>260.85</v>
-      </c>
-      <c r="N107" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4504,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>4</v>
-      </c>
-      <c r="J108" t="n">
-        <v>72</v>
-      </c>
-      <c r="K108" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L108" t="n">
-        <v>260.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>260.9</v>
-      </c>
-      <c r="N108" t="n">
-        <v>260.5333333333334</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4539,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>6</v>
-      </c>
-      <c r="J109" t="n">
-        <v>74</v>
-      </c>
-      <c r="K109" t="n">
-        <v>20</v>
-      </c>
-      <c r="L109" t="n">
-        <v>261.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>261</v>
-      </c>
-      <c r="N109" t="n">
-        <v>260.6333333333333</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4574,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>7</v>
-      </c>
-      <c r="J110" t="n">
-        <v>75</v>
-      </c>
-      <c r="K110" t="n">
-        <v>40</v>
-      </c>
-      <c r="L110" t="n">
-        <v>261.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="N110" t="n">
-        <v>260.7666666666667</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4609,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>7</v>
-      </c>
-      <c r="J111" t="n">
-        <v>75</v>
-      </c>
-      <c r="K111" t="n">
-        <v>40</v>
-      </c>
-      <c r="L111" t="n">
-        <v>261.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="N111" t="n">
-        <v>260.8666666666667</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4644,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>7</v>
-      </c>
-      <c r="J112" t="n">
-        <v>75</v>
-      </c>
-      <c r="K112" t="n">
-        <v>40</v>
-      </c>
-      <c r="L112" t="n">
-        <v>262.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>261.55</v>
-      </c>
-      <c r="N112" t="n">
-        <v>261.0333333333334</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4679,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>7</v>
-      </c>
-      <c r="J113" t="n">
-        <v>75</v>
-      </c>
-      <c r="K113" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L113" t="n">
-        <v>262.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>261.7</v>
-      </c>
-      <c r="N113" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4714,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
-      </c>
-      <c r="J114" t="n">
-        <v>79</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>262.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>261.6</v>
-      </c>
-      <c r="N114" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4749,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>6</v>
-      </c>
-      <c r="J115" t="n">
-        <v>82</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>262.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>261.65</v>
-      </c>
-      <c r="N115" t="n">
-        <v>261.3333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4784,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>5</v>
-      </c>
-      <c r="J116" t="n">
-        <v>83</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L116" t="n">
-        <v>262.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>261.7</v>
-      </c>
-      <c r="N116" t="n">
-        <v>261.4</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4819,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>5</v>
-      </c>
-      <c r="J117" t="n">
-        <v>83</v>
-      </c>
-      <c r="K117" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L117" t="n">
-        <v>262.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>261.75</v>
-      </c>
-      <c r="N117" t="n">
-        <v>261.4666666666666</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4854,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>5</v>
-      </c>
-      <c r="J118" t="n">
-        <v>83</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L118" t="n">
-        <v>262.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>261.85</v>
-      </c>
-      <c r="N118" t="n">
-        <v>261.5333333333334</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4889,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>6</v>
-      </c>
-      <c r="J119" t="n">
-        <v>84</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L119" t="n">
-        <v>262.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>262</v>
-      </c>
-      <c r="N119" t="n">
-        <v>261.6</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4924,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>4</v>
-      </c>
-      <c r="J120" t="n">
-        <v>86</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L120" t="n">
-        <v>262.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>262</v>
-      </c>
-      <c r="N120" t="n">
-        <v>261.6333333333333</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4959,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>5</v>
-      </c>
-      <c r="J121" t="n">
-        <v>87</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L121" t="n">
-        <v>262.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>262.1</v>
-      </c>
-      <c r="N121" t="n">
-        <v>261.7</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4994,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>6</v>
-      </c>
-      <c r="J122" t="n">
-        <v>88</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L122" t="n">
-        <v>262.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>262.25</v>
-      </c>
-      <c r="N122" t="n">
-        <v>261.7666666666667</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +5029,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>7</v>
-      </c>
-      <c r="J123" t="n">
-        <v>89</v>
-      </c>
-      <c r="K123" t="n">
-        <v>40</v>
-      </c>
-      <c r="L123" t="n">
-        <v>262.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>262.45</v>
-      </c>
-      <c r="N123" t="n">
-        <v>261.8666666666667</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +5064,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>6</v>
-      </c>
-      <c r="J124" t="n">
-        <v>90</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" t="n">
-        <v>262.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>262.55</v>
-      </c>
-      <c r="N124" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +5099,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>6</v>
-      </c>
-      <c r="J125" t="n">
-        <v>90</v>
-      </c>
-      <c r="K125" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L125" t="n">
-        <v>262.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>262.7</v>
-      </c>
-      <c r="N125" t="n">
-        <v>261.9333333333333</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +5134,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>5</v>
-      </c>
-      <c r="J126" t="n">
-        <v>91</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0</v>
-      </c>
-      <c r="L126" t="n">
-        <v>262.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>262.65</v>
-      </c>
-      <c r="N126" t="n">
-        <v>261.9666666666666</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5169,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>5</v>
-      </c>
-      <c r="J127" t="n">
-        <v>91</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>262.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>262.6</v>
-      </c>
-      <c r="N127" t="n">
-        <v>262</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5204,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
-      </c>
-      <c r="J128" t="n">
-        <v>93</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L128" t="n">
-        <v>262.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>262.55</v>
-      </c>
-      <c r="N128" t="n">
-        <v>262</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5239,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
-      </c>
-      <c r="J129" t="n">
-        <v>93</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L129" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>262.4</v>
-      </c>
-      <c r="N129" t="n">
-        <v>262</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5274,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>5</v>
-      </c>
-      <c r="J130" t="n">
-        <v>95</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
-      <c r="L130" t="n">
-        <v>262.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>262.3</v>
-      </c>
-      <c r="N130" t="n">
-        <v>262.0333333333334</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5309,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>5</v>
-      </c>
-      <c r="J131" t="n">
-        <v>95</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L131" t="n">
-        <v>262.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>262.2</v>
-      </c>
-      <c r="N131" t="n">
-        <v>262.1</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5344,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>6</v>
-      </c>
-      <c r="J132" t="n">
-        <v>96</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L132" t="n">
-        <v>262.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>262.15</v>
-      </c>
-      <c r="N132" t="n">
-        <v>262.2</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5379,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>5</v>
-      </c>
-      <c r="J133" t="n">
-        <v>97</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L133" t="n">
-        <v>261.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>262.05</v>
-      </c>
-      <c r="N133" t="n">
-        <v>262.2666666666667</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5414,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>7</v>
-      </c>
-      <c r="J134" t="n">
-        <v>99</v>
-      </c>
-      <c r="K134" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L134" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>262.25</v>
-      </c>
-      <c r="N134" t="n">
-        <v>262.3666666666667</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5449,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>8</v>
-      </c>
-      <c r="J135" t="n">
-        <v>100</v>
-      </c>
-      <c r="K135" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L135" t="n">
-        <v>262.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>262.35</v>
-      </c>
-      <c r="N135" t="n">
-        <v>262.5333333333334</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5484,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>9</v>
-      </c>
-      <c r="J136" t="n">
-        <v>101</v>
-      </c>
-      <c r="K136" t="n">
-        <v>40</v>
-      </c>
-      <c r="L136" t="n">
-        <v>262.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>262.55</v>
-      </c>
-      <c r="N136" t="n">
-        <v>262.6333333333333</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5519,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>9</v>
-      </c>
-      <c r="J137" t="n">
-        <v>101</v>
-      </c>
-      <c r="K137" t="n">
-        <v>75</v>
-      </c>
-      <c r="L137" t="n">
-        <v>263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>262.75</v>
-      </c>
-      <c r="N137" t="n">
-        <v>262.7333333333333</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5554,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>8</v>
-      </c>
-      <c r="J138" t="n">
-        <v>102</v>
-      </c>
-      <c r="K138" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L138" t="n">
-        <v>263.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>262.9</v>
-      </c>
-      <c r="N138" t="n">
-        <v>262.8666666666667</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5589,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>9</v>
-      </c>
-      <c r="J139" t="n">
-        <v>103</v>
-      </c>
-      <c r="K139" t="n">
-        <v>50</v>
-      </c>
-      <c r="L139" t="n">
-        <v>264.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>263.05</v>
-      </c>
-      <c r="N139" t="n">
-        <v>262.9666666666666</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +5624,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>9</v>
-      </c>
-      <c r="J140" t="n">
-        <v>103</v>
-      </c>
-      <c r="K140" t="n">
-        <v>50</v>
-      </c>
-      <c r="L140" t="n">
-        <v>264.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>263.3</v>
-      </c>
-      <c r="N140" t="n">
-        <v>263.0333333333334</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +5659,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>7</v>
-      </c>
-      <c r="J141" t="n">
-        <v>105</v>
-      </c>
-      <c r="K141" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L141" t="n">
-        <v>264.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>263.4</v>
-      </c>
-      <c r="N141" t="n">
-        <v>263.0333333333334</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +5694,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>9</v>
-      </c>
-      <c r="J142" t="n">
-        <v>107</v>
-      </c>
-      <c r="K142" t="n">
-        <v>40</v>
-      </c>
-      <c r="L142" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>263.55</v>
-      </c>
-      <c r="N142" t="n">
-        <v>263.1</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +5729,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>10</v>
-      </c>
-      <c r="J143" t="n">
-        <v>108</v>
-      </c>
-      <c r="K143" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L143" t="n">
-        <v>265.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>263.7</v>
-      </c>
-      <c r="N143" t="n">
-        <v>263.2</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +5764,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>12</v>
-      </c>
-      <c r="J144" t="n">
-        <v>110</v>
-      </c>
-      <c r="K144" t="n">
-        <v>40</v>
-      </c>
-      <c r="L144" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>264</v>
-      </c>
-      <c r="N144" t="n">
-        <v>263.5</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +5799,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>12</v>
-      </c>
-      <c r="J145" t="n">
-        <v>110</v>
-      </c>
-      <c r="K145" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L145" t="n">
-        <v>266.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="N145" t="n">
-        <v>263.7</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7690,28 +5834,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>10</v>
-      </c>
-      <c r="J146" t="n">
-        <v>112</v>
-      </c>
-      <c r="K146" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L146" t="n">
-        <v>266.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>264.55</v>
-      </c>
-      <c r="N146" t="n">
-        <v>263.8666666666667</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +5869,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>11</v>
-      </c>
-      <c r="J147" t="n">
-        <v>113</v>
-      </c>
-      <c r="K147" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L147" t="n">
-        <v>266.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>264.85</v>
-      </c>
-      <c r="N147" t="n">
-        <v>264.0666666666667</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +5904,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>12</v>
-      </c>
-      <c r="J148" t="n">
-        <v>114</v>
-      </c>
-      <c r="K148" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L148" t="n">
-        <v>267.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>265.3</v>
-      </c>
-      <c r="N148" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +5939,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>11</v>
-      </c>
-      <c r="J149" t="n">
-        <v>115</v>
-      </c>
-      <c r="K149" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L149" t="n">
-        <v>267.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="N149" t="n">
-        <v>264.4666666666666</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +5974,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>12</v>
-      </c>
-      <c r="J150" t="n">
-        <v>116</v>
-      </c>
-      <c r="K150" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L150" t="n">
-        <v>267.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>266.05</v>
-      </c>
-      <c r="N150" t="n">
-        <v>264.7333333333333</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,28 +6009,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>11</v>
-      </c>
-      <c r="J151" t="n">
-        <v>117</v>
-      </c>
-      <c r="K151" t="n">
-        <v>20</v>
-      </c>
-      <c r="L151" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>266.35</v>
-      </c>
-      <c r="N151" t="n">
-        <v>264.9333333333333</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,28 +6044,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>12</v>
-      </c>
-      <c r="J152" t="n">
-        <v>118</v>
-      </c>
-      <c r="K152" t="n">
-        <v>20</v>
-      </c>
-      <c r="L152" t="n">
-        <v>268.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>266.65</v>
-      </c>
-      <c r="N152" t="n">
-        <v>265.1333333333333</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,28 +6079,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>12</v>
-      </c>
-      <c r="J153" t="n">
-        <v>118</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0</v>
-      </c>
-      <c r="L153" t="n">
-        <v>268.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>267</v>
-      </c>
-      <c r="N153" t="n">
-        <v>265.3</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,28 +6114,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>13</v>
-      </c>
-      <c r="J154" t="n">
-        <v>119</v>
-      </c>
-      <c r="K154" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L154" t="n">
-        <v>268.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>267.3</v>
-      </c>
-      <c r="N154" t="n">
-        <v>265.5333333333334</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,28 +6149,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>13</v>
-      </c>
-      <c r="J155" t="n">
-        <v>119</v>
-      </c>
-      <c r="K155" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L155" t="n">
-        <v>268.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>267.55</v>
-      </c>
-      <c r="N155" t="n">
-        <v>265.7666666666667</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8200,28 +6184,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>14</v>
-      </c>
-      <c r="J156" t="n">
-        <v>120</v>
-      </c>
-      <c r="K156" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L156" t="n">
-        <v>269.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>267.8</v>
-      </c>
-      <c r="N156" t="n">
-        <v>266.0666666666667</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8251,28 +6219,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>16</v>
-      </c>
-      <c r="J157" t="n">
-        <v>122</v>
-      </c>
-      <c r="K157" t="n">
-        <v>50</v>
-      </c>
-      <c r="L157" t="n">
-        <v>269.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>268.15</v>
-      </c>
-      <c r="N157" t="n">
-        <v>266.4333333333333</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8302,28 +6254,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>14</v>
-      </c>
-      <c r="J158" t="n">
-        <v>124</v>
-      </c>
-      <c r="K158" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L158" t="n">
-        <v>269.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>268.45</v>
-      </c>
-      <c r="N158" t="n">
-        <v>266.8</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8353,28 +6289,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>13</v>
-      </c>
-      <c r="J159" t="n">
-        <v>125</v>
-      </c>
-      <c r="K159" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L159" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>268.65</v>
-      </c>
-      <c r="N159" t="n">
-        <v>267.1333333333333</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8404,28 +6324,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>12</v>
-      </c>
-      <c r="J160" t="n">
-        <v>126</v>
-      </c>
-      <c r="K160" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L160" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>268.8</v>
-      </c>
-      <c r="N160" t="n">
-        <v>267.3666666666667</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8455,28 +6359,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>14</v>
-      </c>
-      <c r="J161" t="n">
-        <v>128</v>
-      </c>
-      <c r="K161" t="n">
-        <v>20</v>
-      </c>
-      <c r="L161" t="n">
-        <v>270.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>269.15</v>
-      </c>
-      <c r="N161" t="n">
-        <v>267.6666666666667</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8506,28 +6394,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>14</v>
-      </c>
-      <c r="J162" t="n">
-        <v>128</v>
-      </c>
-      <c r="K162" t="n">
-        <v>20</v>
-      </c>
-      <c r="L162" t="n">
-        <v>270.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>269.4</v>
-      </c>
-      <c r="N162" t="n">
-        <v>267.9333333333333</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8557,28 +6429,12 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>13</v>
-      </c>
-      <c r="J163" t="n">
-        <v>129</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0</v>
-      </c>
-      <c r="L163" t="n">
-        <v>270.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>269.55</v>
-      </c>
-      <c r="N163" t="n">
-        <v>268.2</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8608,28 +6464,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>13</v>
-      </c>
-      <c r="J164" t="n">
-        <v>129</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0</v>
-      </c>
-      <c r="L164" t="n">
-        <v>270.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="N164" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8659,28 +6499,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>13</v>
-      </c>
-      <c r="J165" t="n">
-        <v>129</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L165" t="n">
-        <v>270.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>269.65</v>
-      </c>
-      <c r="N165" t="n">
-        <v>268.5666666666667</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8710,28 +6534,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>13</v>
-      </c>
-      <c r="J166" t="n">
-        <v>129</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L166" t="n">
-        <v>270.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>269.8</v>
-      </c>
-      <c r="N166" t="n">
-        <v>268.7</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8761,28 +6569,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>8</v>
-      </c>
-      <c r="J167" t="n">
-        <v>134</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L167" t="n">
-        <v>269.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>269.65</v>
-      </c>
-      <c r="N167" t="n">
-        <v>268.6666666666667</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8812,28 +6604,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>11</v>
-      </c>
-      <c r="J168" t="n">
-        <v>137</v>
-      </c>
-      <c r="K168" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L168" t="n">
-        <v>269.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="N168" t="n">
-        <v>268.7666666666667</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8863,28 +6639,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>9</v>
-      </c>
-      <c r="J169" t="n">
-        <v>139</v>
-      </c>
-      <c r="K169" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L169" t="n">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>269.5</v>
-      </c>
-      <c r="N169" t="n">
-        <v>268.7666666666667</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8914,28 +6674,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>11</v>
-      </c>
-      <c r="J170" t="n">
-        <v>141</v>
-      </c>
-      <c r="K170" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L170" t="n">
-        <v>268.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>269.45</v>
-      </c>
-      <c r="N170" t="n">
-        <v>268.8333333333333</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8965,28 +6709,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>12</v>
-      </c>
-      <c r="J171" t="n">
-        <v>142</v>
-      </c>
-      <c r="K171" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L171" t="n">
-        <v>268.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>269.5</v>
-      </c>
-      <c r="N171" t="n">
-        <v>269</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9016,28 +6744,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>10</v>
-      </c>
-      <c r="J172" t="n">
-        <v>144</v>
-      </c>
-      <c r="K172" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L172" t="n">
-        <v>268.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
-        <v>269.4</v>
-      </c>
-      <c r="N172" t="n">
-        <v>269.0333333333334</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9067,28 +6779,12 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>10</v>
-      </c>
-      <c r="J173" t="n">
-        <v>144</v>
-      </c>
-      <c r="K173" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L173" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="N173" t="n">
-        <v>269.0333333333334</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9118,28 +6814,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>12</v>
-      </c>
-      <c r="J174" t="n">
-        <v>146</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L174" t="n">
-        <v>267.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>269.25</v>
-      </c>
-      <c r="N174" t="n">
-        <v>269.0333333333334</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9169,1099 +6849,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>12</v>
-      </c>
-      <c r="J175" t="n">
-        <v>146</v>
-      </c>
-      <c r="K175" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L175" t="n">
-        <v>267.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>269.2</v>
-      </c>
-      <c r="N175" t="n">
-        <v>269.0333333333334</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>269</v>
-      </c>
-      <c r="C176" t="n">
-        <v>269</v>
-      </c>
-      <c r="D176" t="n">
-        <v>269</v>
-      </c>
-      <c r="E176" t="n">
-        <v>269</v>
-      </c>
-      <c r="F176" t="n">
-        <v>9.7614</v>
-      </c>
-      <c r="G176" t="n">
-        <v>266.4833333333333</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>12</v>
-      </c>
-      <c r="J176" t="n">
-        <v>146</v>
-      </c>
-      <c r="K176" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L176" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="M176" t="n">
-        <v>269.1</v>
-      </c>
-      <c r="N176" t="n">
-        <v>269.1</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>270</v>
-      </c>
-      <c r="C177" t="n">
-        <v>270</v>
-      </c>
-      <c r="D177" t="n">
-        <v>270</v>
-      </c>
-      <c r="E177" t="n">
-        <v>270</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1055.9313</v>
-      </c>
-      <c r="G177" t="n">
-        <v>266.6166666666667</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>13</v>
-      </c>
-      <c r="J177" t="n">
-        <v>147</v>
-      </c>
-      <c r="K177" t="n">
-        <v>20</v>
-      </c>
-      <c r="L177" t="n">
-        <v>268.2</v>
-      </c>
-      <c r="M177" t="n">
-        <v>268.95</v>
-      </c>
-      <c r="N177" t="n">
-        <v>269.1666666666667</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>270</v>
-      </c>
-      <c r="C178" t="n">
-        <v>270</v>
-      </c>
-      <c r="D178" t="n">
-        <v>270</v>
-      </c>
-      <c r="E178" t="n">
-        <v>270</v>
-      </c>
-      <c r="F178" t="n">
-        <v>650</v>
-      </c>
-      <c r="G178" t="n">
-        <v>266.75</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>13</v>
-      </c>
-      <c r="J178" t="n">
-        <v>147</v>
-      </c>
-      <c r="K178" t="n">
-        <v>50</v>
-      </c>
-      <c r="L178" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="M178" t="n">
-        <v>268.9</v>
-      </c>
-      <c r="N178" t="n">
-        <v>269.2</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>269</v>
-      </c>
-      <c r="C179" t="n">
-        <v>269</v>
-      </c>
-      <c r="D179" t="n">
-        <v>269</v>
-      </c>
-      <c r="E179" t="n">
-        <v>269</v>
-      </c>
-      <c r="F179" t="n">
-        <v>2211</v>
-      </c>
-      <c r="G179" t="n">
-        <v>266.85</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>12</v>
-      </c>
-      <c r="J179" t="n">
-        <v>148</v>
-      </c>
-      <c r="K179" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L179" t="n">
-        <v>268.7</v>
-      </c>
-      <c r="M179" t="n">
-        <v>268.85</v>
-      </c>
-      <c r="N179" t="n">
-        <v>269.2333333333333</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>270</v>
-      </c>
-      <c r="C180" t="n">
-        <v>270</v>
-      </c>
-      <c r="D180" t="n">
-        <v>270</v>
-      </c>
-      <c r="E180" t="n">
-        <v>270</v>
-      </c>
-      <c r="F180" t="n">
-        <v>5187.6481</v>
-      </c>
-      <c r="G180" t="n">
-        <v>267</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>13</v>
-      </c>
-      <c r="J180" t="n">
-        <v>149</v>
-      </c>
-      <c r="K180" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L180" t="n">
-        <v>268.9</v>
-      </c>
-      <c r="M180" t="n">
-        <v>268.9</v>
-      </c>
-      <c r="N180" t="n">
-        <v>269.2666666666667</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>269</v>
-      </c>
-      <c r="C181" t="n">
-        <v>269</v>
-      </c>
-      <c r="D181" t="n">
-        <v>269</v>
-      </c>
-      <c r="E181" t="n">
-        <v>269</v>
-      </c>
-      <c r="F181" t="n">
-        <v>3194</v>
-      </c>
-      <c r="G181" t="n">
-        <v>267.1166666666667</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>12</v>
-      </c>
-      <c r="J181" t="n">
-        <v>150</v>
-      </c>
-      <c r="K181" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L181" t="n">
-        <v>268.9</v>
-      </c>
-      <c r="M181" t="n">
-        <v>268.8</v>
-      </c>
-      <c r="N181" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>269</v>
-      </c>
-      <c r="C182" t="n">
-        <v>269</v>
-      </c>
-      <c r="D182" t="n">
-        <v>269</v>
-      </c>
-      <c r="E182" t="n">
-        <v>269</v>
-      </c>
-      <c r="F182" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G182" t="n">
-        <v>267.2166666666666</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>12</v>
-      </c>
-      <c r="J182" t="n">
-        <v>150</v>
-      </c>
-      <c r="K182" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L182" t="n">
-        <v>269.1</v>
-      </c>
-      <c r="M182" t="n">
-        <v>268.7</v>
-      </c>
-      <c r="N182" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>268</v>
-      </c>
-      <c r="C183" t="n">
-        <v>268</v>
-      </c>
-      <c r="D183" t="n">
-        <v>268</v>
-      </c>
-      <c r="E183" t="n">
-        <v>268</v>
-      </c>
-      <c r="F183" t="n">
-        <v>360.5205</v>
-      </c>
-      <c r="G183" t="n">
-        <v>267.2833333333334</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>11</v>
-      </c>
-      <c r="J183" t="n">
-        <v>151</v>
-      </c>
-      <c r="K183" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L183" t="n">
-        <v>269.2</v>
-      </c>
-      <c r="M183" t="n">
-        <v>268.6</v>
-      </c>
-      <c r="N183" t="n">
-        <v>269.2666666666667</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>267</v>
-      </c>
-      <c r="C184" t="n">
-        <v>266</v>
-      </c>
-      <c r="D184" t="n">
-        <v>267</v>
-      </c>
-      <c r="E184" t="n">
-        <v>266</v>
-      </c>
-      <c r="F184" t="n">
-        <v>15802.0015</v>
-      </c>
-      <c r="G184" t="n">
-        <v>267.3333333333333</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>9</v>
-      </c>
-      <c r="J184" t="n">
-        <v>153</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L184" t="n">
-        <v>268.9</v>
-      </c>
-      <c r="M184" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="N184" t="n">
-        <v>269.1333333333333</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>266</v>
-      </c>
-      <c r="C185" t="n">
-        <v>266</v>
-      </c>
-      <c r="D185" t="n">
-        <v>266</v>
-      </c>
-      <c r="E185" t="n">
-        <v>266</v>
-      </c>
-      <c r="F185" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G185" t="n">
-        <v>267.3833333333333</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>9</v>
-      </c>
-      <c r="J185" t="n">
-        <v>153</v>
-      </c>
-      <c r="K185" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L185" t="n">
-        <v>268.6</v>
-      </c>
-      <c r="M185" t="n">
-        <v>268.2</v>
-      </c>
-      <c r="N185" t="n">
-        <v>269</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>268</v>
-      </c>
-      <c r="C186" t="n">
-        <v>268</v>
-      </c>
-      <c r="D186" t="n">
-        <v>268</v>
-      </c>
-      <c r="E186" t="n">
-        <v>268</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1447.2947</v>
-      </c>
-      <c r="G186" t="n">
-        <v>267.4833333333333</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>11</v>
-      </c>
-      <c r="J186" t="n">
-        <v>155</v>
-      </c>
-      <c r="K186" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L186" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="M186" t="n">
-        <v>268.1</v>
-      </c>
-      <c r="N186" t="n">
-        <v>268.9</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>266</v>
-      </c>
-      <c r="C187" t="n">
-        <v>266</v>
-      </c>
-      <c r="D187" t="n">
-        <v>266</v>
-      </c>
-      <c r="E187" t="n">
-        <v>266</v>
-      </c>
-      <c r="F187" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G187" t="n">
-        <v>267.55</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>9</v>
-      </c>
-      <c r="J187" t="n">
-        <v>157</v>
-      </c>
-      <c r="K187" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L187" t="n">
-        <v>268.1</v>
-      </c>
-      <c r="M187" t="n">
-        <v>268.15</v>
-      </c>
-      <c r="N187" t="n">
-        <v>268.6666666666667</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>266</v>
-      </c>
-      <c r="C188" t="n">
-        <v>268</v>
-      </c>
-      <c r="D188" t="n">
-        <v>268</v>
-      </c>
-      <c r="E188" t="n">
-        <v>265</v>
-      </c>
-      <c r="F188" t="n">
-        <v>5143.6765</v>
-      </c>
-      <c r="G188" t="n">
-        <v>267.6833333333333</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>11</v>
-      </c>
-      <c r="J188" t="n">
-        <v>159</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L188" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="M188" t="n">
-        <v>268.15</v>
-      </c>
-      <c r="N188" t="n">
-        <v>268.5666666666667</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>267</v>
-      </c>
-      <c r="C189" t="n">
-        <v>268</v>
-      </c>
-      <c r="D189" t="n">
-        <v>268</v>
-      </c>
-      <c r="E189" t="n">
-        <v>267</v>
-      </c>
-      <c r="F189" t="n">
-        <v>14450</v>
-      </c>
-      <c r="G189" t="n">
-        <v>267.8166666666667</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>11</v>
-      </c>
-      <c r="J189" t="n">
-        <v>159</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L189" t="n">
-        <v>267.8</v>
-      </c>
-      <c r="M189" t="n">
-        <v>268.25</v>
-      </c>
-      <c r="N189" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>269</v>
-      </c>
-      <c r="C190" t="n">
-        <v>270</v>
-      </c>
-      <c r="D190" t="n">
-        <v>270</v>
-      </c>
-      <c r="E190" t="n">
-        <v>269</v>
-      </c>
-      <c r="F190" t="n">
-        <v>10281.2413</v>
-      </c>
-      <c r="G190" t="n">
-        <v>267.95</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>13</v>
-      </c>
-      <c r="J190" t="n">
-        <v>161</v>
-      </c>
-      <c r="K190" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L190" t="n">
-        <v>267.8</v>
-      </c>
-      <c r="M190" t="n">
-        <v>268.35</v>
-      </c>
-      <c r="N190" t="n">
-        <v>268.5333333333334</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>271</v>
-      </c>
-      <c r="C191" t="n">
-        <v>271</v>
-      </c>
-      <c r="D191" t="n">
-        <v>271</v>
-      </c>
-      <c r="E191" t="n">
-        <v>271</v>
-      </c>
-      <c r="F191" t="n">
-        <v>1670</v>
-      </c>
-      <c r="G191" t="n">
-        <v>268.1</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>14</v>
-      </c>
-      <c r="J191" t="n">
-        <v>162</v>
-      </c>
-      <c r="K191" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L191" t="n">
-        <v>268</v>
-      </c>
-      <c r="M191" t="n">
-        <v>268.45</v>
-      </c>
-      <c r="N191" t="n">
-        <v>268.5333333333334</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>271</v>
-      </c>
-      <c r="C192" t="n">
-        <v>271</v>
-      </c>
-      <c r="D192" t="n">
-        <v>271</v>
-      </c>
-      <c r="E192" t="n">
-        <v>271</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1316.3911</v>
-      </c>
-      <c r="G192" t="n">
-        <v>268.2333333333333</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>14</v>
-      </c>
-      <c r="J192" t="n">
-        <v>162</v>
-      </c>
-      <c r="K192" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L192" t="n">
-        <v>268.2</v>
-      </c>
-      <c r="M192" t="n">
-        <v>268.65</v>
-      </c>
-      <c r="N192" t="n">
-        <v>268.5333333333334</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>272</v>
-      </c>
-      <c r="C193" t="n">
-        <v>273</v>
-      </c>
-      <c r="D193" t="n">
-        <v>273</v>
-      </c>
-      <c r="E193" t="n">
-        <v>272</v>
-      </c>
-      <c r="F193" t="n">
-        <v>12223.7582</v>
-      </c>
-      <c r="G193" t="n">
-        <v>268.4166666666667</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>16</v>
-      </c>
-      <c r="J193" t="n">
-        <v>164</v>
-      </c>
-      <c r="K193" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L193" t="n">
-        <v>268.7</v>
-      </c>
-      <c r="M193" t="n">
-        <v>268.95</v>
-      </c>
-      <c r="N193" t="n">
-        <v>268.6333333333333</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>273</v>
-      </c>
-      <c r="C194" t="n">
-        <v>273</v>
-      </c>
-      <c r="D194" t="n">
-        <v>273</v>
-      </c>
-      <c r="E194" t="n">
-        <v>273</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1535.5238</v>
-      </c>
-      <c r="G194" t="n">
-        <v>268.5666666666667</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>16</v>
-      </c>
-      <c r="J194" t="n">
-        <v>164</v>
-      </c>
-      <c r="K194" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L194" t="n">
-        <v>269.4</v>
-      </c>
-      <c r="M194" t="n">
-        <v>269.15</v>
-      </c>
-      <c r="N194" t="n">
-        <v>268.7333333333333</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>274</v>
-      </c>
-      <c r="C195" t="n">
-        <v>274</v>
-      </c>
-      <c r="D195" t="n">
-        <v>274</v>
-      </c>
-      <c r="E195" t="n">
-        <v>274</v>
-      </c>
-      <c r="F195" t="n">
-        <v>24408.0291</v>
-      </c>
-      <c r="G195" t="n">
-        <v>268.7166666666666</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>17</v>
-      </c>
-      <c r="J195" t="n">
-        <v>165</v>
-      </c>
-      <c r="K195" t="n">
-        <v>60</v>
-      </c>
-      <c r="L195" t="n">
-        <v>270.2</v>
-      </c>
-      <c r="M195" t="n">
-        <v>269.4</v>
-      </c>
-      <c r="N195" t="n">
-        <v>268.8666666666667</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>273</v>
-      </c>
-      <c r="C196" t="n">
-        <v>273</v>
-      </c>
-      <c r="D196" t="n">
-        <v>273</v>
-      </c>
-      <c r="E196" t="n">
-        <v>273</v>
-      </c>
-      <c r="F196" t="n">
-        <v>5631.897435897436</v>
-      </c>
-      <c r="G196" t="n">
-        <v>268.8333333333333</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>16</v>
-      </c>
-      <c r="J196" t="n">
-        <v>166</v>
-      </c>
-      <c r="K196" t="n">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="L196" t="n">
-        <v>270.7</v>
-      </c>
-      <c r="M196" t="n">
-        <v>269.6</v>
-      </c>
-      <c r="N196" t="n">
-        <v>268.9666666666666</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-17 BackTest BAT.xlsx
+++ b/BackTest/2019-10-17 BackTest BAT.xlsx
@@ -1256,17 +1256,13 @@
         <v>258.9666666666666</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>255</v>
-      </c>
-      <c r="K25" t="n">
-        <v>255</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
@@ -1295,22 +1291,14 @@
         <v>258.8833333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>255</v>
-      </c>
-      <c r="K26" t="n">
-        <v>255</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1326,14 @@
         <v>258.8333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>256</v>
-      </c>
-      <c r="K27" t="n">
-        <v>255</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1387,11 +1367,9 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>254</v>
-      </c>
-      <c r="K28" t="n">
-        <v>255</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -1432,9 +1410,7 @@
       <c r="J29" t="n">
         <v>256</v>
       </c>
-      <c r="K29" t="n">
-        <v>255</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1473,11 +1449,9 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>257</v>
-      </c>
-      <c r="K30" t="n">
-        <v>255</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1516,11 +1490,9 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>254</v>
-      </c>
-      <c r="K31" t="n">
-        <v>255</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1561,9 +1533,7 @@
       <c r="J32" t="n">
         <v>256</v>
       </c>
-      <c r="K32" t="n">
-        <v>255</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1596,17 +1566,13 @@
         <v>258.3166666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>256</v>
-      </c>
-      <c r="K33" t="n">
-        <v>255</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1639,17 +1605,13 @@
         <v>258.1666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>256</v>
-      </c>
-      <c r="K34" t="n">
-        <v>255</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1682,17 +1644,13 @@
         <v>258.05</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>256</v>
-      </c>
-      <c r="K35" t="n">
-        <v>255</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1725,17 +1683,13 @@
         <v>257.9166666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>256</v>
-      </c>
-      <c r="K36" t="n">
-        <v>255</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1768,17 +1722,13 @@
         <v>257.8</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>254</v>
-      </c>
-      <c r="K37" t="n">
-        <v>255</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1811,17 +1761,13 @@
         <v>257.6833333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>253</v>
-      </c>
-      <c r="K38" t="n">
-        <v>255</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1854,17 +1800,13 @@
         <v>257.5833333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>255</v>
-      </c>
-      <c r="K39" t="n">
-        <v>255</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1897,17 +1839,13 @@
         <v>257.5</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>255</v>
-      </c>
-      <c r="K40" t="n">
-        <v>255</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1940,17 +1878,13 @@
         <v>257.4166666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>254</v>
-      </c>
-      <c r="K41" t="n">
-        <v>255</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1983,17 +1917,13 @@
         <v>257.3166666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>253</v>
-      </c>
-      <c r="K42" t="n">
-        <v>255</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2026,17 +1956,13 @@
         <v>257.1833333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>255</v>
-      </c>
-      <c r="K43" t="n">
-        <v>255</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2069,17 +1995,13 @@
         <v>257.05</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>255</v>
-      </c>
-      <c r="K44" t="n">
-        <v>255</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2112,17 +2034,13 @@
         <v>256.9333333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>255</v>
-      </c>
-      <c r="K45" t="n">
-        <v>255</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2155,17 +2073,13 @@
         <v>256.8333333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>255</v>
-      </c>
-      <c r="K46" t="n">
-        <v>255</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2198,17 +2112,13 @@
         <v>256.75</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>255</v>
-      </c>
-      <c r="K47" t="n">
-        <v>255</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2241,17 +2151,13 @@
         <v>256.7166666666666</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>256</v>
-      </c>
-      <c r="K48" t="n">
-        <v>255</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2284,17 +2190,13 @@
         <v>256.6666666666667</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>256</v>
-      </c>
-      <c r="K49" t="n">
-        <v>255</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2327,17 +2229,13 @@
         <v>256.6166666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>256</v>
-      </c>
-      <c r="K50" t="n">
-        <v>255</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2370,17 +2268,13 @@
         <v>256.5666666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>256</v>
-      </c>
-      <c r="K51" t="n">
-        <v>255</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2413,17 +2307,13 @@
         <v>256.5166666666667</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>255</v>
-      </c>
-      <c r="K52" t="n">
-        <v>255</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2456,17 +2346,13 @@
         <v>256.4666666666666</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>256</v>
-      </c>
-      <c r="K53" t="n">
-        <v>255</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2499,17 +2385,13 @@
         <v>256.4666666666666</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>258</v>
-      </c>
-      <c r="K54" t="n">
-        <v>255</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2542,17 +2424,13 @@
         <v>256.4833333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>259</v>
-      </c>
-      <c r="K55" t="n">
-        <v>255</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2585,17 +2463,13 @@
         <v>256.4833333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>258</v>
-      </c>
-      <c r="K56" t="n">
-        <v>255</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2628,17 +2502,13 @@
         <v>256.5</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>259</v>
-      </c>
-      <c r="K57" t="n">
-        <v>255</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2671,17 +2541,13 @@
         <v>256.5166666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>260</v>
-      </c>
-      <c r="K58" t="n">
-        <v>255</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2720,9 +2586,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>255</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2761,9 +2625,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>255</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2802,9 +2664,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>255</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2843,9 +2703,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>255</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2884,9 +2742,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>255</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2925,9 +2781,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>255</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2966,9 +2820,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>255</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3007,9 +2859,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>255</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3048,9 +2898,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>255</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3089,9 +2937,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>255</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3130,9 +2976,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>255</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3168,19 +3012,17 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>255</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1.022450980392157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -3209,11 +3051,15 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3244,11 +3090,15 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3279,11 +3129,15 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3314,11 +3168,15 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3353,7 +3211,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3388,7 +3250,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3423,7 +3289,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3328,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3493,7 +3367,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3528,7 +3406,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3563,7 +3445,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3598,7 +3484,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3633,7 +3523,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3668,7 +3562,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3703,7 +3601,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3738,7 +3640,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3773,7 +3679,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3808,7 +3718,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3843,7 +3757,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3878,7 +3796,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3913,7 +3835,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3948,7 +3874,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3983,7 +3913,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4018,7 +3952,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4053,7 +3991,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4088,7 +4030,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4123,7 +4069,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4158,7 +4108,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4193,7 +4147,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4228,7 +4186,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4263,7 +4225,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4298,7 +4264,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4333,7 +4303,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4368,7 +4342,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4403,7 +4381,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4438,7 +4420,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4473,7 +4459,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4508,7 +4498,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4543,7 +4537,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4578,7 +4576,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +4615,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4648,7 +4654,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4683,7 +4693,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4718,7 +4732,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4753,7 +4771,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4788,7 +4810,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4823,7 +4849,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4858,7 +4888,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4893,7 +4927,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4928,7 +4966,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4963,7 +5005,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4998,7 +5044,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5033,7 +5083,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5068,7 +5122,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5103,7 +5161,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5138,7 +5200,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5173,7 +5239,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5208,7 +5278,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5243,7 +5317,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5278,7 +5356,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5313,7 +5395,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5348,7 +5434,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5383,7 +5473,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5418,7 +5512,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5453,7 +5551,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5488,7 +5590,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5523,7 +5629,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5558,7 +5668,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5593,7 +5707,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5628,7 +5746,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5663,7 +5785,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5698,7 +5824,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5733,7 +5863,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +5902,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5803,7 +5941,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5838,7 +5980,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5873,7 +6019,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5908,7 +6058,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5943,7 +6097,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5974,14 +6132,16 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6254,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6289,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6324,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>

--- a/BackTest/2019-10-17 BackTest BAT.xlsx
+++ b/BackTest/2019-10-17 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>257</v>
       </c>
       <c r="F2" t="n">
-        <v>5142.6344</v>
+        <v>1409.5425</v>
       </c>
       <c r="G2" t="n">
-        <v>259.0833333333333</v>
+        <v>259.1166666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C3" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D3" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E3" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F3" t="n">
-        <v>480.0057</v>
+        <v>5142.6344</v>
       </c>
       <c r="G3" t="n">
-        <v>259.1</v>
+        <v>259.0833333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>259</v>
       </c>
       <c r="F4" t="n">
-        <v>180.0009</v>
+        <v>480.0057</v>
       </c>
       <c r="G4" t="n">
-        <v>259.1166666666667</v>
+        <v>259.1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>259</v>
       </c>
       <c r="F5" t="n">
-        <v>170.3011</v>
+        <v>180.0009</v>
       </c>
       <c r="G5" t="n">
-        <v>259.1666666666667</v>
+        <v>259.1166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>259</v>
       </c>
       <c r="C6" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D6" t="n">
         <v>259</v>
       </c>
       <c r="E6" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F6" t="n">
-        <v>19309.8374</v>
+        <v>170.3011</v>
       </c>
       <c r="G6" t="n">
-        <v>259.15</v>
+        <v>259.1666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C7" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D7" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E7" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F7" t="n">
-        <v>281.4399</v>
+        <v>19309.8374</v>
       </c>
       <c r="G7" t="n">
-        <v>259.1333333333333</v>
+        <v>259.15</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>258</v>
       </c>
       <c r="F8" t="n">
-        <v>212.0962</v>
+        <v>281.4399</v>
       </c>
       <c r="G8" t="n">
         <v>259.1333333333333</v>
@@ -690,10 +690,10 @@
         <v>258</v>
       </c>
       <c r="F9" t="n">
-        <v>1786.776</v>
+        <v>212.0962</v>
       </c>
       <c r="G9" t="n">
-        <v>259.2</v>
+        <v>259.1333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>258</v>
       </c>
       <c r="F10" t="n">
-        <v>461.3739</v>
+        <v>1786.776</v>
       </c>
       <c r="G10" t="n">
-        <v>259.25</v>
+        <v>259.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>258</v>
       </c>
       <c r="F11" t="n">
-        <v>65.96510000000001</v>
+        <v>461.3739</v>
       </c>
       <c r="G11" t="n">
-        <v>259.2833333333334</v>
+        <v>259.25</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D12" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E12" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F12" t="n">
-        <v>69.277</v>
+        <v>65.96510000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>259.3</v>
+        <v>259.2833333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>259</v>
       </c>
       <c r="F13" t="n">
-        <v>111.5365</v>
+        <v>69.277</v>
       </c>
       <c r="G13" t="n">
-        <v>259.3166666666667</v>
+        <v>259.3</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>259</v>
       </c>
       <c r="F14" t="n">
-        <v>148.6872</v>
+        <v>111.5365</v>
       </c>
       <c r="G14" t="n">
-        <v>259.3333333333333</v>
+        <v>259.3166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C15" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D15" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E15" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F15" t="n">
-        <v>395</v>
+        <v>148.6872</v>
       </c>
       <c r="G15" t="n">
-        <v>259.3666666666667</v>
+        <v>259.3333333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>258</v>
       </c>
       <c r="F16" t="n">
-        <v>145.419</v>
+        <v>395</v>
       </c>
       <c r="G16" t="n">
         <v>259.3666666666667</v>
@@ -970,10 +970,10 @@
         <v>258</v>
       </c>
       <c r="F17" t="n">
-        <v>235.4941</v>
+        <v>145.419</v>
       </c>
       <c r="G17" t="n">
-        <v>259.35</v>
+        <v>259.3666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C18" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D18" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E18" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F18" t="n">
-        <v>394.3613</v>
+        <v>235.4941</v>
       </c>
       <c r="G18" t="n">
-        <v>259.3</v>
+        <v>259.35</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C19" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D19" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E19" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>394.3613</v>
       </c>
       <c r="G19" t="n">
         <v>259.3</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C20" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D20" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E20" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F20" t="n">
-        <v>134.7656</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>259.2666666666667</v>
+        <v>259.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C21" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D21" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E21" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F21" t="n">
-        <v>280</v>
+        <v>134.7656</v>
       </c>
       <c r="G21" t="n">
-        <v>259.2166666666666</v>
+        <v>259.2666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>255</v>
       </c>
       <c r="F22" t="n">
-        <v>2515.1549</v>
+        <v>280</v>
       </c>
       <c r="G22" t="n">
-        <v>259.1666666666667</v>
+        <v>259.2166666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C23" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D23" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E23" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F23" t="n">
-        <v>4270.9414</v>
+        <v>2515.1549</v>
       </c>
       <c r="G23" t="n">
-        <v>259.0833333333333</v>
+        <v>259.1666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C24" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D24" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E24" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F24" t="n">
-        <v>24.8682</v>
+        <v>4270.9414</v>
       </c>
       <c r="G24" t="n">
-        <v>259.0333333333334</v>
+        <v>259.0833333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,19 +1250,23 @@
         <v>255</v>
       </c>
       <c r="F25" t="n">
-        <v>2660</v>
+        <v>24.8682</v>
       </c>
       <c r="G25" t="n">
-        <v>258.9666666666666</v>
+        <v>259.0333333333334</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>253</v>
+      </c>
+      <c r="K25" t="n">
+        <v>253</v>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
@@ -1285,20 +1289,28 @@
         <v>255</v>
       </c>
       <c r="F26" t="n">
-        <v>2297.9161</v>
+        <v>2660</v>
       </c>
       <c r="G26" t="n">
-        <v>258.8833333333333</v>
+        <v>258.9666666666666</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>255</v>
+      </c>
+      <c r="K26" t="n">
+        <v>253</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,32 +1320,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C27" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D27" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E27" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F27" t="n">
-        <v>412.9921</v>
+        <v>2297.9161</v>
       </c>
       <c r="G27" t="n">
-        <v>258.8333333333333</v>
+        <v>258.8833333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>255</v>
+      </c>
+      <c r="K27" t="n">
+        <v>253</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,7 +1363,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C28" t="n">
         <v>256</v>
@@ -1352,70 +1372,68 @@
         <v>256</v>
       </c>
       <c r="E28" t="n">
+        <v>256</v>
+      </c>
+      <c r="F28" t="n">
+        <v>412.9921</v>
+      </c>
+      <c r="G28" t="n">
+        <v>258.8333333333333</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>255</v>
+      </c>
+      <c r="K28" t="n">
+        <v>255</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
         <v>254</v>
       </c>
-      <c r="F28" t="n">
+      <c r="C29" t="n">
+        <v>256</v>
+      </c>
+      <c r="D29" t="n">
+        <v>256</v>
+      </c>
+      <c r="E29" t="n">
+        <v>254</v>
+      </c>
+      <c r="F29" t="n">
         <v>532.0359999999999</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G29" t="n">
         <v>258.7666666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>256</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>255</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>256</v>
-      </c>
-      <c r="C29" t="n">
-        <v>256</v>
-      </c>
-      <c r="D29" t="n">
-        <v>256</v>
-      </c>
-      <c r="E29" t="n">
-        <v>256</v>
-      </c>
-      <c r="F29" t="n">
-        <v>449.039</v>
-      </c>
-      <c r="G29" t="n">
-        <v>258.6833333333333</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>256</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1425,33 +1443,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C30" t="n">
         <v>256</v>
       </c>
       <c r="D30" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E30" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F30" t="n">
-        <v>7022.4918</v>
+        <v>449.039</v>
       </c>
       <c r="G30" t="n">
-        <v>258.6166666666667</v>
+        <v>258.6833333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>256</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>255</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1466,33 +1484,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C31" t="n">
         <v>256</v>
       </c>
       <c r="D31" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E31" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F31" t="n">
-        <v>751.4902</v>
+        <v>7022.4918</v>
       </c>
       <c r="G31" t="n">
-        <v>258.5166666666667</v>
+        <v>258.6166666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>256</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>255</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1507,7 +1525,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C32" t="n">
         <v>256</v>
@@ -1516,24 +1534,24 @@
         <v>256</v>
       </c>
       <c r="E32" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F32" t="n">
-        <v>301.5233</v>
+        <v>751.4902</v>
       </c>
       <c r="G32" t="n">
-        <v>258.4166666666667</v>
+        <v>258.5166666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>256</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>255</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1560,10 +1578,10 @@
         <v>256</v>
       </c>
       <c r="F33" t="n">
-        <v>462.2165</v>
+        <v>301.5233</v>
       </c>
       <c r="G33" t="n">
-        <v>258.3166666666667</v>
+        <v>258.4166666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1572,7 +1590,9 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>255</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1590,19 +1610,19 @@
         <v>256</v>
       </c>
       <c r="C34" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D34" t="n">
         <v>256</v>
       </c>
       <c r="E34" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F34" t="n">
-        <v>1789.8016</v>
+        <v>462.2165</v>
       </c>
       <c r="G34" t="n">
-        <v>258.1666666666667</v>
+        <v>258.3166666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1611,7 +1631,9 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>255</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1629,19 +1651,19 @@
         <v>256</v>
       </c>
       <c r="C35" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D35" t="n">
         <v>256</v>
       </c>
       <c r="E35" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F35" t="n">
-        <v>40.8093</v>
+        <v>1789.8016</v>
       </c>
       <c r="G35" t="n">
-        <v>258.05</v>
+        <v>258.1666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,7 +1672,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>255</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1677,10 +1701,10 @@
         <v>256</v>
       </c>
       <c r="F36" t="n">
-        <v>56.525</v>
+        <v>40.8093</v>
       </c>
       <c r="G36" t="n">
-        <v>257.9166666666667</v>
+        <v>258.05</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1689,7 +1713,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>255</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1704,22 +1730,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C37" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D37" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E37" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F37" t="n">
-        <v>443.8754</v>
+        <v>56.525</v>
       </c>
       <c r="G37" t="n">
-        <v>257.8</v>
+        <v>257.9166666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1728,7 +1754,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>255</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1743,22 +1771,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C38" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D38" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E38" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F38" t="n">
-        <v>421.8868</v>
+        <v>443.8754</v>
       </c>
       <c r="G38" t="n">
-        <v>257.6833333333333</v>
+        <v>257.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1767,7 +1795,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>255</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1782,22 +1812,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C39" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D39" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E39" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F39" t="n">
-        <v>770.7584000000001</v>
+        <v>421.8868</v>
       </c>
       <c r="G39" t="n">
-        <v>257.5833333333333</v>
+        <v>257.6833333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,7 +1836,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>255</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1833,10 +1865,10 @@
         <v>255</v>
       </c>
       <c r="F40" t="n">
-        <v>457.4949</v>
+        <v>770.7584000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>257.5</v>
+        <v>257.5833333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1845,7 +1877,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>255</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1860,22 +1894,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C41" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D41" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E41" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F41" t="n">
-        <v>206.6315</v>
+        <v>457.4949</v>
       </c>
       <c r="G41" t="n">
-        <v>257.4166666666667</v>
+        <v>257.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1884,7 +1918,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>255</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1899,22 +1935,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C42" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D42" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E42" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F42" t="n">
-        <v>1577.2763</v>
+        <v>206.6315</v>
       </c>
       <c r="G42" t="n">
-        <v>257.3166666666667</v>
+        <v>257.4166666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1923,7 +1959,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>255</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1938,7 +1976,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C43" t="n">
         <v>255</v>
@@ -1947,13 +1985,13 @@
         <v>255</v>
       </c>
       <c r="E43" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F43" t="n">
-        <v>2150.001</v>
+        <v>1577.2763</v>
       </c>
       <c r="G43" t="n">
-        <v>257.1833333333333</v>
+        <v>257.3166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1962,7 +2000,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>255</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1989,10 +2029,10 @@
         <v>255</v>
       </c>
       <c r="F44" t="n">
-        <v>2140.5282</v>
+        <v>2150.001</v>
       </c>
       <c r="G44" t="n">
-        <v>257.05</v>
+        <v>257.1833333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2001,7 +2041,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>255</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2028,10 +2070,10 @@
         <v>255</v>
       </c>
       <c r="F45" t="n">
-        <v>296.3919</v>
+        <v>2140.5282</v>
       </c>
       <c r="G45" t="n">
-        <v>256.9333333333333</v>
+        <v>257.05</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2040,7 +2082,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>255</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2067,10 +2111,10 @@
         <v>255</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>296.3919</v>
       </c>
       <c r="G46" t="n">
-        <v>256.8333333333333</v>
+        <v>256.9333333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2079,7 +2123,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>255</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2106,10 +2152,10 @@
         <v>255</v>
       </c>
       <c r="F47" t="n">
-        <v>263.797</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>256.75</v>
+        <v>256.8333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2118,7 +2164,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>255</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2133,22 +2181,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C48" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D48" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E48" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F48" t="n">
-        <v>11727.0958</v>
+        <v>263.797</v>
       </c>
       <c r="G48" t="n">
-        <v>256.7166666666666</v>
+        <v>256.75</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2157,7 +2205,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>255</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2181,13 +2231,13 @@
         <v>256</v>
       </c>
       <c r="E49" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F49" t="n">
-        <v>701.1559</v>
+        <v>11727.0958</v>
       </c>
       <c r="G49" t="n">
-        <v>256.6666666666667</v>
+        <v>256.7166666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2196,7 +2246,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>255</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2223,10 +2275,10 @@
         <v>256</v>
       </c>
       <c r="F50" t="n">
-        <v>1465</v>
+        <v>701.1559</v>
       </c>
       <c r="G50" t="n">
-        <v>256.6166666666667</v>
+        <v>256.6666666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2235,7 +2287,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>255</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2262,10 +2316,10 @@
         <v>256</v>
       </c>
       <c r="F51" t="n">
-        <v>275.0386</v>
+        <v>1465</v>
       </c>
       <c r="G51" t="n">
-        <v>256.5666666666667</v>
+        <v>256.6166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2274,7 +2328,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>255</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2289,7 +2345,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C52" t="n">
         <v>256</v>
@@ -2298,13 +2354,13 @@
         <v>256</v>
       </c>
       <c r="E52" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F52" t="n">
-        <v>366.4281</v>
+        <v>275.0386</v>
       </c>
       <c r="G52" t="n">
-        <v>256.5166666666667</v>
+        <v>256.5666666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2313,7 +2369,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>255</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2328,7 +2386,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C53" t="n">
         <v>256</v>
@@ -2337,13 +2395,13 @@
         <v>256</v>
       </c>
       <c r="E53" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F53" t="n">
-        <v>3939.1693</v>
+        <v>366.4281</v>
       </c>
       <c r="G53" t="n">
-        <v>256.4666666666666</v>
+        <v>256.5166666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2352,7 +2410,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>255</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2367,19 +2427,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C54" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D54" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E54" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F54" t="n">
-        <v>409</v>
+        <v>3939.1693</v>
       </c>
       <c r="G54" t="n">
         <v>256.4666666666666</v>
@@ -2391,7 +2451,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>255</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2406,22 +2468,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C55" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D55" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E55" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F55" t="n">
-        <v>1470</v>
+        <v>409</v>
       </c>
       <c r="G55" t="n">
-        <v>256.4833333333333</v>
+        <v>256.4666666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2430,7 +2492,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>255</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2445,19 +2509,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C56" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D56" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E56" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F56" t="n">
-        <v>589.9127999999999</v>
+        <v>1470</v>
       </c>
       <c r="G56" t="n">
         <v>256.4833333333333</v>
@@ -2469,7 +2533,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>255</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2484,22 +2550,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C57" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D57" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E57" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F57" t="n">
-        <v>129.2078</v>
+        <v>589.9127999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>256.5</v>
+        <v>256.4833333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2508,7 +2574,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>255</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2523,22 +2591,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C58" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D58" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E58" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F58" t="n">
-        <v>829.7686</v>
+        <v>129.2078</v>
       </c>
       <c r="G58" t="n">
-        <v>256.5166666666667</v>
+        <v>256.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2547,7 +2615,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>255</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2562,22 +2632,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C59" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D59" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E59" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F59" t="n">
-        <v>1076.806</v>
+        <v>829.7686</v>
       </c>
       <c r="G59" t="n">
-        <v>256.5666666666667</v>
+        <v>256.5166666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2586,7 +2656,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>255</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2601,22 +2673,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C60" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D60" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E60" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F60" t="n">
-        <v>15</v>
+        <v>1076.806</v>
       </c>
       <c r="G60" t="n">
-        <v>256.6166666666667</v>
+        <v>256.5666666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2625,7 +2697,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>255</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2640,22 +2714,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C61" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D61" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E61" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F61" t="n">
-        <v>2999.9998</v>
+        <v>15</v>
       </c>
       <c r="G61" t="n">
-        <v>256.6833333333333</v>
+        <v>256.6166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2664,7 +2738,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>255</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2691,10 +2767,10 @@
         <v>261</v>
       </c>
       <c r="F62" t="n">
-        <v>999.9999</v>
+        <v>2999.9998</v>
       </c>
       <c r="G62" t="n">
-        <v>256.75</v>
+        <v>256.6833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2703,7 +2779,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>255</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2718,22 +2796,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C63" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D63" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E63" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F63" t="n">
-        <v>217.9338</v>
+        <v>999.9999</v>
       </c>
       <c r="G63" t="n">
-        <v>256.8</v>
+        <v>256.75</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2742,7 +2820,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>255</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2769,10 +2849,10 @@
         <v>262</v>
       </c>
       <c r="F64" t="n">
-        <v>73.2787</v>
+        <v>217.9338</v>
       </c>
       <c r="G64" t="n">
-        <v>256.85</v>
+        <v>256.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2781,7 +2861,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>255</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2796,22 +2878,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C65" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D65" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E65" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F65" t="n">
-        <v>1346.9829</v>
+        <v>73.2787</v>
       </c>
       <c r="G65" t="n">
-        <v>256.9166666666667</v>
+        <v>256.85</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2820,7 +2902,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>255</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2847,26 +2931,28 @@
         <v>263</v>
       </c>
       <c r="F66" t="n">
-        <v>414.4334</v>
+        <v>1346.9829</v>
       </c>
       <c r="G66" t="n">
-        <v>257.0166666666667</v>
+        <v>256.9166666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>255</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>1.026372549019608</v>
       </c>
     </row>
     <row r="67">
@@ -2874,22 +2960,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C67" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D67" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E67" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F67" t="n">
-        <v>7759.1909</v>
+        <v>414.4334</v>
       </c>
       <c r="G67" t="n">
-        <v>257.0666666666667</v>
+        <v>257.0166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2899,11 +2985,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2913,36 +2995,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C68" t="n">
         <v>261</v>
       </c>
       <c r="D68" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E68" t="n">
         <v>261</v>
       </c>
       <c r="F68" t="n">
-        <v>53.4124</v>
+        <v>7759.1909</v>
       </c>
       <c r="G68" t="n">
-        <v>257.1166666666667</v>
+        <v>257.0666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2952,22 +3030,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C69" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D69" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E69" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F69" t="n">
-        <v>24.2029</v>
+        <v>53.4124</v>
       </c>
       <c r="G69" t="n">
-        <v>257.1833333333333</v>
+        <v>257.1166666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2977,11 +3055,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3003,10 +3077,10 @@
         <v>262</v>
       </c>
       <c r="F70" t="n">
-        <v>2241</v>
+        <v>24.2029</v>
       </c>
       <c r="G70" t="n">
-        <v>257.25</v>
+        <v>257.1833333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3016,11 +3090,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3030,22 +3100,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C71" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D71" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E71" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F71" t="n">
-        <v>10</v>
+        <v>2241</v>
       </c>
       <c r="G71" t="n">
-        <v>257.3333333333333</v>
+        <v>257.25</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3055,11 +3125,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3069,22 +3135,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C72" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D72" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E72" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F72" t="n">
-        <v>1359.0032</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>257.3833333333333</v>
+        <v>257.3333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3094,11 +3160,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3108,22 +3170,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C73" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D73" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E73" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F73" t="n">
-        <v>37.7724</v>
+        <v>1359.0032</v>
       </c>
       <c r="G73" t="n">
-        <v>257.4166666666667</v>
+        <v>257.3833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3133,11 +3195,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3147,22 +3205,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C74" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D74" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E74" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F74" t="n">
-        <v>480</v>
+        <v>37.7724</v>
       </c>
       <c r="G74" t="n">
-        <v>257.4333333333333</v>
+        <v>257.4166666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3172,11 +3230,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3198,10 +3252,10 @@
         <v>260</v>
       </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>480</v>
       </c>
       <c r="G75" t="n">
-        <v>257.4666666666666</v>
+        <v>257.4333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3211,11 +3265,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3237,10 +3287,10 @@
         <v>260</v>
       </c>
       <c r="F76" t="n">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>257.5</v>
+        <v>257.4666666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3250,11 +3300,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3267,19 +3313,19 @@
         <v>260</v>
       </c>
       <c r="C77" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D77" t="n">
         <v>260</v>
       </c>
       <c r="E77" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F77" t="n">
-        <v>239.9941</v>
+        <v>300</v>
       </c>
       <c r="G77" t="n">
-        <v>257.5166666666667</v>
+        <v>257.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3289,11 +3335,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3306,19 +3348,19 @@
         <v>260</v>
       </c>
       <c r="C78" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D78" t="n">
         <v>260</v>
       </c>
       <c r="E78" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F78" t="n">
-        <v>385.0611</v>
+        <v>239.9941</v>
       </c>
       <c r="G78" t="n">
-        <v>257.5833333333333</v>
+        <v>257.5166666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3328,11 +3370,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3354,10 +3392,10 @@
         <v>260</v>
       </c>
       <c r="F79" t="n">
-        <v>167.0653</v>
+        <v>385.0611</v>
       </c>
       <c r="G79" t="n">
-        <v>257.6166666666667</v>
+        <v>257.5833333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3367,11 +3405,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3381,22 +3415,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C80" t="n">
         <v>260</v>
       </c>
       <c r="D80" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E80" t="n">
         <v>260</v>
       </c>
       <c r="F80" t="n">
-        <v>251.0627</v>
+        <v>167.0653</v>
       </c>
       <c r="G80" t="n">
-        <v>257.6833333333333</v>
+        <v>257.6166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3406,11 +3440,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3423,19 +3453,19 @@
         <v>261</v>
       </c>
       <c r="C81" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D81" t="n">
         <v>261</v>
       </c>
       <c r="E81" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F81" t="n">
-        <v>47.907</v>
+        <v>251.0627</v>
       </c>
       <c r="G81" t="n">
-        <v>257.7833333333334</v>
+        <v>257.6833333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3445,11 +3475,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3459,22 +3485,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C82" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D82" t="n">
         <v>261</v>
       </c>
       <c r="E82" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F82" t="n">
-        <v>712.8816</v>
+        <v>47.907</v>
       </c>
       <c r="G82" t="n">
-        <v>257.85</v>
+        <v>257.7833333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3484,11 +3510,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3498,22 +3520,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C83" t="n">
         <v>259</v>
       </c>
       <c r="D83" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E83" t="n">
         <v>259</v>
       </c>
       <c r="F83" t="n">
-        <v>674.4050999999999</v>
+        <v>712.8816</v>
       </c>
       <c r="G83" t="n">
-        <v>257.95</v>
+        <v>257.85</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3523,11 +3545,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3537,22 +3555,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C84" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D84" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E84" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F84" t="n">
-        <v>500</v>
+        <v>674.4050999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>258.0333333333334</v>
+        <v>257.95</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3562,11 +3580,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3579,19 +3593,19 @@
         <v>260</v>
       </c>
       <c r="C85" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D85" t="n">
         <v>260</v>
       </c>
       <c r="E85" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F85" t="n">
-        <v>1153.2327</v>
+        <v>500</v>
       </c>
       <c r="G85" t="n">
-        <v>258.1</v>
+        <v>258.0333333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3601,11 +3615,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3618,19 +3628,19 @@
         <v>260</v>
       </c>
       <c r="C86" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D86" t="n">
         <v>260</v>
       </c>
       <c r="E86" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F86" t="n">
-        <v>934.1185</v>
+        <v>1153.2327</v>
       </c>
       <c r="G86" t="n">
-        <v>258.1833333333333</v>
+        <v>258.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3640,11 +3650,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3666,10 +3672,10 @@
         <v>260</v>
       </c>
       <c r="F87" t="n">
-        <v>398.2294</v>
+        <v>934.1185</v>
       </c>
       <c r="G87" t="n">
-        <v>258.25</v>
+        <v>258.1833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3679,11 +3685,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3705,10 +3707,10 @@
         <v>260</v>
       </c>
       <c r="F88" t="n">
-        <v>748.4127999999999</v>
+        <v>398.2294</v>
       </c>
       <c r="G88" t="n">
-        <v>258.3166666666667</v>
+        <v>258.25</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3718,11 +3720,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3732,22 +3730,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C89" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E89" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F89" t="n">
-        <v>621.88</v>
+        <v>748.4127999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>258.4</v>
+        <v>258.3166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3757,11 +3755,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3771,22 +3765,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C90" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D90" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E90" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F90" t="n">
-        <v>1844.5671</v>
+        <v>621.88</v>
       </c>
       <c r="G90" t="n">
-        <v>258.4666666666666</v>
+        <v>258.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3796,11 +3790,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3810,22 +3800,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C91" t="n">
         <v>260</v>
       </c>
       <c r="D91" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E91" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F91" t="n">
-        <v>5476.0177</v>
+        <v>1844.5671</v>
       </c>
       <c r="G91" t="n">
-        <v>258.5333333333334</v>
+        <v>258.4666666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3835,11 +3825,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3852,19 +3838,19 @@
         <v>261</v>
       </c>
       <c r="C92" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" t="n">
         <v>261</v>
       </c>
       <c r="E92" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F92" t="n">
-        <v>1538</v>
+        <v>5476.0177</v>
       </c>
       <c r="G92" t="n">
-        <v>258.6166666666667</v>
+        <v>258.5333333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3874,11 +3860,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3900,10 +3882,10 @@
         <v>261</v>
       </c>
       <c r="F93" t="n">
-        <v>100.5903</v>
+        <v>1538</v>
       </c>
       <c r="G93" t="n">
-        <v>258.7</v>
+        <v>258.6166666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3913,11 +3895,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3927,22 +3905,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C94" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E94" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F94" t="n">
-        <v>359.2497</v>
+        <v>100.5903</v>
       </c>
       <c r="G94" t="n">
-        <v>258.8333333333333</v>
+        <v>258.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3952,11 +3930,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3978,10 +3952,10 @@
         <v>262</v>
       </c>
       <c r="F95" t="n">
-        <v>836</v>
+        <v>359.2497</v>
       </c>
       <c r="G95" t="n">
-        <v>258.9333333333333</v>
+        <v>258.8333333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3991,11 +3965,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4005,22 +3975,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C96" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D96" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E96" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F96" t="n">
-        <v>11106.5131</v>
+        <v>836</v>
       </c>
       <c r="G96" t="n">
-        <v>259.0166666666667</v>
+        <v>258.9333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4030,11 +4000,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4056,10 +4022,10 @@
         <v>261</v>
       </c>
       <c r="F97" t="n">
-        <v>9834.9635</v>
+        <v>11106.5131</v>
       </c>
       <c r="G97" t="n">
-        <v>259.1333333333333</v>
+        <v>259.0166666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4069,11 +4035,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4083,22 +4045,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C98" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D98" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E98" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F98" t="n">
-        <v>1140</v>
+        <v>9834.9635</v>
       </c>
       <c r="G98" t="n">
-        <v>259.25</v>
+        <v>259.1333333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4108,11 +4070,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4134,10 +4092,10 @@
         <v>260</v>
       </c>
       <c r="F99" t="n">
-        <v>42.0636</v>
+        <v>1140</v>
       </c>
       <c r="G99" t="n">
-        <v>259.3333333333333</v>
+        <v>259.25</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4147,11 +4105,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4161,22 +4115,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C100" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D100" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E100" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F100" t="n">
-        <v>37.9846</v>
+        <v>42.0636</v>
       </c>
       <c r="G100" t="n">
-        <v>259.4333333333333</v>
+        <v>259.3333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4186,11 +4140,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4200,22 +4150,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C101" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D101" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E101" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F101" t="n">
-        <v>42.0637</v>
+        <v>37.9846</v>
       </c>
       <c r="G101" t="n">
-        <v>259.5333333333334</v>
+        <v>259.4333333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4225,11 +4175,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4251,10 +4197,10 @@
         <v>260</v>
       </c>
       <c r="F102" t="n">
-        <v>130.2698</v>
+        <v>42.0637</v>
       </c>
       <c r="G102" t="n">
-        <v>259.6166666666667</v>
+        <v>259.5333333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4264,11 +4210,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4278,22 +4220,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C103" t="n">
         <v>260</v>
       </c>
       <c r="D103" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E103" t="n">
         <v>260</v>
       </c>
       <c r="F103" t="n">
-        <v>60.6779</v>
+        <v>130.2698</v>
       </c>
       <c r="G103" t="n">
-        <v>259.7</v>
+        <v>259.6166666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4303,11 +4245,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4320,19 +4258,19 @@
         <v>261</v>
       </c>
       <c r="C104" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D104" t="n">
         <v>261</v>
       </c>
       <c r="E104" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F104" t="n">
-        <v>2.4175</v>
+        <v>60.6779</v>
       </c>
       <c r="G104" t="n">
-        <v>259.8</v>
+        <v>259.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4342,11 +4280,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4356,22 +4290,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C105" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D105" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E105" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F105" t="n">
-        <v>21.0318</v>
+        <v>2.4175</v>
       </c>
       <c r="G105" t="n">
-        <v>259.8833333333333</v>
+        <v>259.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4381,11 +4315,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4395,22 +4325,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C106" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D106" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E106" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F106" t="n">
-        <v>2.3688</v>
+        <v>21.0318</v>
       </c>
       <c r="G106" t="n">
-        <v>260.0166666666667</v>
+        <v>259.8833333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4420,11 +4350,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4446,10 +4372,10 @@
         <v>263</v>
       </c>
       <c r="F107" t="n">
-        <v>151.095</v>
+        <v>2.3688</v>
       </c>
       <c r="G107" t="n">
-        <v>260.15</v>
+        <v>260.0166666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4459,11 +4385,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4476,19 +4398,19 @@
         <v>263</v>
       </c>
       <c r="C108" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D108" t="n">
         <v>263</v>
       </c>
       <c r="E108" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F108" t="n">
-        <v>591.7134</v>
+        <v>151.095</v>
       </c>
       <c r="G108" t="n">
-        <v>260.2333333333333</v>
+        <v>260.15</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4498,11 +4420,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4515,19 +4433,19 @@
         <v>263</v>
       </c>
       <c r="C109" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D109" t="n">
         <v>263</v>
       </c>
       <c r="E109" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F109" t="n">
-        <v>541.2234</v>
+        <v>591.7134</v>
       </c>
       <c r="G109" t="n">
-        <v>260.35</v>
+        <v>260.2333333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4537,11 +4455,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4551,22 +4465,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C110" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D110" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E110" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>541.2234</v>
       </c>
       <c r="G110" t="n">
-        <v>260.4833333333333</v>
+        <v>260.35</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4576,11 +4490,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4602,10 +4512,10 @@
         <v>264</v>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>260.6166666666667</v>
+        <v>260.4833333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4615,11 +4525,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4641,10 +4547,10 @@
         <v>264</v>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>260.75</v>
+        <v>260.6166666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4654,11 +4560,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4680,10 +4582,10 @@
         <v>264</v>
       </c>
       <c r="F113" t="n">
-        <v>3030.303</v>
+        <v>20</v>
       </c>
       <c r="G113" t="n">
-        <v>260.8833333333333</v>
+        <v>260.75</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4693,11 +4595,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4710,19 +4608,19 @@
         <v>264</v>
       </c>
       <c r="C114" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D114" t="n">
         <v>264</v>
       </c>
       <c r="E114" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F114" t="n">
-        <v>3392</v>
+        <v>3030.303</v>
       </c>
       <c r="G114" t="n">
-        <v>260.9166666666667</v>
+        <v>260.8833333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4732,11 +4630,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4746,22 +4640,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C115" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D115" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E115" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F115" t="n">
-        <v>156.2897</v>
+        <v>3392</v>
       </c>
       <c r="G115" t="n">
-        <v>260.9833333333333</v>
+        <v>260.9166666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4771,11 +4665,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4785,22 +4675,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C116" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D116" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E116" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F116" t="n">
-        <v>3700.0951</v>
+        <v>156.2897</v>
       </c>
       <c r="G116" t="n">
-        <v>261.05</v>
+        <v>260.9833333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4810,11 +4700,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4836,10 +4722,10 @@
         <v>262</v>
       </c>
       <c r="F117" t="n">
-        <v>15.2278</v>
+        <v>3700.0951</v>
       </c>
       <c r="G117" t="n">
-        <v>261.1</v>
+        <v>261.05</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4849,11 +4735,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4875,10 +4757,10 @@
         <v>262</v>
       </c>
       <c r="F118" t="n">
-        <v>5831.6121</v>
+        <v>15.2278</v>
       </c>
       <c r="G118" t="n">
-        <v>261.1333333333333</v>
+        <v>261.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4888,11 +4770,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4902,22 +4780,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C119" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D119" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E119" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F119" t="n">
-        <v>6365.6007</v>
+        <v>5831.6121</v>
       </c>
       <c r="G119" t="n">
-        <v>261.1666666666667</v>
+        <v>261.1333333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4927,11 +4805,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4941,22 +4815,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C120" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D120" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E120" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F120" t="n">
-        <v>1448.9281</v>
+        <v>6365.6007</v>
       </c>
       <c r="G120" t="n">
-        <v>261.1833333333333</v>
+        <v>261.1666666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4966,11 +4840,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4983,19 +4853,19 @@
         <v>262</v>
       </c>
       <c r="C121" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D121" t="n">
         <v>262</v>
       </c>
       <c r="E121" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F121" t="n">
-        <v>156.2897</v>
+        <v>1448.9281</v>
       </c>
       <c r="G121" t="n">
-        <v>261.2</v>
+        <v>261.1833333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5005,11 +4875,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5019,22 +4885,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C122" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D122" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E122" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F122" t="n">
-        <v>2010</v>
+        <v>156.2897</v>
       </c>
       <c r="G122" t="n">
-        <v>261.2333333333333</v>
+        <v>261.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5044,11 +4910,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5058,22 +4920,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C123" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D123" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E123" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F123" t="n">
-        <v>11.2781</v>
+        <v>2010</v>
       </c>
       <c r="G123" t="n">
-        <v>261.2666666666667</v>
+        <v>261.2333333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5083,11 +4945,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5097,22 +4955,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C124" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D124" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E124" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F124" t="n">
-        <v>1520.9125</v>
+        <v>11.2781</v>
       </c>
       <c r="G124" t="n">
-        <v>261.2833333333334</v>
+        <v>261.2666666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5122,11 +4980,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5148,7 +5002,7 @@
         <v>263</v>
       </c>
       <c r="F125" t="n">
-        <v>1355.0646</v>
+        <v>1520.9125</v>
       </c>
       <c r="G125" t="n">
         <v>261.2833333333334</v>
@@ -5161,11 +5015,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5175,22 +5025,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C126" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D126" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E126" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F126" t="n">
-        <v>2162</v>
+        <v>1355.0646</v>
       </c>
       <c r="G126" t="n">
-        <v>261.2666666666667</v>
+        <v>261.2833333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5200,11 +5050,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5226,10 +5072,10 @@
         <v>262</v>
       </c>
       <c r="F127" t="n">
-        <v>479.5453</v>
+        <v>2162</v>
       </c>
       <c r="G127" t="n">
-        <v>261.2833333333334</v>
+        <v>261.2666666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5239,11 +5085,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5253,22 +5095,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C128" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D128" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E128" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F128" t="n">
-        <v>2060.7452</v>
+        <v>479.5453</v>
       </c>
       <c r="G128" t="n">
-        <v>261.2666666666667</v>
+        <v>261.2833333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5278,11 +5120,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5307,7 +5145,7 @@
         <v>2060.7452</v>
       </c>
       <c r="G129" t="n">
-        <v>261.2333333333333</v>
+        <v>261.2666666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5317,11 +5155,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5331,19 +5165,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C130" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D130" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E130" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F130" t="n">
-        <v>3385.2829</v>
+        <v>2060.7452</v>
       </c>
       <c r="G130" t="n">
         <v>261.2333333333333</v>
@@ -5356,11 +5190,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5382,10 +5212,10 @@
         <v>262</v>
       </c>
       <c r="F131" t="n">
-        <v>3496.2395</v>
+        <v>3385.2829</v>
       </c>
       <c r="G131" t="n">
-        <v>261.2166666666666</v>
+        <v>261.2333333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5395,11 +5225,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5409,22 +5235,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C132" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D132" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E132" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F132" t="n">
-        <v>10</v>
+        <v>3496.2395</v>
       </c>
       <c r="G132" t="n">
-        <v>261.2333333333333</v>
+        <v>261.2166666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5434,11 +5260,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5448,22 +5270,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C133" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D133" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E133" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>261.25</v>
+        <v>261.2333333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5473,11 +5295,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5487,22 +5305,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C134" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D134" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E134" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F134" t="n">
-        <v>1011</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>261.3166666666667</v>
+        <v>261.25</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5512,11 +5330,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5526,22 +5340,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C135" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D135" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E135" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F135" t="n">
-        <v>1000</v>
+        <v>1011</v>
       </c>
       <c r="G135" t="n">
-        <v>261.4</v>
+        <v>261.3166666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5551,11 +5365,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5568,19 +5378,19 @@
         <v>265</v>
       </c>
       <c r="C136" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D136" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E136" t="n">
         <v>265</v>
       </c>
       <c r="F136" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="G136" t="n">
-        <v>261.5</v>
+        <v>261.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5590,11 +5400,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5604,7 +5410,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C137" t="n">
         <v>266</v>
@@ -5613,13 +5419,13 @@
         <v>266</v>
       </c>
       <c r="E137" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F137" t="n">
-        <v>500.0346</v>
+        <v>2200</v>
       </c>
       <c r="G137" t="n">
-        <v>261.6166666666667</v>
+        <v>261.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5629,11 +5435,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5643,22 +5445,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C138" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D138" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E138" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F138" t="n">
-        <v>172.3281</v>
+        <v>500.0346</v>
       </c>
       <c r="G138" t="n">
-        <v>261.7</v>
+        <v>261.6166666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5668,11 +5470,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5685,19 +5483,19 @@
         <v>265</v>
       </c>
       <c r="C139" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D139" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E139" t="n">
         <v>265</v>
       </c>
       <c r="F139" t="n">
-        <v>1450.0657</v>
+        <v>172.3281</v>
       </c>
       <c r="G139" t="n">
-        <v>261.8</v>
+        <v>261.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5707,11 +5505,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5721,7 +5515,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C140" t="n">
         <v>266</v>
@@ -5730,13 +5524,13 @@
         <v>266</v>
       </c>
       <c r="E140" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F140" t="n">
-        <v>323.7465</v>
+        <v>1450.0657</v>
       </c>
       <c r="G140" t="n">
-        <v>261.9</v>
+        <v>261.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5746,11 +5540,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5760,22 +5550,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C141" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D141" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E141" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F141" t="n">
-        <v>3615.1455</v>
+        <v>323.7465</v>
       </c>
       <c r="G141" t="n">
-        <v>261.95</v>
+        <v>261.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5785,11 +5575,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5799,22 +5585,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C142" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D142" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E142" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F142" t="n">
-        <v>226.2535</v>
+        <v>3615.1455</v>
       </c>
       <c r="G142" t="n">
-        <v>262.0666666666667</v>
+        <v>261.95</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5824,11 +5610,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5838,22 +5620,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C143" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D143" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E143" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F143" t="n">
-        <v>1631.8735</v>
+        <v>226.2535</v>
       </c>
       <c r="G143" t="n">
-        <v>262.2</v>
+        <v>262.0666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5863,11 +5645,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5880,19 +5658,19 @@
         <v>267</v>
       </c>
       <c r="C144" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D144" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E144" t="n">
         <v>267</v>
       </c>
       <c r="F144" t="n">
-        <v>2.0001</v>
+        <v>1631.8735</v>
       </c>
       <c r="G144" t="n">
-        <v>262.35</v>
+        <v>262.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5902,11 +5680,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5928,10 +5702,10 @@
         <v>267</v>
       </c>
       <c r="F145" t="n">
-        <v>1761.1857</v>
+        <v>2.0001</v>
       </c>
       <c r="G145" t="n">
-        <v>262.5166666666667</v>
+        <v>262.35</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5941,11 +5715,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5958,19 +5728,19 @@
         <v>267</v>
       </c>
       <c r="C146" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D146" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E146" t="n">
         <v>267</v>
       </c>
       <c r="F146" t="n">
-        <v>96.9345</v>
+        <v>1761.1857</v>
       </c>
       <c r="G146" t="n">
-        <v>262.6333333333333</v>
+        <v>262.5166666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5980,11 +5750,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5994,22 +5760,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C147" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D147" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E147" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>96.9345</v>
       </c>
       <c r="G147" t="n">
-        <v>262.7666666666667</v>
+        <v>262.6333333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6019,11 +5785,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6036,19 +5798,19 @@
         <v>268</v>
       </c>
       <c r="C148" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D148" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E148" t="n">
         <v>268</v>
       </c>
       <c r="F148" t="n">
-        <v>15802.00151449814</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>262.9166666666667</v>
+        <v>262.7666666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6058,11 +5820,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6075,19 +5833,19 @@
         <v>268</v>
       </c>
       <c r="C149" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D149" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E149" t="n">
         <v>268</v>
       </c>
       <c r="F149" t="n">
-        <v>197.0522</v>
+        <v>15802.00151449814</v>
       </c>
       <c r="G149" t="n">
-        <v>263.0333333333334</v>
+        <v>262.9166666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6097,11 +5855,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6114,34 +5868,32 @@
         <v>268</v>
       </c>
       <c r="C150" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D150" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E150" t="n">
         <v>268</v>
       </c>
       <c r="F150" t="n">
-        <v>7703.001</v>
+        <v>197.0522</v>
       </c>
       <c r="G150" t="n">
-        <v>263.1833333333333</v>
+        <v>263.0333333333334</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6151,19 +5903,19 @@
         <v>268</v>
       </c>
       <c r="C151" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D151" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E151" t="n">
         <v>268</v>
       </c>
       <c r="F151" t="n">
-        <v>10</v>
+        <v>7703.001</v>
       </c>
       <c r="G151" t="n">
-        <v>263.3166666666667</v>
+        <v>263.1833333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6183,22 +5935,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C152" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D152" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E152" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F152" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>263.45</v>
+        <v>263.3166666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6230,10 +5982,10 @@
         <v>269</v>
       </c>
       <c r="F153" t="n">
-        <v>1247.6198</v>
+        <v>20</v>
       </c>
       <c r="G153" t="n">
-        <v>263.5833333333333</v>
+        <v>263.45</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6256,19 +6008,19 @@
         <v>269</v>
       </c>
       <c r="C154" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D154" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E154" t="n">
         <v>269</v>
       </c>
       <c r="F154" t="n">
-        <v>1598.5702</v>
+        <v>1247.6198</v>
       </c>
       <c r="G154" t="n">
-        <v>263.7166666666666</v>
+        <v>263.5833333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6288,7 +6040,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C155" t="n">
         <v>270</v>
@@ -6297,13 +6049,13 @@
         <v>270</v>
       </c>
       <c r="E155" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F155" t="n">
-        <v>5804.5495</v>
+        <v>1598.5702</v>
       </c>
       <c r="G155" t="n">
-        <v>263.85</v>
+        <v>263.7166666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6323,22 +6075,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C156" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D156" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E156" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F156" t="n">
-        <v>6950</v>
+        <v>5804.5495</v>
       </c>
       <c r="G156" t="n">
-        <v>264.0166666666667</v>
+        <v>263.85</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6361,19 +6113,19 @@
         <v>271</v>
       </c>
       <c r="C157" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D157" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E157" t="n">
         <v>271</v>
       </c>
       <c r="F157" t="n">
-        <v>36.4877</v>
+        <v>6950</v>
       </c>
       <c r="G157" t="n">
-        <v>264.2166666666666</v>
+        <v>264.0166666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6393,28 +6145,28 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>271</v>
+      </c>
+      <c r="C158" t="n">
         <v>273</v>
-      </c>
-      <c r="C158" t="n">
-        <v>271</v>
       </c>
       <c r="D158" t="n">
         <v>273</v>
       </c>
       <c r="E158" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F158" t="n">
-        <v>15579.5454</v>
+        <v>36.4877</v>
       </c>
       <c r="G158" t="n">
-        <v>264.4</v>
+        <v>264.2166666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6428,28 +6180,28 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C159" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D159" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E159" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F159" t="n">
-        <v>1110</v>
+        <v>15579.5454</v>
       </c>
       <c r="G159" t="n">
-        <v>264.5666666666667</v>
+        <v>264.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6463,28 +6215,28 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C160" t="n">
+        <v>270</v>
+      </c>
+      <c r="D160" t="n">
+        <v>270</v>
+      </c>
+      <c r="E160" t="n">
         <v>269</v>
       </c>
-      <c r="D160" t="n">
-        <v>271</v>
-      </c>
-      <c r="E160" t="n">
-        <v>268</v>
-      </c>
       <c r="F160" t="n">
-        <v>1481.248</v>
+        <v>1110</v>
       </c>
       <c r="G160" t="n">
-        <v>264.7</v>
+        <v>264.5666666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6501,19 +6253,19 @@
         <v>271</v>
       </c>
       <c r="C161" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D161" t="n">
         <v>271</v>
       </c>
       <c r="E161" t="n">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F161" t="n">
-        <v>1057.0279</v>
+        <v>1481.248</v>
       </c>
       <c r="G161" t="n">
-        <v>264.8833333333333</v>
+        <v>264.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6545,10 +6297,10 @@
         <v>271</v>
       </c>
       <c r="F162" t="n">
-        <v>2207.8594</v>
+        <v>1057.0279</v>
       </c>
       <c r="G162" t="n">
-        <v>265.0666666666667</v>
+        <v>264.8833333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6568,22 +6320,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C163" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D163" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E163" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F163" t="n">
-        <v>388.4204</v>
+        <v>2207.8594</v>
       </c>
       <c r="G163" t="n">
-        <v>265.2333333333333</v>
+        <v>265.0666666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6615,10 +6367,10 @@
         <v>270</v>
       </c>
       <c r="F164" t="n">
-        <v>6552.0569</v>
+        <v>388.4204</v>
       </c>
       <c r="G164" t="n">
-        <v>265.3833333333333</v>
+        <v>265.2333333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6650,10 +6402,10 @@
         <v>270</v>
       </c>
       <c r="F165" t="n">
-        <v>43</v>
+        <v>6552.0569</v>
       </c>
       <c r="G165" t="n">
-        <v>265.55</v>
+        <v>265.3833333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6685,10 +6437,10 @@
         <v>270</v>
       </c>
       <c r="F166" t="n">
-        <v>1.3115</v>
+        <v>43</v>
       </c>
       <c r="G166" t="n">
-        <v>265.6666666666667</v>
+        <v>265.55</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6708,22 +6460,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C167" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D167" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E167" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F167" t="n">
-        <v>7000</v>
+        <v>1.3115</v>
       </c>
       <c r="G167" t="n">
-        <v>265.7</v>
+        <v>265.6666666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6743,22 +6495,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C168" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D168" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E168" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F168" t="n">
-        <v>15.2842</v>
+        <v>7000</v>
       </c>
       <c r="G168" t="n">
-        <v>265.8166666666667</v>
+        <v>265.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6778,22 +6530,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C169" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D169" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E169" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F169" t="n">
-        <v>7617.8526</v>
+        <v>15.2842</v>
       </c>
       <c r="G169" t="n">
-        <v>265.8666666666667</v>
+        <v>265.8166666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6813,22 +6565,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C170" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D170" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E170" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F170" t="n">
-        <v>2487.4263</v>
+        <v>7617.8526</v>
       </c>
       <c r="G170" t="n">
-        <v>265.9333333333333</v>
+        <v>265.8666666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6848,22 +6600,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C171" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D171" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E171" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F171" t="n">
-        <v>31489.4999</v>
+        <v>2487.4263</v>
       </c>
       <c r="G171" t="n">
-        <v>266.0166666666667</v>
+        <v>265.9333333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6883,22 +6635,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C172" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D172" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E172" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F172" t="n">
-        <v>32.0873</v>
+        <v>31489.4999</v>
       </c>
       <c r="G172" t="n">
-        <v>266.0666666666667</v>
+        <v>266.0166666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6930,10 +6682,10 @@
         <v>267</v>
       </c>
       <c r="F173" t="n">
-        <v>3.2178</v>
+        <v>32.0873</v>
       </c>
       <c r="G173" t="n">
-        <v>266.1166666666667</v>
+        <v>266.0666666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6953,22 +6705,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C174" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D174" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E174" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>3.2178</v>
       </c>
       <c r="G174" t="n">
-        <v>266.2666666666667</v>
+        <v>266.1166666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7003,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>266.3666666666667</v>
+        <v>266.2666666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7018,6 +6770,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>269</v>
+      </c>
+      <c r="C176" t="n">
+        <v>269</v>
+      </c>
+      <c r="D176" t="n">
+        <v>269</v>
+      </c>
+      <c r="E176" t="n">
+        <v>269</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1</v>
+      </c>
+      <c r="G176" t="n">
+        <v>266.3666666666667</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-17 BackTest BAT.xlsx
+++ b/BackTest/2019-10-17 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M176"/>
+  <dimension ref="A1:N186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1409.5425</v>
       </c>
       <c r="G2" t="n">
+        <v>258.4</v>
+      </c>
+      <c r="H2" t="n">
         <v>259.1166666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>5142.6344</v>
       </c>
       <c r="G3" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="H3" t="n">
         <v>259.0833333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>257</v>
+      </c>
+      <c r="L3" t="n">
+        <v>257</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>480.0057</v>
       </c>
       <c r="G4" t="n">
+        <v>258.2666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>259.1</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>257</v>
+      </c>
+      <c r="L4" t="n">
+        <v>257</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>180.0009</v>
       </c>
       <c r="G5" t="n">
+        <v>258.2666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>259.1166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>257</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,21 @@
         <v>170.3011</v>
       </c>
       <c r="G6" t="n">
+        <v>258.2666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>259.1666666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +661,21 @@
         <v>19309.8374</v>
       </c>
       <c r="G7" t="n">
+        <v>258.1333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>259.15</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +699,21 @@
         <v>281.4399</v>
       </c>
       <c r="G8" t="n">
+        <v>258.0666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>259.1333333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +737,21 @@
         <v>212.0962</v>
       </c>
       <c r="G9" t="n">
+        <v>258</v>
+      </c>
+      <c r="H9" t="n">
         <v>259.1333333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +775,21 @@
         <v>1786.776</v>
       </c>
       <c r="G10" t="n">
+        <v>258</v>
+      </c>
+      <c r="H10" t="n">
         <v>259.2</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +813,21 @@
         <v>461.3739</v>
       </c>
       <c r="G11" t="n">
+        <v>258</v>
+      </c>
+      <c r="H11" t="n">
         <v>259.25</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +851,21 @@
         <v>65.96510000000001</v>
       </c>
       <c r="G12" t="n">
+        <v>258</v>
+      </c>
+      <c r="H12" t="n">
         <v>259.2833333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +889,21 @@
         <v>69.277</v>
       </c>
       <c r="G13" t="n">
+        <v>258.0666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>259.3</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +927,21 @@
         <v>111.5365</v>
       </c>
       <c r="G14" t="n">
+        <v>258.0666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>259.3166666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +965,21 @@
         <v>148.6872</v>
       </c>
       <c r="G15" t="n">
+        <v>258.1333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>259.3333333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1003,21 @@
         <v>395</v>
       </c>
       <c r="G16" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="H16" t="n">
         <v>259.3666666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1041,21 @@
         <v>145.419</v>
       </c>
       <c r="G17" t="n">
+        <v>258.2666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>259.3666666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1079,21 @@
         <v>235.4941</v>
       </c>
       <c r="G18" t="n">
+        <v>258.3333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>259.35</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1117,21 @@
         <v>394.3613</v>
       </c>
       <c r="G19" t="n">
+        <v>258.1333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>259.3</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1155,21 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
+        <v>258.0666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>259.3</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1193,21 @@
         <v>134.7656</v>
       </c>
       <c r="G21" t="n">
+        <v>257.8666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>259.2666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1231,21 @@
         <v>280</v>
       </c>
       <c r="G22" t="n">
+        <v>257.7333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>259.2166666666666</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1269,21 @@
         <v>2515.1549</v>
       </c>
       <c r="G23" t="n">
+        <v>257.5333333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>259.1666666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1307,21 @@
         <v>4270.9414</v>
       </c>
       <c r="G24" t="n">
+        <v>257.2</v>
+      </c>
+      <c r="H24" t="n">
         <v>259.0833333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,22 +1345,21 @@
         <v>24.8682</v>
       </c>
       <c r="G25" t="n">
+        <v>257</v>
+      </c>
+      <c r="H25" t="n">
         <v>259.0333333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>253</v>
-      </c>
-      <c r="K25" t="n">
-        <v>253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1292,26 +1383,21 @@
         <v>2660</v>
       </c>
       <c r="G26" t="n">
+        <v>256.8</v>
+      </c>
+      <c r="H26" t="n">
         <v>258.9666666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255</v>
-      </c>
-      <c r="K26" t="n">
-        <v>253</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1421,21 @@
         <v>2297.9161</v>
       </c>
       <c r="G27" t="n">
+        <v>256.6</v>
+      </c>
+      <c r="H27" t="n">
         <v>258.8833333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>255</v>
-      </c>
-      <c r="K27" t="n">
-        <v>253</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,22 +1459,21 @@
         <v>412.9921</v>
       </c>
       <c r="G28" t="n">
+        <v>256.4</v>
+      </c>
+      <c r="H28" t="n">
         <v>258.8333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>255</v>
-      </c>
-      <c r="K28" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1417,24 +1497,21 @@
         <v>532.0359999999999</v>
       </c>
       <c r="G29" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="H29" t="n">
         <v>258.7666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>255</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1458,24 +1535,21 @@
         <v>449.039</v>
       </c>
       <c r="G30" t="n">
+        <v>256</v>
+      </c>
+      <c r="H30" t="n">
         <v>258.6833333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>255</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1499,24 +1573,21 @@
         <v>7022.4918</v>
       </c>
       <c r="G31" t="n">
+        <v>255.8666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>258.6166666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>255</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,24 +1611,21 @@
         <v>751.4902</v>
       </c>
       <c r="G32" t="n">
+        <v>255.7333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>258.5166666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>255</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1581,24 +1649,21 @@
         <v>301.5233</v>
       </c>
       <c r="G33" t="n">
+        <v>255.6</v>
+      </c>
+      <c r="H33" t="n">
         <v>258.4166666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>255</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1622,24 +1687,21 @@
         <v>462.2165</v>
       </c>
       <c r="G34" t="n">
+        <v>255.6</v>
+      </c>
+      <c r="H34" t="n">
         <v>258.3166666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>255</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1663,24 +1725,21 @@
         <v>1789.8016</v>
       </c>
       <c r="G35" t="n">
+        <v>255.3333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>258.1666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>255</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1704,24 +1763,21 @@
         <v>40.8093</v>
       </c>
       <c r="G36" t="n">
+        <v>255.3333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>258.05</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>255</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1745,24 +1801,21 @@
         <v>56.525</v>
       </c>
       <c r="G37" t="n">
+        <v>255.4</v>
+      </c>
+      <c r="H37" t="n">
         <v>257.9166666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>255</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1786,24 +1839,21 @@
         <v>443.8754</v>
       </c>
       <c r="G38" t="n">
+        <v>255.3333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>257.8</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>255</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1827,24 +1877,21 @@
         <v>421.8868</v>
       </c>
       <c r="G39" t="n">
+        <v>255.3333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>257.6833333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>255</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1868,24 +1915,21 @@
         <v>770.7584000000001</v>
       </c>
       <c r="G40" t="n">
+        <v>255.3333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>257.5833333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>255</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1909,24 +1953,21 @@
         <v>457.4949</v>
       </c>
       <c r="G41" t="n">
+        <v>255.3333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>257.5</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>255</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1950,24 +1991,25 @@
         <v>206.6315</v>
       </c>
       <c r="G42" t="n">
+        <v>255.2666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>257.4166666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="n">
         <v>255</v>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>255</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1991,24 +2033,29 @@
         <v>1577.2763</v>
       </c>
       <c r="G43" t="n">
+        <v>255.2</v>
+      </c>
+      <c r="H43" t="n">
         <v>257.3166666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="n">
-        <v>255</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+        <v>254</v>
+      </c>
+      <c r="L43" t="n">
+        <v>255</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2032,24 +2079,29 @@
         <v>2150.001</v>
       </c>
       <c r="G44" t="n">
+        <v>255.1333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>257.1833333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="n">
         <v>255</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>255</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2073,24 +2125,29 @@
         <v>2140.5282</v>
       </c>
       <c r="G45" t="n">
+        <v>255.0666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>257.05</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="n">
         <v>255</v>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>255</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2114,24 +2171,29 @@
         <v>296.3919</v>
       </c>
       <c r="G46" t="n">
+        <v>255</v>
+      </c>
+      <c r="H46" t="n">
         <v>256.9333333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="n">
         <v>255</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>255</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2155,24 +2217,27 @@
         <v>5</v>
       </c>
       <c r="G47" t="n">
+        <v>254.9333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>256.8333333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>255</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>255</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2196,24 +2261,29 @@
         <v>263.797</v>
       </c>
       <c r="G48" t="n">
+        <v>254.8666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>256.75</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="n">
         <v>255</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>255</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2237,24 +2307,29 @@
         <v>11727.0958</v>
       </c>
       <c r="G49" t="n">
+        <v>254.8666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>256.7166666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="n">
         <v>255</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>255</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2278,24 +2353,27 @@
         <v>701.1559</v>
       </c>
       <c r="G50" t="n">
+        <v>255</v>
+      </c>
+      <c r="H50" t="n">
         <v>256.6666666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>255</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>255</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,24 +2397,27 @@
         <v>1465</v>
       </c>
       <c r="G51" t="n">
+        <v>255</v>
+      </c>
+      <c r="H51" t="n">
         <v>256.6166666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>255</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>255</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2360,24 +2441,27 @@
         <v>275.0386</v>
       </c>
       <c r="G52" t="n">
+        <v>255</v>
+      </c>
+      <c r="H52" t="n">
         <v>256.5666666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>255</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>255</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2401,24 +2485,27 @@
         <v>366.4281</v>
       </c>
       <c r="G53" t="n">
+        <v>255.1333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>256.5166666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>255</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>255</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2442,24 +2529,29 @@
         <v>3939.1693</v>
       </c>
       <c r="G54" t="n">
+        <v>255.3333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>256.4666666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="n">
-        <v>255</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+        <v>256</v>
+      </c>
+      <c r="L54" t="n">
+        <v>255</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2483,24 +2575,29 @@
         <v>409</v>
       </c>
       <c r="G55" t="n">
+        <v>255.5333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>256.4666666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="n">
-        <v>255</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+        <v>256</v>
+      </c>
+      <c r="L55" t="n">
+        <v>255</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2524,24 +2621,27 @@
         <v>1470</v>
       </c>
       <c r="G56" t="n">
+        <v>255.8</v>
+      </c>
+      <c r="H56" t="n">
         <v>256.4833333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>255</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>255</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2565,24 +2665,27 @@
         <v>589.9127999999999</v>
       </c>
       <c r="G57" t="n">
+        <v>256.0666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>256.4833333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>255</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>255</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2606,24 +2709,27 @@
         <v>129.2078</v>
       </c>
       <c r="G58" t="n">
+        <v>256.3333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>256.5</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>255</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>255</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2647,24 +2753,27 @@
         <v>829.7686</v>
       </c>
       <c r="G59" t="n">
+        <v>256.6666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>256.5166666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>255</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>255</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,24 +2797,27 @@
         <v>1076.806</v>
       </c>
       <c r="G60" t="n">
+        <v>257.0666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>256.5666666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>255</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>255</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2729,24 +2841,27 @@
         <v>15</v>
       </c>
       <c r="G61" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="H61" t="n">
         <v>256.6166666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>255</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>255</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2770,24 +2885,27 @@
         <v>2999.9998</v>
       </c>
       <c r="G62" t="n">
+        <v>257.8</v>
+      </c>
+      <c r="H62" t="n">
         <v>256.6833333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>255</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>255</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2811,24 +2929,27 @@
         <v>999.9999</v>
       </c>
       <c r="G63" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="H63" t="n">
         <v>256.75</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>255</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>255</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2852,24 +2973,27 @@
         <v>217.9338</v>
       </c>
       <c r="G64" t="n">
+        <v>258.6</v>
+      </c>
+      <c r="H64" t="n">
         <v>256.8</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>255</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>255</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2893,24 +3017,27 @@
         <v>73.2787</v>
       </c>
       <c r="G65" t="n">
+        <v>259</v>
+      </c>
+      <c r="H65" t="n">
         <v>256.85</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>255</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>255</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,25 +3061,28 @@
         <v>1346.9829</v>
       </c>
       <c r="G66" t="n">
+        <v>259.4666666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>256.9166666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>255</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1.026372549019608</v>
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>255</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2975,18 +3105,27 @@
         <v>414.4334</v>
       </c>
       <c r="G67" t="n">
+        <v>259.9333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>257.0166666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>255</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3010,18 +3149,27 @@
         <v>7759.1909</v>
       </c>
       <c r="G68" t="n">
+        <v>260.2666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>257.0666666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>255</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3045,18 +3193,27 @@
         <v>53.4124</v>
       </c>
       <c r="G69" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="H69" t="n">
         <v>257.1166666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>255</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3080,18 +3237,27 @@
         <v>24.2029</v>
       </c>
       <c r="G70" t="n">
+        <v>260.8666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>257.1833333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>255</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3115,18 +3281,27 @@
         <v>2241</v>
       </c>
       <c r="G71" t="n">
+        <v>261.0666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>257.25</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>255</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3150,18 +3325,27 @@
         <v>10</v>
       </c>
       <c r="G72" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="H72" t="n">
         <v>257.3333333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>255</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3185,18 +3369,27 @@
         <v>1359.0032</v>
       </c>
       <c r="G73" t="n">
+        <v>261.6</v>
+      </c>
+      <c r="H73" t="n">
         <v>257.3833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>255</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3220,18 +3413,27 @@
         <v>37.7724</v>
       </c>
       <c r="G74" t="n">
+        <v>261.6666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>257.4166666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>255</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3255,18 +3457,27 @@
         <v>480</v>
       </c>
       <c r="G75" t="n">
+        <v>261.6</v>
+      </c>
+      <c r="H75" t="n">
         <v>257.4333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>255</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3290,18 +3501,27 @@
         <v>5</v>
       </c>
       <c r="G76" t="n">
+        <v>261.6</v>
+      </c>
+      <c r="H76" t="n">
         <v>257.4666666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>255</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3325,18 +3545,27 @@
         <v>300</v>
       </c>
       <c r="G77" t="n">
+        <v>261.5333333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>257.5</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>255</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3360,18 +3589,27 @@
         <v>239.9941</v>
       </c>
       <c r="G78" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="H78" t="n">
         <v>257.5166666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>255</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3395,18 +3633,27 @@
         <v>385.0611</v>
       </c>
       <c r="G79" t="n">
+        <v>261.2666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>257.5833333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>255</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3430,18 +3677,27 @@
         <v>167.0653</v>
       </c>
       <c r="G80" t="n">
+        <v>261.1333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>257.6166666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>255</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3465,18 +3721,27 @@
         <v>251.0627</v>
       </c>
       <c r="G81" t="n">
+        <v>260.9333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>257.6833333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>255</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3500,18 +3765,27 @@
         <v>47.907</v>
       </c>
       <c r="G82" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="H82" t="n">
         <v>257.7833333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>255</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3535,18 +3809,27 @@
         <v>712.8816</v>
       </c>
       <c r="G83" t="n">
+        <v>260.6666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>257.85</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>255</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3570,18 +3853,27 @@
         <v>674.4050999999999</v>
       </c>
       <c r="G84" t="n">
+        <v>260.5333333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>257.95</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>255</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3605,18 +3897,27 @@
         <v>500</v>
       </c>
       <c r="G85" t="n">
+        <v>260.4</v>
+      </c>
+      <c r="H85" t="n">
         <v>258.0333333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>255</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,18 +3941,27 @@
         <v>1153.2327</v>
       </c>
       <c r="G86" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="H86" t="n">
         <v>258.1</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>255</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3675,18 +3985,27 @@
         <v>934.1185</v>
       </c>
       <c r="G87" t="n">
+        <v>260</v>
+      </c>
+      <c r="H87" t="n">
         <v>258.1833333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>255</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3710,18 +4029,29 @@
         <v>398.2294</v>
       </c>
       <c r="G88" t="n">
+        <v>259.8666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>258.25</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>260</v>
+      </c>
+      <c r="L88" t="n">
+        <v>255</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3745,18 +4075,27 @@
         <v>748.4127999999999</v>
       </c>
       <c r="G89" t="n">
+        <v>259.8</v>
+      </c>
+      <c r="H89" t="n">
         <v>258.3166666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>255</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3780,18 +4119,27 @@
         <v>621.88</v>
       </c>
       <c r="G90" t="n">
+        <v>259.8666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>258.4</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>255</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3815,18 +4163,27 @@
         <v>1844.5671</v>
       </c>
       <c r="G91" t="n">
+        <v>259.8666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>258.4666666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>255</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3850,18 +4207,29 @@
         <v>5476.0177</v>
       </c>
       <c r="G92" t="n">
+        <v>259.8666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>258.5333333333334</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>260</v>
+      </c>
+      <c r="L92" t="n">
+        <v>255</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3885,18 +4253,27 @@
         <v>1538</v>
       </c>
       <c r="G93" t="n">
+        <v>260</v>
+      </c>
+      <c r="H93" t="n">
         <v>258.6166666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>255</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3920,18 +4297,27 @@
         <v>100.5903</v>
       </c>
       <c r="G94" t="n">
+        <v>260.0666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>258.7</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>255</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3955,18 +4341,27 @@
         <v>359.2497</v>
       </c>
       <c r="G95" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="H95" t="n">
         <v>258.8333333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>255</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3990,18 +4385,27 @@
         <v>836</v>
       </c>
       <c r="G96" t="n">
+        <v>260.3333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>258.9333333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>255</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4025,18 +4429,27 @@
         <v>11106.5131</v>
       </c>
       <c r="G97" t="n">
+        <v>260.3333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>259.0166666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>255</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4060,18 +4473,27 @@
         <v>9834.9635</v>
       </c>
       <c r="G98" t="n">
+        <v>260.4666666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>259.1333333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>255</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4095,18 +4517,27 @@
         <v>1140</v>
       </c>
       <c r="G99" t="n">
+        <v>260.5333333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>259.25</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>255</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4130,18 +4561,29 @@
         <v>42.0636</v>
       </c>
       <c r="G100" t="n">
+        <v>260.5333333333334</v>
+      </c>
+      <c r="H100" t="n">
         <v>259.3333333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>260</v>
+      </c>
+      <c r="L100" t="n">
+        <v>255</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4165,18 +4607,29 @@
         <v>37.9846</v>
       </c>
       <c r="G101" t="n">
+        <v>260.6666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>259.4333333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>260</v>
+      </c>
+      <c r="L101" t="n">
+        <v>255</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,18 +4653,29 @@
         <v>42.0637</v>
       </c>
       <c r="G102" t="n">
+        <v>260.6666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>259.5333333333334</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>261</v>
+      </c>
+      <c r="L102" t="n">
+        <v>255</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4235,18 +4699,29 @@
         <v>130.2698</v>
       </c>
       <c r="G103" t="n">
+        <v>260.6666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>259.6166666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>260</v>
+      </c>
+      <c r="L103" t="n">
+        <v>255</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,18 +4745,29 @@
         <v>60.6779</v>
       </c>
       <c r="G104" t="n">
+        <v>260.6666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>259.7</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>260</v>
+      </c>
+      <c r="L104" t="n">
+        <v>255</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4305,18 +4791,29 @@
         <v>2.4175</v>
       </c>
       <c r="G105" t="n">
+        <v>260.6666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>259.8</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>260</v>
+      </c>
+      <c r="L105" t="n">
+        <v>255</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4340,18 +4837,29 @@
         <v>21.0318</v>
       </c>
       <c r="G106" t="n">
+        <v>260.6666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>259.8833333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>261</v>
+      </c>
+      <c r="L106" t="n">
+        <v>255</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,18 +4883,29 @@
         <v>2.3688</v>
       </c>
       <c r="G107" t="n">
+        <v>260.8666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>260.0166666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>260</v>
+      </c>
+      <c r="L107" t="n">
+        <v>255</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4410,18 +4929,27 @@
         <v>151.095</v>
       </c>
       <c r="G108" t="n">
+        <v>261</v>
+      </c>
+      <c r="H108" t="n">
         <v>260.15</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>255</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4445,18 +4973,27 @@
         <v>591.7134</v>
       </c>
       <c r="G109" t="n">
+        <v>261</v>
+      </c>
+      <c r="H109" t="n">
         <v>260.2333333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>255</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4480,18 +5017,27 @@
         <v>541.2234</v>
       </c>
       <c r="G110" t="n">
+        <v>261.0666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>260.35</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>255</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4515,18 +5061,27 @@
         <v>1</v>
       </c>
       <c r="G111" t="n">
+        <v>261.2</v>
+      </c>
+      <c r="H111" t="n">
         <v>260.4833333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>255</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,18 +5105,27 @@
         <v>10</v>
       </c>
       <c r="G112" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="H112" t="n">
         <v>260.6166666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>255</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4585,18 +5149,27 @@
         <v>20</v>
       </c>
       <c r="G113" t="n">
+        <v>261.6</v>
+      </c>
+      <c r="H113" t="n">
         <v>260.75</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>255</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4620,18 +5193,27 @@
         <v>3030.303</v>
       </c>
       <c r="G114" t="n">
+        <v>261.8666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>260.8833333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>255</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4655,18 +5237,27 @@
         <v>3392</v>
       </c>
       <c r="G115" t="n">
+        <v>261.8666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>260.9166666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>255</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4690,18 +5281,27 @@
         <v>156.2897</v>
       </c>
       <c r="G116" t="n">
+        <v>262</v>
+      </c>
+      <c r="H116" t="n">
         <v>260.9833333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>255</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4725,18 +5325,27 @@
         <v>3700.0951</v>
       </c>
       <c r="G117" t="n">
+        <v>262.1333333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>261.05</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>255</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4760,18 +5369,27 @@
         <v>15.2278</v>
       </c>
       <c r="G118" t="n">
+        <v>262.2666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>261.1</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>255</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4795,18 +5413,29 @@
         <v>5831.6121</v>
       </c>
       <c r="G119" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="H119" t="n">
         <v>261.1333333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>262</v>
+      </c>
+      <c r="L119" t="n">
+        <v>255</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4830,18 +5459,29 @@
         <v>6365.6007</v>
       </c>
       <c r="G120" t="n">
+        <v>262.5333333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>261.1666666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>262</v>
+      </c>
+      <c r="L120" t="n">
+        <v>255</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4865,18 +5505,29 @@
         <v>1448.9281</v>
       </c>
       <c r="G121" t="n">
+        <v>262.6</v>
+      </c>
+      <c r="H121" t="n">
         <v>261.1833333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>263</v>
+      </c>
+      <c r="L121" t="n">
+        <v>255</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4900,18 +5551,29 @@
         <v>156.2897</v>
       </c>
       <c r="G122" t="n">
+        <v>262.5333333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>261.2</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>261</v>
+      </c>
+      <c r="L122" t="n">
+        <v>255</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4935,18 +5597,29 @@
         <v>2010</v>
       </c>
       <c r="G123" t="n">
+        <v>262.5333333333334</v>
+      </c>
+      <c r="H123" t="n">
         <v>261.2333333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>262</v>
+      </c>
+      <c r="L123" t="n">
+        <v>255</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4970,18 +5643,27 @@
         <v>11.2781</v>
       </c>
       <c r="G124" t="n">
+        <v>262.7333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>261.2666666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>255</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5005,18 +5687,27 @@
         <v>1520.9125</v>
       </c>
       <c r="G125" t="n">
+        <v>262.7333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>261.2833333333334</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>255</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5040,18 +5731,27 @@
         <v>1355.0646</v>
       </c>
       <c r="G126" t="n">
+        <v>262.6666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>261.2833333333334</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>255</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5075,18 +5775,27 @@
         <v>2162</v>
       </c>
       <c r="G127" t="n">
+        <v>262.5333333333334</v>
+      </c>
+      <c r="H127" t="n">
         <v>261.2666666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>255</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5110,18 +5819,27 @@
         <v>479.5453</v>
       </c>
       <c r="G128" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="H128" t="n">
         <v>261.2833333333334</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>255</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5145,18 +5863,27 @@
         <v>2060.7452</v>
       </c>
       <c r="G129" t="n">
+        <v>262.1333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>261.2666666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>255</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5180,18 +5907,29 @@
         <v>2060.7452</v>
       </c>
       <c r="G130" t="n">
+        <v>262.1333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>261.2333333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>260</v>
+      </c>
+      <c r="L130" t="n">
+        <v>255</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5215,18 +5953,29 @@
         <v>3385.2829</v>
       </c>
       <c r="G131" t="n">
+        <v>262.0666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>261.2333333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>260</v>
+      </c>
+      <c r="L131" t="n">
+        <v>255</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5250,18 +5999,29 @@
         <v>3496.2395</v>
       </c>
       <c r="G132" t="n">
+        <v>262.0666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>261.2166666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>262</v>
+      </c>
+      <c r="L132" t="n">
+        <v>255</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5285,18 +6045,29 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
+        <v>262.1333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>261.2333333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>262</v>
+      </c>
+      <c r="L133" t="n">
+        <v>255</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5320,18 +6091,27 @@
         <v>1</v>
       </c>
       <c r="G134" t="n">
+        <v>262.1333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>261.25</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>255</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5355,18 +6135,27 @@
         <v>1011</v>
       </c>
       <c r="G135" t="n">
+        <v>262.2</v>
+      </c>
+      <c r="H135" t="n">
         <v>261.3166666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>255</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5390,18 +6179,27 @@
         <v>1000</v>
       </c>
       <c r="G136" t="n">
+        <v>262.4666666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>261.4</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>255</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5425,18 +6223,27 @@
         <v>2200</v>
       </c>
       <c r="G137" t="n">
+        <v>262.7333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>261.5</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>255</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5460,18 +6267,27 @@
         <v>500.0346</v>
       </c>
       <c r="G138" t="n">
+        <v>262.9333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>261.6166666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>255</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5495,18 +6311,27 @@
         <v>172.3281</v>
       </c>
       <c r="G139" t="n">
+        <v>263</v>
+      </c>
+      <c r="H139" t="n">
         <v>261.7</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>255</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,18 +6355,27 @@
         <v>1450.0657</v>
       </c>
       <c r="G140" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="H140" t="n">
         <v>261.8</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>255</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5565,18 +6399,27 @@
         <v>323.7465</v>
       </c>
       <c r="G141" t="n">
+        <v>263.4</v>
+      </c>
+      <c r="H141" t="n">
         <v>261.9</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>255</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5600,18 +6443,27 @@
         <v>3615.1455</v>
       </c>
       <c r="G142" t="n">
+        <v>263.5333333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>261.95</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>255</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5635,18 +6487,27 @@
         <v>226.2535</v>
       </c>
       <c r="G143" t="n">
+        <v>263.8</v>
+      </c>
+      <c r="H143" t="n">
         <v>262.0666666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>255</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5670,18 +6531,27 @@
         <v>1631.8735</v>
       </c>
       <c r="G144" t="n">
+        <v>264.2666666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>262.2</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>255</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5705,18 +6575,27 @@
         <v>2.0001</v>
       </c>
       <c r="G145" t="n">
+        <v>264.8666666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>262.35</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>255</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5740,18 +6619,27 @@
         <v>1761.1857</v>
       </c>
       <c r="G146" t="n">
+        <v>265.3333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>262.5166666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>255</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5775,18 +6663,27 @@
         <v>96.9345</v>
       </c>
       <c r="G147" t="n">
+        <v>265.6666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>262.6333333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>255</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5810,18 +6707,27 @@
         <v>1</v>
       </c>
       <c r="G148" t="n">
+        <v>266</v>
+      </c>
+      <c r="H148" t="n">
         <v>262.7666666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>255</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5845,18 +6751,27 @@
         <v>15802.00151449814</v>
       </c>
       <c r="G149" t="n">
+        <v>266.4666666666666</v>
+      </c>
+      <c r="H149" t="n">
         <v>262.9166666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>255</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5880,18 +6795,27 @@
         <v>197.0522</v>
       </c>
       <c r="G150" t="n">
+        <v>266.7333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>263.0333333333334</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>255</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5915,18 +6839,27 @@
         <v>7703.001</v>
       </c>
       <c r="G151" t="n">
+        <v>267</v>
+      </c>
+      <c r="H151" t="n">
         <v>263.1833333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>255</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5950,18 +6883,27 @@
         <v>10</v>
       </c>
       <c r="G152" t="n">
+        <v>267.1333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>263.3166666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>255</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5985,18 +6927,27 @@
         <v>20</v>
       </c>
       <c r="G153" t="n">
+        <v>267.3333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>263.45</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>255</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6020,18 +6971,27 @@
         <v>1247.6198</v>
       </c>
       <c r="G154" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="H154" t="n">
         <v>263.5833333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>255</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6055,18 +7015,27 @@
         <v>1598.5702</v>
       </c>
       <c r="G155" t="n">
+        <v>267.8666666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>263.7166666666666</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>255</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6090,18 +7059,27 @@
         <v>5804.5495</v>
       </c>
       <c r="G156" t="n">
+        <v>268.1333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>263.85</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>255</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6125,18 +7103,27 @@
         <v>6950</v>
       </c>
       <c r="G157" t="n">
+        <v>268.6</v>
+      </c>
+      <c r="H157" t="n">
         <v>264.0166666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>255</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,18 +7147,27 @@
         <v>36.4877</v>
       </c>
       <c r="G158" t="n">
+        <v>269.0666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>264.2166666666666</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>255</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6195,19 +7191,28 @@
         <v>15579.5454</v>
       </c>
       <c r="G159" t="n">
+        <v>269.3333333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>264.4</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
+      <c r="L159" t="n">
+        <v>255</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>1.057745098039216</v>
       </c>
     </row>
     <row r="160">
@@ -6230,18 +7235,21 @@
         <v>1110</v>
       </c>
       <c r="G160" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="H160" t="n">
         <v>264.5666666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6265,18 +7273,21 @@
         <v>1481.248</v>
       </c>
       <c r="G161" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="H161" t="n">
         <v>264.7</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6300,18 +7311,21 @@
         <v>1057.0279</v>
       </c>
       <c r="G162" t="n">
+        <v>269.6666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>264.8833333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6335,18 +7349,21 @@
         <v>2207.8594</v>
       </c>
       <c r="G163" t="n">
+        <v>269.8666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>265.0666666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6370,18 +7387,21 @@
         <v>388.4204</v>
       </c>
       <c r="G164" t="n">
+        <v>269.9333333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>265.2333333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6405,18 +7425,21 @@
         <v>6552.0569</v>
       </c>
       <c r="G165" t="n">
+        <v>270.0666666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>265.3833333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6440,18 +7463,21 @@
         <v>43</v>
       </c>
       <c r="G166" t="n">
+        <v>270.1333333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>265.55</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6475,18 +7501,21 @@
         <v>1.3115</v>
       </c>
       <c r="G167" t="n">
+        <v>270.2666666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>265.6666666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6510,18 +7539,21 @@
         <v>7000</v>
       </c>
       <c r="G168" t="n">
+        <v>270</v>
+      </c>
+      <c r="H168" t="n">
         <v>265.7</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6545,18 +7577,21 @@
         <v>15.2842</v>
       </c>
       <c r="G169" t="n">
+        <v>269.9333333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>265.8166666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6580,18 +7615,21 @@
         <v>7617.8526</v>
       </c>
       <c r="G170" t="n">
+        <v>269.6666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>265.8666666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6615,18 +7653,21 @@
         <v>2487.4263</v>
       </c>
       <c r="G171" t="n">
+        <v>269.5333333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>265.9333333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6650,18 +7691,21 @@
         <v>31489.4999</v>
       </c>
       <c r="G172" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="H172" t="n">
         <v>266.0166666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6685,18 +7729,21 @@
         <v>32.0873</v>
       </c>
       <c r="G173" t="n">
+        <v>269</v>
+      </c>
+      <c r="H173" t="n">
         <v>266.0666666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6720,18 +7767,21 @@
         <v>3.2178</v>
       </c>
       <c r="G174" t="n">
+        <v>268.7333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>266.1166666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6755,18 +7805,21 @@
         <v>1</v>
       </c>
       <c r="G175" t="n">
+        <v>268.6666666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>266.2666666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6790,18 +7843,401 @@
         <v>1</v>
       </c>
       <c r="G176" t="n">
+        <v>268.6666666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>266.3666666666667</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>269</v>
+      </c>
+      <c r="C177" t="n">
+        <v>269</v>
+      </c>
+      <c r="D177" t="n">
+        <v>269</v>
+      </c>
+      <c r="E177" t="n">
+        <v>269</v>
+      </c>
+      <c r="F177" t="n">
+        <v>9.7614</v>
+      </c>
+      <c r="G177" t="n">
+        <v>268.5333333333334</v>
+      </c>
+      <c r="H177" t="n">
+        <v>266.4833333333333</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>270</v>
+      </c>
+      <c r="C178" t="n">
+        <v>270</v>
+      </c>
+      <c r="D178" t="n">
+        <v>270</v>
+      </c>
+      <c r="E178" t="n">
+        <v>270</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1055.9313</v>
+      </c>
+      <c r="G178" t="n">
+        <v>268.4666666666666</v>
+      </c>
+      <c r="H178" t="n">
+        <v>266.6166666666667</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>270</v>
+      </c>
+      <c r="C179" t="n">
+        <v>270</v>
+      </c>
+      <c r="D179" t="n">
+        <v>270</v>
+      </c>
+      <c r="E179" t="n">
+        <v>270</v>
+      </c>
+      <c r="F179" t="n">
+        <v>650</v>
+      </c>
+      <c r="G179" t="n">
+        <v>268.4666666666666</v>
+      </c>
+      <c r="H179" t="n">
+        <v>266.75</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>269</v>
+      </c>
+      <c r="C180" t="n">
+        <v>269</v>
+      </c>
+      <c r="D180" t="n">
+        <v>269</v>
+      </c>
+      <c r="E180" t="n">
+        <v>269</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2211</v>
+      </c>
+      <c r="G180" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="H180" t="n">
+        <v>266.85</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>270</v>
+      </c>
+      <c r="C181" t="n">
+        <v>270</v>
+      </c>
+      <c r="D181" t="n">
+        <v>270</v>
+      </c>
+      <c r="E181" t="n">
+        <v>270</v>
+      </c>
+      <c r="F181" t="n">
+        <v>5187.6481</v>
+      </c>
+      <c r="G181" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="H181" t="n">
+        <v>267</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>269</v>
+      </c>
+      <c r="C182" t="n">
+        <v>269</v>
+      </c>
+      <c r="D182" t="n">
+        <v>269</v>
+      </c>
+      <c r="E182" t="n">
+        <v>269</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3194</v>
+      </c>
+      <c r="G182" t="n">
+        <v>268.3333333333333</v>
+      </c>
+      <c r="H182" t="n">
+        <v>267.1166666666667</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>269</v>
+      </c>
+      <c r="C183" t="n">
+        <v>269</v>
+      </c>
+      <c r="D183" t="n">
+        <v>269</v>
+      </c>
+      <c r="E183" t="n">
+        <v>269</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G183" t="n">
+        <v>268.6</v>
+      </c>
+      <c r="H183" t="n">
+        <v>267.2166666666666</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>268</v>
+      </c>
+      <c r="C184" t="n">
+        <v>268</v>
+      </c>
+      <c r="D184" t="n">
+        <v>268</v>
+      </c>
+      <c r="E184" t="n">
+        <v>268</v>
+      </c>
+      <c r="F184" t="n">
+        <v>360.5205</v>
+      </c>
+      <c r="G184" t="n">
+        <v>268.6</v>
+      </c>
+      <c r="H184" t="n">
+        <v>267.2833333333334</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>267</v>
+      </c>
+      <c r="C185" t="n">
+        <v>266</v>
+      </c>
+      <c r="D185" t="n">
+        <v>267</v>
+      </c>
+      <c r="E185" t="n">
+        <v>266</v>
+      </c>
+      <c r="F185" t="n">
+        <v>15802.0015</v>
+      </c>
+      <c r="G185" t="n">
+        <v>268.6</v>
+      </c>
+      <c r="H185" t="n">
+        <v>267.3333333333333</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>266</v>
+      </c>
+      <c r="C186" t="n">
+        <v>266</v>
+      </c>
+      <c r="D186" t="n">
+        <v>266</v>
+      </c>
+      <c r="E186" t="n">
+        <v>266</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>268.4666666666666</v>
+      </c>
+      <c r="H186" t="n">
+        <v>267.3833333333333</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-17 BackTest BAT.xlsx
+++ b/BackTest/2019-10-17 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>58955.48723870967</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>58955.48723870967</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>258</v>
+      </c>
+      <c r="J3" t="n">
+        <v>258</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>53383.90593870967</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>258</v>
+      </c>
+      <c r="J4" t="n">
+        <v>258</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>53407.10073870967</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>256</v>
+      </c>
+      <c r="J5" t="n">
+        <v>258</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -586,8 +606,14 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>258</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -619,8 +645,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>258</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,17 @@
         <v>50065.87823870967</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>258</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -684,9 +722,17 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>254</v>
+      </c>
+      <c r="J9" t="n">
+        <v>258</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -717,9 +763,17 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>255</v>
+      </c>
+      <c r="J10" t="n">
+        <v>258</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -750,9 +804,17 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>256</v>
+      </c>
+      <c r="J11" t="n">
+        <v>258</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +843,17 @@
         <v>51455.77533870967</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>258</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +882,19 @@
         <v>51455.77533870967</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>258</v>
+      </c>
+      <c r="J13" t="n">
+        <v>258</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +926,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>258</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +965,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>258</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1004,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>258</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1043,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>258</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1079,17 @@
         <v>33315.35803870967</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>258</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1121,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>258</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1160,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>258</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1199,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>258</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1235,17 @@
         <v>33315.35803870967</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>258</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1277,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>258</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1316,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>258</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1355,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>258</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1394,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>258</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1433,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>258</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1472,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>258</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1511,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>258</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1550,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>258</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1589,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>258</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1628,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>258</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1667,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>258</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1706,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>258</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1745,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>258</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1784,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>258</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1823,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>258</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1862,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>258</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1901,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>258</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1940,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>258</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1979,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>258</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2018,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>258</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2057,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>258</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2096,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>258</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2135,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>258</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2174,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>258</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2213,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>258</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2252,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>258</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2291,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>258</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2330,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>258</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2369,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>258</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2408,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>258</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2447,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>258</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2486,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>258</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2525,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>258</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2564,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>258</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2603,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>258</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2642,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>258</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2681,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>258</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2720,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>258</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2759,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>258</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2798,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>258</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2837,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>258</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2876,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>258</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2915,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>258</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2954,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>258</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2993,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3032,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>258</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3071,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>258</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3110,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>258</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3149,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>258</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3188,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>258</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3227,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>258</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3266,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>258</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3305,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>258</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3344,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>258</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3383,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>258</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3422,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>258</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3461,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>258</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3500,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>258</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3539,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>258</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3578,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>258</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3617,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>258</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3656,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>258</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3695,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>258</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3734,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>258</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3773,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>258</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3812,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>258</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3851,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>258</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3890,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>258</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3929,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>258</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3968,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>258</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +4007,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>258</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4046,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>258</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4085,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>258</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4124,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>258</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,15 +4160,17 @@
         <v>31930.6511220896</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>254</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,17 +4199,15 @@
         <v>32701.4095220896</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -3664,17 +4238,15 @@
         <v>32701.4095220896</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -3705,15 +4277,17 @@
         <v>32494.7780220896</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>255</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3742,17 +4316,15 @@
         <v>34072.0543220896</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -3783,13 +4355,11 @@
         <v>34072.0543220896</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3824,13 +4394,11 @@
         <v>34072.0543220896</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3865,13 +4433,11 @@
         <v>34072.0543220896</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -3906,13 +4472,11 @@
         <v>34072.0543220896</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -3947,13 +4511,11 @@
         <v>34072.0543220896</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -3988,13 +4550,11 @@
         <v>45799.1501220896</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4029,13 +4589,11 @@
         <v>45799.1501220896</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4070,13 +4628,11 @@
         <v>45799.1501220896</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4111,13 +4667,11 @@
         <v>45799.1501220896</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4152,13 +4706,11 @@
         <v>45799.1501220896</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4193,13 +4745,11 @@
         <v>45799.1501220896</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4234,13 +4784,11 @@
         <v>46208.1501220896</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4275,13 +4823,11 @@
         <v>47678.1501220896</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4316,13 +4862,11 @@
         <v>47088.2373220896</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4361,7 +4905,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4400,7 +4944,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4439,7 +4983,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4478,7 +5022,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4517,7 +5061,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4556,7 +5100,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4595,7 +5139,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4630,19 +5174,19 @@
         <v>52326.9533220896</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1.022450980392157</v>
+        <v>1</v>
       </c>
       <c r="M123" t="inlineStr"/>
     </row>
@@ -4669,11 +5213,17 @@
         <v>53673.9362220896</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>258</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4702,11 +5252,17 @@
         <v>53673.9362220896</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>258</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4735,11 +5291,17 @@
         <v>45914.7453220896</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>258</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4768,11 +5330,17 @@
         <v>45914.7453220896</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>258</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4801,11 +5369,17 @@
         <v>45938.9482220896</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>258</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4834,11 +5408,17 @@
         <v>45938.9482220896</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>258</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4870,8 +5450,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>258</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4900,11 +5486,17 @@
         <v>44589.9450220896</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>258</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4933,11 +5525,17 @@
         <v>44552.17262208959</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>258</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4966,11 +5564,17 @@
         <v>44072.17262208959</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>258</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4999,11 +5603,17 @@
         <v>44072.17262208959</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>258</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5032,11 +5642,17 @@
         <v>44072.17262208959</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>258</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5068,8 +5684,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>258</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5101,8 +5723,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>258</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5134,8 +5762,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>258</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5167,8 +5801,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>258</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5200,8 +5840,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>258</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5233,8 +5879,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>258</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5266,8 +5918,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>258</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5299,8 +5957,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>258</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5332,8 +5996,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>258</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5365,8 +6035,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>258</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5398,8 +6074,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>258</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5428,15 +6110,17 @@
         <v>43833.15082208958</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>260</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5469,11 +6153,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L148" t="n">
@@ -5504,17 +6188,15 @@
         <v>42610.46372208958</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L149" t="n">
@@ -5545,13 +6227,11 @@
         <v>42610.46372208958</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5586,13 +6266,11 @@
         <v>44148.46372208958</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5631,7 +6309,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5670,7 +6348,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5709,7 +6387,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5748,7 +6426,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5787,7 +6465,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5826,7 +6504,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5865,7 +6543,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5904,7 +6582,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5943,7 +6621,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5982,7 +6660,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6021,7 +6699,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6060,7 +6738,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6099,7 +6777,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6138,7 +6816,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6177,7 +6855,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6216,7 +6894,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6251,19 +6929,19 @@
         <v>32190.38572208958</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.006538461538462</v>
+        <v>1</v>
       </c>
       <c r="M168" t="inlineStr"/>
     </row>
@@ -6290,11 +6968,17 @@
         <v>32191.38572208958</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>258</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6323,11 +7007,17 @@
         <v>32191.38572208958</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>258</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6356,11 +7046,17 @@
         <v>32191.38572208958</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>258</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6389,11 +7085,17 @@
         <v>32191.38572208958</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>258</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6425,8 +7127,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>258</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6458,8 +7166,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>258</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6488,11 +7202,17 @@
         <v>25255.58032208959</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>258</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6524,8 +7244,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>258</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6557,8 +7283,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>258</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6590,8 +7322,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>258</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6623,8 +7361,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>258</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6656,8 +7400,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>258</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6689,8 +7439,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>258</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6722,8 +7478,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>258</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6755,8 +7517,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>258</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6788,8 +7556,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>258</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6821,8 +7595,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>258</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6854,8 +7634,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>258</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6887,8 +7673,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>258</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6920,8 +7712,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>258</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6953,8 +7751,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>258</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6986,8 +7790,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>258</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7019,8 +7829,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>258</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7052,8 +7868,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>258</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7085,8 +7907,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>258</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7118,8 +7946,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>258</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7151,8 +7985,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>258</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7184,8 +8024,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>258</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7217,8 +8063,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>258</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7250,8 +8102,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>258</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7283,8 +8141,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>258</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7316,8 +8180,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>258</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7349,8 +8219,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>258</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7382,8 +8258,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>258</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7415,8 +8297,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>258</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7448,8 +8336,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>258</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7481,8 +8375,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>258</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7514,8 +8414,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>258</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7547,8 +8453,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>258</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7577,13 +8489,19 @@
         <v>49243.17993658773</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>258</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L208" t="n">
-        <v>1</v>
+        <v>1.033759689922481</v>
       </c>
       <c r="M208" t="inlineStr"/>
     </row>
@@ -7610,7 +8528,7 @@
         <v>56946.18093658773</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7643,7 +8561,7 @@
         <v>56936.18093658773</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7676,7 +8594,7 @@
         <v>56956.18093658773</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7742,7 +8660,7 @@
         <v>58554.75113658773</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7775,7 +8693,7 @@
         <v>58554.75113658773</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7808,7 +8726,7 @@
         <v>65504.75113658773</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7841,7 +8759,7 @@
         <v>65541.23883658773</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7874,7 +8792,7 @@
         <v>49961.69343658772</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7907,7 +8825,7 @@
         <v>48851.69343658772</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7940,7 +8858,7 @@
         <v>47370.44543658772</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7973,7 +8891,7 @@
         <v>48427.47333658773</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8006,7 +8924,7 @@
         <v>48427.47333658773</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8039,7 +8957,7 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8072,7 +8990,7 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8105,7 +9023,7 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8138,7 +9056,7 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8171,7 +9089,7 @@
         <v>41039.05293658772</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8204,7 +9122,7 @@
         <v>41054.33713658772</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8237,7 +9155,7 @@
         <v>33436.48453658773</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8270,7 +9188,7 @@
         <v>35923.91083658773</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8303,7 +9221,7 @@
         <v>67413.41073658773</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8336,7 +9254,7 @@
         <v>67381.32343658773</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8369,7 +9287,7 @@
         <v>67381.32343658773</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8402,7 +9320,7 @@
         <v>67382.32343658773</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8435,7 +9353,7 @@
         <v>67382.32343658773</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8468,7 +9386,7 @@
         <v>67382.32343658773</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8501,7 +9419,7 @@
         <v>68438.25473658773</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8534,7 +9452,7 @@
         <v>68438.25473658773</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8567,7 +9485,7 @@
         <v>66227.25473658773</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8633,7 +9551,7 @@
         <v>68220.90283658773</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8776,6 +9694,6 @@
       <c r="M244" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest BAT.xlsx
+++ b/BackTest/2019-10-17 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>58955.48723870967</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>58955.48723870967</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>258</v>
-      </c>
-      <c r="J3" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>53383.90593870967</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>258</v>
-      </c>
-      <c r="J4" t="n">
-        <v>258</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>53407.10073870967</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>256</v>
-      </c>
-      <c r="J5" t="n">
-        <v>258</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -606,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>258</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -645,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>258</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,17 +649,11 @@
         <v>50065.87823870967</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>258</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -720,19 +682,11 @@
         <v>50130.15043870966</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>254</v>
-      </c>
-      <c r="J9" t="n">
-        <v>258</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -761,19 +715,11 @@
         <v>51442.24653870967</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>255</v>
-      </c>
-      <c r="J10" t="n">
-        <v>258</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -802,19 +748,11 @@
         <v>51455.77533870967</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>256</v>
-      </c>
-      <c r="J11" t="n">
-        <v>258</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -843,17 +781,11 @@
         <v>51455.77533870967</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>258</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -882,19 +814,11 @@
         <v>51455.77533870967</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>258</v>
-      </c>
-      <c r="J13" t="n">
-        <v>258</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -923,17 +847,11 @@
         <v>33301.96363870967</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>258</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -962,17 +880,11 @@
         <v>33317.66343870967</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>258</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1001,17 +913,11 @@
         <v>33334.47033870967</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>258</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1040,17 +946,11 @@
         <v>33334.47033870967</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>258</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1079,17 +979,11 @@
         <v>33315.35803870967</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>258</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1118,17 +1012,11 @@
         <v>33315.35803870967</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>258</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1157,17 +1045,11 @@
         <v>33315.35803870967</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>258</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1199,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>258</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1238,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>258</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1277,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>258</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1316,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>258</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1355,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>258</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1394,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>258</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1433,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>258</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1472,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>258</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1511,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>258</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1550,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>258</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1589,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>258</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1628,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>258</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1667,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>258</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1706,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>258</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1745,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>258</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1784,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>258</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1823,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>258</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1862,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>258</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1901,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>258</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1940,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>258</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1979,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>258</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2018,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>258</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2057,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>258</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2096,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>258</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2135,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>258</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2174,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>258</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2213,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>258</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2252,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>258</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2291,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>258</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2330,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>258</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2369,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>258</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2408,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>258</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2447,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>258</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2486,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>258</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2525,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>258</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2564,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>258</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2603,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>258</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2642,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>258</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2681,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>258</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2720,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>258</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2759,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>258</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2798,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>258</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2837,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>258</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2876,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>258</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2915,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>258</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2954,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>258</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2993,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>258</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3032,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>258</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3071,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>258</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3110,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>258</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3149,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>258</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3188,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>258</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3227,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>258</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3266,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>258</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3305,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>258</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3344,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>258</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3383,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>258</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3422,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>258</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3461,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>258</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3500,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>258</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3539,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>258</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3578,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>258</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3617,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>258</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3653,17 +3157,15 @@
         <v>34132.4135220896</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>255</v>
+      </c>
       <c r="J84" t="n">
-        <v>258</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3692,15 +3194,17 @@
         <v>34132.4135220896</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>255</v>
+      </c>
       <c r="J85" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3735,11 +3239,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -3773,14 +3277,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>258</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3812,14 +3310,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>258</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3851,14 +3343,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>258</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3890,14 +3376,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>258</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3929,14 +3409,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>258</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3965,17 +3439,15 @@
         <v>34545.4056220896</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>256</v>
+      </c>
       <c r="J92" t="n">
-        <v>258</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4008,11 +3480,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -4043,11 +3515,13 @@
         <v>32796.4133220896</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>254</v>
+      </c>
       <c r="J94" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4082,11 +3556,13 @@
         <v>32796.4133220896</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>256</v>
+      </c>
       <c r="J95" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4121,11 +3597,13 @@
         <v>32352.5379220896</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>256</v>
+      </c>
       <c r="J96" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4160,11 +3638,13 @@
         <v>31930.6511220896</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>254</v>
+      </c>
       <c r="J97" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4199,11 +3679,13 @@
         <v>32701.4095220896</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>253</v>
+      </c>
       <c r="J98" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4238,11 +3720,13 @@
         <v>32701.4095220896</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>255</v>
+      </c>
       <c r="J99" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4277,11 +3761,13 @@
         <v>32494.7780220896</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>255</v>
+      </c>
       <c r="J100" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4316,11 +3802,13 @@
         <v>34072.0543220896</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>254</v>
+      </c>
       <c r="J101" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4355,11 +3843,13 @@
         <v>34072.0543220896</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>255</v>
+      </c>
       <c r="J102" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4394,11 +3884,13 @@
         <v>34072.0543220896</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>255</v>
+      </c>
       <c r="J103" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4433,11 +3925,13 @@
         <v>34072.0543220896</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>255</v>
+      </c>
       <c r="J104" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4472,11 +3966,13 @@
         <v>34072.0543220896</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>255</v>
+      </c>
       <c r="J105" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4511,11 +4007,13 @@
         <v>34072.0543220896</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>255</v>
+      </c>
       <c r="J106" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4550,11 +4048,13 @@
         <v>45799.1501220896</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>255</v>
+      </c>
       <c r="J107" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4589,11 +4089,13 @@
         <v>45799.1501220896</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>256</v>
+      </c>
       <c r="J108" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4628,11 +4130,13 @@
         <v>45799.1501220896</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>256</v>
+      </c>
       <c r="J109" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4667,11 +4171,13 @@
         <v>45799.1501220896</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>256</v>
+      </c>
       <c r="J110" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4706,11 +4212,13 @@
         <v>45799.1501220896</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>256</v>
+      </c>
       <c r="J111" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4745,11 +4253,13 @@
         <v>45799.1501220896</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>256</v>
+      </c>
       <c r="J112" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4784,11 +4294,13 @@
         <v>46208.1501220896</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>256</v>
+      </c>
       <c r="J113" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4823,11 +4335,13 @@
         <v>47678.1501220896</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>258</v>
+      </c>
       <c r="J114" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4866,7 +4380,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4905,7 +4419,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4944,7 +4458,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4983,7 +4497,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5022,7 +4536,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5061,7 +4575,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5100,7 +4614,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5139,7 +4653,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5178,7 +4692,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5217,7 +4731,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5256,7 +4770,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5295,7 +4809,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5334,7 +4848,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5373,7 +4887,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5412,7 +4926,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5451,7 +4965,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5490,7 +5004,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5529,7 +5043,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5568,7 +5082,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5607,7 +5121,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5646,7 +5160,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5685,7 +5199,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5724,7 +5238,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5763,7 +5277,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5802,7 +5316,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5841,7 +5355,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5880,7 +5394,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5919,7 +5433,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5958,7 +5472,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5997,7 +5511,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6036,7 +5550,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6075,7 +5589,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6114,7 +5628,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6153,7 +5667,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6192,7 +5706,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6231,7 +5745,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6270,7 +5784,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6309,7 +5823,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6348,7 +5862,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6387,7 +5901,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6426,7 +5940,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6465,7 +5979,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6504,7 +6018,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6543,7 +6057,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6582,7 +6096,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6621,7 +6135,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6660,7 +6174,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6699,7 +6213,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6738,7 +6252,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6777,7 +6291,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6816,7 +6330,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6855,7 +6369,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6894,7 +6408,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6933,7 +6447,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6972,7 +6486,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7011,7 +6525,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7050,7 +6564,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7089,7 +6603,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7128,7 +6642,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7167,7 +6681,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7206,7 +6720,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7245,7 +6759,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7284,7 +6798,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7323,7 +6837,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7362,7 +6876,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7401,7 +6915,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7440,7 +6954,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7479,7 +6993,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7518,7 +7032,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7557,7 +7071,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7596,7 +7110,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7635,7 +7149,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7674,7 +7188,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7713,7 +7227,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7752,7 +7266,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7791,7 +7305,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7830,7 +7344,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7869,7 +7383,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7908,7 +7422,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7947,7 +7461,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7986,7 +7500,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8025,7 +7539,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8064,7 +7578,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8103,7 +7617,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8142,7 +7656,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8181,7 +7695,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8220,7 +7734,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8259,7 +7773,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8298,7 +7812,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8337,7 +7851,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8376,7 +7890,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8415,7 +7929,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8454,7 +7968,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8489,19 +8003,19 @@
         <v>49243.17993658773</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>1.033759689922481</v>
+        <v>1</v>
       </c>
       <c r="M208" t="inlineStr"/>
     </row>
@@ -8528,11 +8042,17 @@
         <v>56946.18093658773</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>256</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8561,11 +8081,17 @@
         <v>56936.18093658773</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>256</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8594,11 +8120,17 @@
         <v>56956.18093658773</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>256</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8630,8 +8162,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>256</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8660,11 +8198,17 @@
         <v>58554.75113658773</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>256</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8693,11 +8237,17 @@
         <v>58554.75113658773</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>256</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8726,11 +8276,17 @@
         <v>65504.75113658773</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>256</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8759,11 +8315,17 @@
         <v>65541.23883658773</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>256</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8792,11 +8354,17 @@
         <v>49961.69343658772</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>256</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8825,11 +8393,17 @@
         <v>48851.69343658772</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>256</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8858,11 +8432,17 @@
         <v>47370.44543658772</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>256</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8891,11 +8471,17 @@
         <v>48427.47333658773</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>256</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8924,11 +8510,17 @@
         <v>48427.47333658773</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>256</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8957,11 +8549,17 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>256</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8990,11 +8588,17 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>256</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9023,11 +8627,17 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>256</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9056,11 +8666,17 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>256</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9089,11 +8705,17 @@
         <v>41039.05293658772</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>256</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9122,11 +8744,17 @@
         <v>41054.33713658772</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>256</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9155,11 +8783,17 @@
         <v>33436.48453658773</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>256</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9188,11 +8822,17 @@
         <v>35923.91083658773</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>256</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9221,11 +8861,17 @@
         <v>67413.41073658773</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>256</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9254,11 +8900,17 @@
         <v>67381.32343658773</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>256</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9287,11 +8939,17 @@
         <v>67381.32343658773</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>256</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9320,11 +8978,17 @@
         <v>67382.32343658773</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>256</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9353,11 +9017,17 @@
         <v>67382.32343658773</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>256</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9386,11 +9056,17 @@
         <v>67382.32343658773</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>256</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9419,11 +9095,17 @@
         <v>68438.25473658773</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>256</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9452,11 +9134,17 @@
         <v>68438.25473658773</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>256</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9485,11 +9173,17 @@
         <v>66227.25473658773</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>256</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9521,8 +9215,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>256</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9551,11 +9251,17 @@
         <v>68220.90283658773</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>256</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9587,8 +9293,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>256</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9620,8 +9332,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>256</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9653,8 +9371,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>256</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9686,14 +9410,20 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>256</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
       <c r="M244" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest BAT.xlsx
+++ b/BackTest/2019-10-17 BackTest BAT.xlsx
@@ -451,7 +451,7 @@
         <v>58955.48723870967</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>58955.48723870967</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>258</v>
+      </c>
+      <c r="J3" t="n">
+        <v>258</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>53383.90593870967</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>258</v>
+      </c>
+      <c r="J4" t="n">
+        <v>258</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>53407.10073870967</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>256</v>
+      </c>
+      <c r="J5" t="n">
+        <v>258</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>53414.81303870967</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>258</v>
+      </c>
+      <c r="J6" t="n">
+        <v>258</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -619,8 +647,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>258</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +683,19 @@
         <v>50065.87823870967</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>258</v>
+      </c>
+      <c r="J8" t="n">
+        <v>258</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +724,19 @@
         <v>50130.15043870966</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>254</v>
+      </c>
+      <c r="J9" t="n">
+        <v>258</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +765,19 @@
         <v>51442.24653870967</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>255</v>
+      </c>
+      <c r="J10" t="n">
+        <v>258</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +806,19 @@
         <v>51455.77533870967</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>256</v>
+      </c>
+      <c r="J11" t="n">
+        <v>258</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +847,17 @@
         <v>51455.77533870967</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>258</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +886,17 @@
         <v>51455.77533870967</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>258</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +925,17 @@
         <v>33301.96363870967</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>258</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +964,19 @@
         <v>33317.66343870967</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>256</v>
+      </c>
+      <c r="J15" t="n">
+        <v>258</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1005,19 @@
         <v>33334.47033870967</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>258</v>
+      </c>
+      <c r="J16" t="n">
+        <v>258</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1046,17 @@
         <v>33334.47033870967</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>258</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1085,17 @@
         <v>33315.35803870967</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>258</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1124,17 @@
         <v>33315.35803870967</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>258</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1163,17 @@
         <v>33315.35803870967</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>258</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1205,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>258</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1244,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>258</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1283,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>258</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1322,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>258</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1361,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>258</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1400,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>258</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1439,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>258</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1478,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>258</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1517,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>258</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1556,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>258</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1595,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>258</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1634,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>258</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1673,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>258</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1712,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>258</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1751,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>258</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1790,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>258</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1829,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>258</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1868,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>258</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1907,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>258</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1946,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>258</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1985,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>258</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2024,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>258</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2063,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>258</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2102,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>258</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2141,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>258</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2180,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>258</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2219,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>258</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2258,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>258</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2297,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>258</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2336,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>258</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2375,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>258</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2414,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>258</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2453,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>258</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2492,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>258</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2531,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>258</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2570,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>258</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2609,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>258</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2648,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>258</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2687,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>258</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2726,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>258</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2765,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>258</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2804,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>258</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2843,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>258</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2882,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>258</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2921,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>258</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2960,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>258</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2999,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3038,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>258</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3077,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>258</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3116,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>258</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3155,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>258</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3194,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>258</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3233,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>258</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3272,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>258</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3311,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>258</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3350,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>258</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3389,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>258</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3428,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>258</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3467,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>258</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3506,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>258</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3545,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>258</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3584,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>258</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3623,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>258</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,15 +3659,17 @@
         <v>34132.4135220896</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>255</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,17 +3698,15 @@
         <v>34132.4135220896</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3239,11 +3741,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -3277,8 +3779,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>258</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3310,8 +3818,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>258</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3343,8 +3857,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>258</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3376,8 +3896,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>258</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3409,8 +3935,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>258</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3439,15 +3971,17 @@
         <v>34545.4056220896</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>256</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3480,11 +4014,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -3515,13 +4049,11 @@
         <v>32796.4133220896</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3556,13 +4088,11 @@
         <v>32796.4133220896</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3597,13 +4127,11 @@
         <v>32352.5379220896</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3638,13 +4166,11 @@
         <v>31930.6511220896</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3685,7 +4211,7 @@
         <v>253</v>
       </c>
       <c r="J98" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3726,7 +4252,7 @@
         <v>255</v>
       </c>
       <c r="J99" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3767,7 +4293,7 @@
         <v>255</v>
       </c>
       <c r="J100" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3808,7 +4334,7 @@
         <v>254</v>
       </c>
       <c r="J101" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3849,7 +4375,7 @@
         <v>255</v>
       </c>
       <c r="J102" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3890,7 +4416,7 @@
         <v>255</v>
       </c>
       <c r="J103" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3931,7 +4457,7 @@
         <v>255</v>
       </c>
       <c r="J104" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -3972,7 +4498,7 @@
         <v>255</v>
       </c>
       <c r="J105" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4013,7 +4539,7 @@
         <v>255</v>
       </c>
       <c r="J106" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4054,7 +4580,7 @@
         <v>255</v>
       </c>
       <c r="J107" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4095,7 +4621,7 @@
         <v>256</v>
       </c>
       <c r="J108" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4136,7 +4662,7 @@
         <v>256</v>
       </c>
       <c r="J109" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4177,7 +4703,7 @@
         <v>256</v>
       </c>
       <c r="J110" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4218,7 +4744,7 @@
         <v>256</v>
       </c>
       <c r="J111" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4259,7 +4785,7 @@
         <v>256</v>
       </c>
       <c r="J112" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4300,7 +4826,7 @@
         <v>256</v>
       </c>
       <c r="J113" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4341,7 +4867,7 @@
         <v>258</v>
       </c>
       <c r="J114" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4380,7 +4906,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4415,11 +4941,13 @@
         <v>47217.4451220896</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>258</v>
+      </c>
       <c r="J116" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4458,7 +4986,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4497,7 +5025,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4536,7 +5064,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4575,7 +5103,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4614,7 +5142,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4653,7 +5181,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4692,7 +5220,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4731,7 +5259,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4770,7 +5298,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4809,7 +5337,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4848,7 +5376,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4887,7 +5415,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4926,7 +5454,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4965,7 +5493,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5004,7 +5532,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5043,7 +5571,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5082,7 +5610,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5121,7 +5649,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5160,7 +5688,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5199,7 +5727,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5238,7 +5766,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5277,7 +5805,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5316,7 +5844,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5355,7 +5883,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5394,7 +5922,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5433,7 +5961,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5472,7 +6000,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5511,7 +6039,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5550,7 +6078,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5589,7 +6117,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5628,7 +6156,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5667,7 +6195,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5706,7 +6234,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5745,7 +6273,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5784,7 +6312,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5823,7 +6351,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5862,7 +6390,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5901,7 +6429,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5940,7 +6468,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5979,7 +6507,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6018,7 +6546,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6057,7 +6585,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6096,7 +6624,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6135,7 +6663,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6174,7 +6702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6213,7 +6741,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6252,7 +6780,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6291,7 +6819,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6330,7 +6858,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6369,7 +6897,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6408,7 +6936,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6447,7 +6975,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6486,7 +7014,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6525,7 +7053,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6564,7 +7092,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6603,7 +7131,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6642,7 +7170,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6681,7 +7209,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6720,7 +7248,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6759,7 +7287,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6798,7 +7326,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6837,7 +7365,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6876,7 +7404,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6915,7 +7443,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6954,7 +7482,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6993,7 +7521,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7032,7 +7560,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7071,7 +7599,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7110,7 +7638,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7149,7 +7677,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7188,7 +7716,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7223,11 +7751,13 @@
         <v>26606.16302208959</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>260</v>
+      </c>
       <c r="J188" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7266,7 +7796,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7305,7 +7835,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7344,7 +7874,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7383,7 +7913,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7422,7 +7952,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7461,7 +7991,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7500,7 +8030,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7539,7 +8069,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7578,7 +8108,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7617,7 +8147,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7656,7 +8186,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7695,7 +8225,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7734,7 +8264,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7773,7 +8303,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7812,7 +8342,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7851,7 +8381,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7890,7 +8420,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7929,7 +8459,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7968,7 +8498,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8007,7 +8537,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8046,7 +8576,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8085,7 +8615,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8124,7 +8654,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8159,19 +8689,19 @@
         <v>56956.18093658773</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>1</v>
+        <v>1.037635658914729</v>
       </c>
       <c r="M212" t="inlineStr"/>
     </row>
@@ -8198,17 +8728,11 @@
         <v>58554.75113658773</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>256</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8237,17 +8761,11 @@
         <v>58554.75113658773</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>256</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8276,17 +8794,11 @@
         <v>65504.75113658773</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>256</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8315,17 +8827,11 @@
         <v>65541.23883658773</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>256</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8354,17 +8860,11 @@
         <v>49961.69343658772</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>256</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8393,17 +8893,11 @@
         <v>48851.69343658772</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>256</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8432,17 +8926,11 @@
         <v>47370.44543658772</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>256</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8471,17 +8959,11 @@
         <v>48427.47333658773</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>256</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8510,17 +8992,11 @@
         <v>48427.47333658773</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>256</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8549,17 +9025,11 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>256</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8588,17 +9058,11 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>256</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8627,17 +9091,11 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>256</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8666,17 +9124,11 @@
         <v>48039.05293658772</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>256</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8705,17 +9157,11 @@
         <v>41039.05293658772</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>256</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8744,17 +9190,11 @@
         <v>41054.33713658772</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>256</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8786,14 +9226,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>256</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8825,14 +9259,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>256</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8864,14 +9292,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>256</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8900,17 +9322,11 @@
         <v>67381.32343658773</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>256</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8939,17 +9355,11 @@
         <v>67381.32343658773</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>256</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8978,17 +9388,11 @@
         <v>67382.32343658773</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>256</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9017,17 +9421,11 @@
         <v>67382.32343658773</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>256</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9056,17 +9454,11 @@
         <v>67382.32343658773</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>256</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9095,17 +9487,11 @@
         <v>68438.25473658773</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>256</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9134,17 +9520,11 @@
         <v>68438.25473658773</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>256</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9173,17 +9553,11 @@
         <v>66227.25473658773</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>256</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9212,17 +9586,11 @@
         <v>71414.90283658773</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>256</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9251,17 +9619,11 @@
         <v>68220.90283658773</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>256</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9290,17 +9652,11 @@
         <v>68220.90283658773</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>256</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9329,17 +9685,11 @@
         <v>67860.38233658773</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>256</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9368,17 +9718,11 @@
         <v>52058.38083658773</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>256</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9410,14 +9754,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>256</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-17 BackTest BAT.xlsx
+++ b/BackTest/2019-10-17 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M244"/>
+  <dimension ref="A1:L244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>165.6969</v>
       </c>
       <c r="G2" t="n">
-        <v>58955.48723870967</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>21.4089</v>
       </c>
       <c r="G3" t="n">
-        <v>58955.48723870967</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="I3" t="n">
         <v>258</v>
       </c>
-      <c r="J3" t="n">
-        <v>258</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>5571.5813</v>
       </c>
       <c r="G4" t="n">
-        <v>53383.90593870967</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="I4" t="n">
         <v>258</v>
       </c>
-      <c r="J4" t="n">
-        <v>258</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>23.1948</v>
       </c>
       <c r="G5" t="n">
-        <v>53407.10073870967</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="I5" t="n">
-        <v>256</v>
-      </c>
-      <c r="J5" t="n">
-        <v>258</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,23 @@
         <v>7.7123</v>
       </c>
       <c r="G6" t="n">
-        <v>53414.81303870967</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="I6" t="n">
         <v>258</v>
       </c>
-      <c r="J6" t="n">
-        <v>258</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,24 +621,23 @@
         <v>3.2015</v>
       </c>
       <c r="G7" t="n">
-        <v>53411.61153870967</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>258</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>259</v>
+      </c>
+      <c r="I7" t="n">
+        <v>258</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -680,26 +659,23 @@
         <v>3345.7333</v>
       </c>
       <c r="G8" t="n">
-        <v>50065.87823870967</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="I8" t="n">
         <v>258</v>
       </c>
-      <c r="J8" t="n">
-        <v>258</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -721,26 +697,23 @@
         <v>64.2722</v>
       </c>
       <c r="G9" t="n">
-        <v>50130.15043870966</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="I9" t="n">
-        <v>254</v>
-      </c>
-      <c r="J9" t="n">
-        <v>258</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -762,26 +735,23 @@
         <v>1312.0961</v>
       </c>
       <c r="G10" t="n">
-        <v>51442.24653870967</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="I10" t="n">
-        <v>255</v>
-      </c>
-      <c r="J10" t="n">
-        <v>258</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -803,26 +773,23 @@
         <v>13.5288</v>
       </c>
       <c r="G11" t="n">
-        <v>51455.77533870967</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="I11" t="n">
-        <v>256</v>
-      </c>
-      <c r="J11" t="n">
-        <v>258</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -844,24 +811,23 @@
         <v>3.1201</v>
       </c>
       <c r="G12" t="n">
-        <v>51455.77533870967</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>258</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="I12" t="n">
+        <v>258</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -883,24 +849,23 @@
         <v>422.64</v>
       </c>
       <c r="G13" t="n">
-        <v>51455.77533870967</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>258</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="I13" t="n">
+        <v>258</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -922,24 +887,21 @@
         <v>18153.8117</v>
       </c>
       <c r="G14" t="n">
-        <v>33301.96363870967</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>258</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>258</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -961,26 +923,23 @@
         <v>15.6998</v>
       </c>
       <c r="G15" t="n">
-        <v>33317.66343870967</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="I15" t="n">
-        <v>256</v>
-      </c>
-      <c r="J15" t="n">
-        <v>258</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1002,26 +961,21 @@
         <v>16.8069</v>
       </c>
       <c r="G16" t="n">
-        <v>33334.47033870967</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
         <v>258</v>
       </c>
-      <c r="J16" t="n">
-        <v>258</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1043,24 +997,21 @@
         <v>47.4449</v>
       </c>
       <c r="G17" t="n">
-        <v>33334.47033870967</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>258</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>258</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1082,24 +1033,21 @@
         <v>19.1123</v>
       </c>
       <c r="G18" t="n">
-        <v>33315.35803870967</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>258</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>258</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1121,24 +1069,21 @@
         <v>6.372</v>
       </c>
       <c r="G19" t="n">
-        <v>33315.35803870967</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>258</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>258</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1160,24 +1105,21 @@
         <v>6.4496</v>
       </c>
       <c r="G20" t="n">
-        <v>33315.35803870967</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>258</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>258</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1199,24 +1141,23 @@
         <v>32.748</v>
       </c>
       <c r="G21" t="n">
-        <v>33315.35803870967</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>258</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="I21" t="n">
+        <v>258</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1238,24 +1179,23 @@
         <v>75.2633</v>
       </c>
       <c r="G22" t="n">
-        <v>33315.35803870967</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>258</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="I22" t="n">
+        <v>258</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1277,24 +1217,23 @@
         <v>1176.6472</v>
       </c>
       <c r="G23" t="n">
-        <v>33315.35803870967</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>258</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="I23" t="n">
+        <v>258</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1316,24 +1255,21 @@
         <v>23.5694</v>
       </c>
       <c r="G24" t="n">
-        <v>33338.92743870967</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>258</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>258</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1355,24 +1291,21 @@
         <v>42569.08245307692</v>
       </c>
       <c r="G25" t="n">
-        <v>75908.00989178658</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>258</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>258</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1394,24 +1327,21 @@
         <v>6582.5852</v>
       </c>
       <c r="G26" t="n">
-        <v>69325.42469178658</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>258</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>258</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1433,24 +1363,21 @@
         <v>274.0414</v>
       </c>
       <c r="G27" t="n">
-        <v>69599.46609178658</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>258</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>258</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1472,24 +1399,21 @@
         <v>817.4191</v>
       </c>
       <c r="G28" t="n">
-        <v>70416.88519178658</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>258</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>258</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1511,24 +1435,21 @@
         <v>997.5</v>
       </c>
       <c r="G29" t="n">
-        <v>69419.38519178658</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>258</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>258</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1550,24 +1471,21 @@
         <v>352.3951</v>
       </c>
       <c r="G30" t="n">
-        <v>69771.78029178658</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>258</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>258</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1589,24 +1507,21 @@
         <v>890</v>
       </c>
       <c r="G31" t="n">
-        <v>69771.78029178658</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>258</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>258</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1628,24 +1543,21 @@
         <v>2.4195</v>
       </c>
       <c r="G32" t="n">
-        <v>69771.78029178658</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>258</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>258</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1667,24 +1579,21 @@
         <v>1120</v>
       </c>
       <c r="G33" t="n">
-        <v>70891.78029178658</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>258</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>258</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1706,24 +1615,21 @@
         <v>0.3332</v>
       </c>
       <c r="G34" t="n">
-        <v>70891.78029178658</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>258</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>258</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1745,24 +1651,21 @@
         <v>1769.76383030303</v>
       </c>
       <c r="G35" t="n">
-        <v>72661.5441220896</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>258</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>258</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1784,24 +1687,21 @@
         <v>3816.7938</v>
       </c>
       <c r="G36" t="n">
-        <v>68844.7503220896</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>258</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>258</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1823,24 +1723,21 @@
         <v>1410.6557</v>
       </c>
       <c r="G37" t="n">
-        <v>67434.0946220896</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>258</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>258</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1862,24 +1759,21 @@
         <v>118.0298</v>
       </c>
       <c r="G38" t="n">
-        <v>67552.1244220896</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>258</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>258</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1901,24 +1795,21 @@
         <v>6772.3769</v>
       </c>
       <c r="G39" t="n">
-        <v>60779.7475220896</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>258</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>258</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1940,24 +1831,21 @@
         <v>12.6805</v>
       </c>
       <c r="G40" t="n">
-        <v>60767.0670220896</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>258</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>258</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1979,24 +1867,21 @@
         <v>416.0091</v>
       </c>
       <c r="G41" t="n">
-        <v>61183.0761220896</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>258</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>258</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2018,24 +1903,21 @@
         <v>7579.2512</v>
       </c>
       <c r="G42" t="n">
-        <v>68762.32732208961</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>258</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>258</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2057,24 +1939,21 @@
         <v>580.3471</v>
       </c>
       <c r="G43" t="n">
-        <v>68762.32732208961</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>258</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>258</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2096,24 +1975,21 @@
         <v>16.0254</v>
       </c>
       <c r="G44" t="n">
-        <v>68746.30192208961</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>258</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>258</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2135,24 +2011,21 @@
         <v>500</v>
       </c>
       <c r="G45" t="n">
-        <v>68246.30192208961</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>258</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>258</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2174,24 +2047,21 @@
         <v>338.7961</v>
       </c>
       <c r="G46" t="n">
-        <v>67907.5058220896</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>258</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>258</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2213,24 +2083,21 @@
         <v>4587.877</v>
       </c>
       <c r="G47" t="n">
-        <v>63319.6288220896</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>258</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>258</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2252,24 +2119,21 @@
         <v>1067.2912</v>
       </c>
       <c r="G48" t="n">
-        <v>64386.9200220896</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>258</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>258</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2291,24 +2155,21 @@
         <v>38.7961</v>
       </c>
       <c r="G49" t="n">
-        <v>64386.9200220896</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>258</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>258</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2330,24 +2191,21 @@
         <v>917.8701</v>
       </c>
       <c r="G50" t="n">
-        <v>64386.9200220896</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>258</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>258</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2369,24 +2227,21 @@
         <v>1849.7866</v>
       </c>
       <c r="G51" t="n">
-        <v>64386.9200220896</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>258</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>258</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2408,24 +2263,21 @@
         <v>1315.0141</v>
       </c>
       <c r="G52" t="n">
-        <v>64386.9200220896</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>258</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>258</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2447,24 +2299,21 @@
         <v>2788.6385</v>
       </c>
       <c r="G53" t="n">
-        <v>61598.2815220896</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>258</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>258</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2486,24 +2335,21 @@
         <v>351.35</v>
       </c>
       <c r="G54" t="n">
-        <v>61598.2815220896</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>258</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>258</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2525,24 +2371,21 @@
         <v>7103.0549</v>
       </c>
       <c r="G55" t="n">
-        <v>61598.2815220896</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>258</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>258</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2564,24 +2407,21 @@
         <v>80.8288</v>
       </c>
       <c r="G56" t="n">
-        <v>61598.2815220896</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>258</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>258</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2603,24 +2443,21 @@
         <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>61600.2815220896</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>258</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>258</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2642,24 +2479,21 @@
         <v>3400.1562</v>
       </c>
       <c r="G58" t="n">
-        <v>58200.1253220896</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>258</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>258</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2681,24 +2515,21 @@
         <v>139.3969</v>
       </c>
       <c r="G59" t="n">
-        <v>58060.7284220896</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>258</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>258</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2720,24 +2551,21 @@
         <v>1409.5425</v>
       </c>
       <c r="G60" t="n">
-        <v>58060.7284220896</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>258</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>258</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2759,24 +2587,21 @@
         <v>5142.6344</v>
       </c>
       <c r="G61" t="n">
-        <v>58060.7284220896</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>258</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>258</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2798,24 +2623,21 @@
         <v>480.0057</v>
       </c>
       <c r="G62" t="n">
-        <v>58540.73412208961</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>258</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>258</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2837,24 +2659,21 @@
         <v>180.0009</v>
       </c>
       <c r="G63" t="n">
-        <v>58540.73412208961</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>258</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>258</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2876,24 +2695,21 @@
         <v>170.3011</v>
       </c>
       <c r="G64" t="n">
-        <v>58540.73412208961</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>258</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>258</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2915,24 +2731,21 @@
         <v>19309.8374</v>
       </c>
       <c r="G65" t="n">
-        <v>39230.8967220896</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>258</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>258</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2954,24 +2767,21 @@
         <v>281.4399</v>
       </c>
       <c r="G66" t="n">
-        <v>39512.3366220896</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>258</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>258</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2993,24 +2803,21 @@
         <v>212.0962</v>
       </c>
       <c r="G67" t="n">
-        <v>39512.3366220896</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>258</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>258</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3032,24 +2839,21 @@
         <v>1786.776</v>
       </c>
       <c r="G68" t="n">
-        <v>39512.3366220896</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>258</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>258</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3071,24 +2875,21 @@
         <v>461.3739</v>
       </c>
       <c r="G69" t="n">
-        <v>39512.3366220896</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>258</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>258</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3110,24 +2911,21 @@
         <v>65.96510000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>39512.3366220896</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>258</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>258</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3149,24 +2947,23 @@
         <v>69.277</v>
       </c>
       <c r="G71" t="n">
-        <v>39581.6136220896</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>258</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="I71" t="n">
+        <v>258</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3188,24 +2985,21 @@
         <v>111.5365</v>
       </c>
       <c r="G72" t="n">
-        <v>39581.6136220896</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>258</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>258</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3227,24 +3021,21 @@
         <v>148.6872</v>
       </c>
       <c r="G73" t="n">
-        <v>39581.6136220896</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>258</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>258</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3266,24 +3057,21 @@
         <v>395</v>
       </c>
       <c r="G74" t="n">
-        <v>39186.6136220896</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>258</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>258</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3305,24 +3093,21 @@
         <v>145.419</v>
       </c>
       <c r="G75" t="n">
-        <v>39186.6136220896</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>258</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>258</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3344,24 +3129,21 @@
         <v>235.4941</v>
       </c>
       <c r="G76" t="n">
-        <v>39186.6136220896</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>258</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>258</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3383,24 +3165,21 @@
         <v>394.3613</v>
       </c>
       <c r="G77" t="n">
-        <v>38792.2523220896</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>258</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>258</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3422,24 +3201,21 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>38793.2523220896</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>258</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>258</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3461,24 +3237,21 @@
         <v>134.7656</v>
       </c>
       <c r="G79" t="n">
-        <v>38658.4867220896</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>258</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>258</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3500,24 +3273,23 @@
         <v>280</v>
       </c>
       <c r="G80" t="n">
-        <v>38378.4867220896</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>258</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>256</v>
+      </c>
+      <c r="I80" t="n">
+        <v>258</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3539,24 +3311,23 @@
         <v>2515.1549</v>
       </c>
       <c r="G81" t="n">
-        <v>38378.4867220896</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>258</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>255</v>
+      </c>
+      <c r="I81" t="n">
+        <v>258</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3578,24 +3349,23 @@
         <v>4270.9414</v>
       </c>
       <c r="G82" t="n">
-        <v>34107.5453220896</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>258</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>255</v>
+      </c>
+      <c r="I82" t="n">
+        <v>258</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3617,24 +3387,23 @@
         <v>24.8682</v>
       </c>
       <c r="G83" t="n">
-        <v>34132.4135220896</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>258</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>253</v>
+      </c>
+      <c r="I83" t="n">
+        <v>258</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3656,24 +3425,23 @@
         <v>2660</v>
       </c>
       <c r="G84" t="n">
-        <v>34132.4135220896</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>258</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>255</v>
+      </c>
+      <c r="I84" t="n">
+        <v>258</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3695,24 +3463,23 @@
         <v>2297.9161</v>
       </c>
       <c r="G85" t="n">
-        <v>34132.4135220896</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>258</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>255</v>
+      </c>
+      <c r="I85" t="n">
+        <v>258</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3734,24 +3501,23 @@
         <v>412.9921</v>
       </c>
       <c r="G86" t="n">
-        <v>34545.4056220896</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>258</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>255</v>
+      </c>
+      <c r="I86" t="n">
+        <v>258</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3773,24 +3539,23 @@
         <v>532.0359999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>34545.4056220896</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>258</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>256</v>
+      </c>
+      <c r="I87" t="n">
+        <v>258</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3812,24 +3577,21 @@
         <v>449.039</v>
       </c>
       <c r="G88" t="n">
-        <v>34545.4056220896</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>258</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>258</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3851,24 +3613,21 @@
         <v>7022.4918</v>
       </c>
       <c r="G89" t="n">
-        <v>34545.4056220896</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>258</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>258</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3890,24 +3649,23 @@
         <v>751.4902</v>
       </c>
       <c r="G90" t="n">
-        <v>34545.4056220896</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>258</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>256</v>
+      </c>
+      <c r="I90" t="n">
+        <v>258</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3929,24 +3687,23 @@
         <v>301.5233</v>
       </c>
       <c r="G91" t="n">
-        <v>34545.4056220896</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>258</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>256</v>
+      </c>
+      <c r="I91" t="n">
+        <v>258</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3968,24 +3725,23 @@
         <v>462.2165</v>
       </c>
       <c r="G92" t="n">
-        <v>34545.4056220896</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>258</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>256</v>
+      </c>
+      <c r="I92" t="n">
+        <v>258</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4007,24 +3763,23 @@
         <v>1789.8016</v>
       </c>
       <c r="G93" t="n">
-        <v>32755.6040220896</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>258</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>256</v>
+      </c>
+      <c r="I93" t="n">
+        <v>258</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4046,24 +3801,23 @@
         <v>40.8093</v>
       </c>
       <c r="G94" t="n">
-        <v>32796.4133220896</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>258</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="I94" t="n">
+        <v>258</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4085,24 +3839,23 @@
         <v>56.525</v>
       </c>
       <c r="G95" t="n">
-        <v>32796.4133220896</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>258</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>256</v>
+      </c>
+      <c r="I95" t="n">
+        <v>258</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4124,24 +3877,23 @@
         <v>443.8754</v>
       </c>
       <c r="G96" t="n">
-        <v>32352.5379220896</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>258</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>256</v>
+      </c>
+      <c r="I96" t="n">
+        <v>258</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4163,24 +3915,23 @@
         <v>421.8868</v>
       </c>
       <c r="G97" t="n">
-        <v>31930.6511220896</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>258</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="I97" t="n">
+        <v>258</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4202,26 +3953,23 @@
         <v>770.7584000000001</v>
       </c>
       <c r="G98" t="n">
-        <v>32701.4095220896</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="I98" t="n">
-        <v>253</v>
-      </c>
-      <c r="J98" t="n">
-        <v>258</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4243,26 +3991,23 @@
         <v>457.4949</v>
       </c>
       <c r="G99" t="n">
-        <v>32701.4095220896</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="I99" t="n">
-        <v>255</v>
-      </c>
-      <c r="J99" t="n">
-        <v>258</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4284,26 +4029,23 @@
         <v>206.6315</v>
       </c>
       <c r="G100" t="n">
-        <v>32494.7780220896</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="I100" t="n">
-        <v>255</v>
-      </c>
-      <c r="J100" t="n">
-        <v>258</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4325,26 +4067,23 @@
         <v>1577.2763</v>
       </c>
       <c r="G101" t="n">
-        <v>34072.0543220896</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="I101" t="n">
-        <v>254</v>
-      </c>
-      <c r="J101" t="n">
-        <v>258</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4366,26 +4105,23 @@
         <v>2150.001</v>
       </c>
       <c r="G102" t="n">
-        <v>34072.0543220896</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="I102" t="n">
-        <v>255</v>
-      </c>
-      <c r="J102" t="n">
-        <v>258</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4407,26 +4143,23 @@
         <v>2140.5282</v>
       </c>
       <c r="G103" t="n">
-        <v>34072.0543220896</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="I103" t="n">
-        <v>255</v>
-      </c>
-      <c r="J103" t="n">
-        <v>258</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4448,26 +4181,23 @@
         <v>296.3919</v>
       </c>
       <c r="G104" t="n">
-        <v>34072.0543220896</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="I104" t="n">
-        <v>255</v>
-      </c>
-      <c r="J104" t="n">
-        <v>258</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4489,26 +4219,23 @@
         <v>5</v>
       </c>
       <c r="G105" t="n">
-        <v>34072.0543220896</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="I105" t="n">
-        <v>255</v>
-      </c>
-      <c r="J105" t="n">
-        <v>258</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4530,26 +4257,23 @@
         <v>263.797</v>
       </c>
       <c r="G106" t="n">
-        <v>34072.0543220896</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="I106" t="n">
-        <v>255</v>
-      </c>
-      <c r="J106" t="n">
-        <v>258</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4571,26 +4295,23 @@
         <v>11727.0958</v>
       </c>
       <c r="G107" t="n">
-        <v>45799.1501220896</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="I107" t="n">
-        <v>255</v>
-      </c>
-      <c r="J107" t="n">
-        <v>258</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4612,26 +4333,23 @@
         <v>701.1559</v>
       </c>
       <c r="G108" t="n">
-        <v>45799.1501220896</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="I108" t="n">
-        <v>256</v>
-      </c>
-      <c r="J108" t="n">
-        <v>258</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4653,26 +4371,23 @@
         <v>1465</v>
       </c>
       <c r="G109" t="n">
-        <v>45799.1501220896</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="I109" t="n">
-        <v>256</v>
-      </c>
-      <c r="J109" t="n">
-        <v>258</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4694,26 +4409,23 @@
         <v>275.0386</v>
       </c>
       <c r="G110" t="n">
-        <v>45799.1501220896</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="I110" t="n">
-        <v>256</v>
-      </c>
-      <c r="J110" t="n">
-        <v>258</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4735,26 +4447,23 @@
         <v>366.4281</v>
       </c>
       <c r="G111" t="n">
-        <v>45799.1501220896</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="I111" t="n">
-        <v>256</v>
-      </c>
-      <c r="J111" t="n">
-        <v>258</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4776,26 +4485,23 @@
         <v>3939.1693</v>
       </c>
       <c r="G112" t="n">
-        <v>45799.1501220896</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="I112" t="n">
-        <v>256</v>
-      </c>
-      <c r="J112" t="n">
-        <v>258</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4817,26 +4523,23 @@
         <v>409</v>
       </c>
       <c r="G113" t="n">
-        <v>46208.1501220896</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="I113" t="n">
-        <v>256</v>
-      </c>
-      <c r="J113" t="n">
-        <v>258</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4858,26 +4561,21 @@
         <v>1470</v>
       </c>
       <c r="G114" t="n">
-        <v>47678.1501220896</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
         <v>258</v>
       </c>
-      <c r="J114" t="n">
-        <v>258</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4899,24 +4597,21 @@
         <v>589.9127999999999</v>
       </c>
       <c r="G115" t="n">
-        <v>47088.2373220896</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>258</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>258</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4938,26 +4633,23 @@
         <v>129.2078</v>
       </c>
       <c r="G116" t="n">
-        <v>47217.4451220896</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="I116" t="n">
         <v>258</v>
       </c>
-      <c r="J116" t="n">
-        <v>258</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4979,24 +4671,21 @@
         <v>829.7686</v>
       </c>
       <c r="G117" t="n">
-        <v>48047.2137220896</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>258</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>258</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5018,24 +4707,21 @@
         <v>1076.806</v>
       </c>
       <c r="G118" t="n">
-        <v>49124.0197220896</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>258</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>258</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5057,24 +4743,21 @@
         <v>15</v>
       </c>
       <c r="G119" t="n">
-        <v>49109.0197220896</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>258</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>258</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5096,24 +4779,21 @@
         <v>2999.9998</v>
       </c>
       <c r="G120" t="n">
-        <v>52109.0195220896</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>258</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>258</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5135,24 +4815,21 @@
         <v>999.9999</v>
       </c>
       <c r="G121" t="n">
-        <v>52109.0195220896</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>258</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>258</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5174,24 +4851,21 @@
         <v>217.9338</v>
       </c>
       <c r="G122" t="n">
-        <v>52326.9533220896</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>258</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>258</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5213,24 +4887,21 @@
         <v>73.2787</v>
       </c>
       <c r="G123" t="n">
-        <v>52326.9533220896</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>258</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>258</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5252,24 +4923,21 @@
         <v>1346.9829</v>
       </c>
       <c r="G124" t="n">
-        <v>53673.9362220896</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>258</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>258</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5291,24 +4959,21 @@
         <v>414.4334</v>
       </c>
       <c r="G125" t="n">
-        <v>53673.9362220896</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>258</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>258</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5330,24 +4995,21 @@
         <v>7759.1909</v>
       </c>
       <c r="G126" t="n">
-        <v>45914.7453220896</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>258</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>258</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5369,24 +5031,21 @@
         <v>53.4124</v>
       </c>
       <c r="G127" t="n">
-        <v>45914.7453220896</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>258</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>258</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5408,24 +5067,21 @@
         <v>24.2029</v>
       </c>
       <c r="G128" t="n">
-        <v>45938.9482220896</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>258</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>258</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5447,24 +5103,21 @@
         <v>2241</v>
       </c>
       <c r="G129" t="n">
-        <v>45938.9482220896</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>258</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>258</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5486,24 +5139,21 @@
         <v>10</v>
       </c>
       <c r="G130" t="n">
-        <v>45948.9482220896</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>258</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>258</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5525,24 +5175,21 @@
         <v>1359.0032</v>
       </c>
       <c r="G131" t="n">
-        <v>44589.9450220896</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>258</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>258</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5564,24 +5211,21 @@
         <v>37.7724</v>
       </c>
       <c r="G132" t="n">
-        <v>44552.17262208959</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>258</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>258</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5603,24 +5247,21 @@
         <v>480</v>
       </c>
       <c r="G133" t="n">
-        <v>44072.17262208959</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>258</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>258</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5642,24 +5283,21 @@
         <v>5</v>
       </c>
       <c r="G134" t="n">
-        <v>44072.17262208959</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>258</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>258</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5681,24 +5319,21 @@
         <v>300</v>
       </c>
       <c r="G135" t="n">
-        <v>44072.17262208959</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>258</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>258</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5720,24 +5355,21 @@
         <v>239.9941</v>
       </c>
       <c r="G136" t="n">
-        <v>43832.17852208959</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>258</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>258</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5759,24 +5391,21 @@
         <v>385.0611</v>
       </c>
       <c r="G137" t="n">
-        <v>44217.23962208959</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>258</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>258</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5798,24 +5427,21 @@
         <v>167.0653</v>
       </c>
       <c r="G138" t="n">
-        <v>44217.23962208959</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>258</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>258</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5837,24 +5463,21 @@
         <v>251.0627</v>
       </c>
       <c r="G139" t="n">
-        <v>44217.23962208959</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>258</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>258</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5876,24 +5499,21 @@
         <v>47.907</v>
       </c>
       <c r="G140" t="n">
-        <v>44265.14662208959</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>258</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>258</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5915,24 +5535,21 @@
         <v>712.8816</v>
       </c>
       <c r="G141" t="n">
-        <v>43552.26502208959</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>258</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>258</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5954,24 +5571,21 @@
         <v>674.4050999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>43552.26502208959</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>258</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>258</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5993,24 +5607,21 @@
         <v>500</v>
       </c>
       <c r="G143" t="n">
-        <v>44052.26502208959</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>258</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>258</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6032,24 +5643,21 @@
         <v>1153.2327</v>
       </c>
       <c r="G144" t="n">
-        <v>42899.03232208959</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>258</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>258</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6071,24 +5679,21 @@
         <v>934.1185</v>
       </c>
       <c r="G145" t="n">
-        <v>43833.15082208958</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>258</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>258</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6110,24 +5715,21 @@
         <v>398.2294</v>
       </c>
       <c r="G146" t="n">
-        <v>43833.15082208958</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>258</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>258</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6149,24 +5751,21 @@
         <v>748.4127999999999</v>
       </c>
       <c r="G147" t="n">
-        <v>43833.15082208958</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>258</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>258</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6188,24 +5787,21 @@
         <v>621.88</v>
       </c>
       <c r="G148" t="n">
-        <v>44455.03082208958</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>258</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>258</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6227,24 +5823,21 @@
         <v>1844.5671</v>
       </c>
       <c r="G149" t="n">
-        <v>42610.46372208958</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>258</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>258</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6266,24 +5859,21 @@
         <v>5476.0177</v>
       </c>
       <c r="G150" t="n">
-        <v>42610.46372208958</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>258</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>258</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6305,24 +5895,21 @@
         <v>1538</v>
       </c>
       <c r="G151" t="n">
-        <v>44148.46372208958</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>258</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>258</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6344,24 +5931,21 @@
         <v>100.5903</v>
       </c>
       <c r="G152" t="n">
-        <v>44148.46372208958</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>258</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>258</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6383,24 +5967,21 @@
         <v>359.2497</v>
       </c>
       <c r="G153" t="n">
-        <v>44507.71342208958</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>258</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>258</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6422,24 +6003,21 @@
         <v>836</v>
       </c>
       <c r="G154" t="n">
-        <v>44507.71342208958</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>258</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>258</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6461,24 +6039,21 @@
         <v>11106.5131</v>
       </c>
       <c r="G155" t="n">
-        <v>33401.20032208959</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>258</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>258</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6500,24 +6075,21 @@
         <v>9834.9635</v>
       </c>
       <c r="G156" t="n">
-        <v>33401.20032208959</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>258</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>258</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6539,24 +6111,21 @@
         <v>1140</v>
       </c>
       <c r="G157" t="n">
-        <v>32261.20032208959</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>258</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>258</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6578,24 +6147,21 @@
         <v>42.0636</v>
       </c>
       <c r="G158" t="n">
-        <v>32261.20032208959</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>258</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>258</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6617,24 +6183,21 @@
         <v>37.9846</v>
       </c>
       <c r="G159" t="n">
-        <v>32299.18492208959</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>258</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>258</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6656,24 +6219,21 @@
         <v>42.0637</v>
       </c>
       <c r="G160" t="n">
-        <v>32257.12122208959</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>258</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>258</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6695,24 +6255,21 @@
         <v>130.2698</v>
       </c>
       <c r="G161" t="n">
-        <v>32257.12122208959</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>258</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>258</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6734,24 +6291,21 @@
         <v>60.6779</v>
       </c>
       <c r="G162" t="n">
-        <v>32257.12122208959</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>258</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>258</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6773,24 +6327,21 @@
         <v>2.4175</v>
       </c>
       <c r="G163" t="n">
-        <v>32259.53872208959</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>258</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>258</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6812,24 +6363,21 @@
         <v>21.0318</v>
       </c>
       <c r="G164" t="n">
-        <v>32238.50692208959</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>258</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>258</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6851,24 +6399,21 @@
         <v>2.3688</v>
       </c>
       <c r="G165" t="n">
-        <v>32240.87572208959</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>258</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>258</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6890,24 +6435,21 @@
         <v>151.095</v>
       </c>
       <c r="G166" t="n">
-        <v>32240.87572208959</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>258</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>258</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6929,24 +6471,21 @@
         <v>591.7134</v>
       </c>
       <c r="G167" t="n">
-        <v>31649.16232208959</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>258</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>258</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6968,24 +6507,21 @@
         <v>541.2234</v>
       </c>
       <c r="G168" t="n">
-        <v>32190.38572208958</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>258</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>258</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7007,24 +6543,21 @@
         <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>32191.38572208958</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>258</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>258</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7046,24 +6579,21 @@
         <v>10</v>
       </c>
       <c r="G170" t="n">
-        <v>32191.38572208958</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>258</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>258</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7085,24 +6615,21 @@
         <v>20</v>
       </c>
       <c r="G171" t="n">
-        <v>32191.38572208958</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>258</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>258</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7124,24 +6651,21 @@
         <v>3030.303</v>
       </c>
       <c r="G172" t="n">
-        <v>32191.38572208958</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>258</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>258</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7163,24 +6687,21 @@
         <v>3392</v>
       </c>
       <c r="G173" t="n">
-        <v>28799.38572208958</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>258</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>258</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7202,24 +6723,21 @@
         <v>156.2897</v>
       </c>
       <c r="G174" t="n">
-        <v>28955.67542208959</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>258</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>258</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7241,24 +6759,21 @@
         <v>3700.0951</v>
       </c>
       <c r="G175" t="n">
-        <v>25255.58032208959</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>258</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>258</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7280,24 +6795,21 @@
         <v>15.2278</v>
       </c>
       <c r="G176" t="n">
-        <v>25255.58032208959</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>258</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>258</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7319,24 +6831,21 @@
         <v>5831.6121</v>
       </c>
       <c r="G177" t="n">
-        <v>25255.58032208959</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>258</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>258</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7358,24 +6867,21 @@
         <v>6365.6007</v>
       </c>
       <c r="G178" t="n">
-        <v>31621.18102208959</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>258</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>258</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7397,24 +6903,21 @@
         <v>1448.9281</v>
       </c>
       <c r="G179" t="n">
-        <v>30172.25292208958</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>258</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>258</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7436,24 +6939,21 @@
         <v>156.2897</v>
       </c>
       <c r="G180" t="n">
-        <v>30328.54262208959</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>258</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>258</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7475,24 +6975,21 @@
         <v>2010</v>
       </c>
       <c r="G181" t="n">
-        <v>32338.54262208959</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>258</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>258</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7514,24 +7011,21 @@
         <v>11.2781</v>
       </c>
       <c r="G182" t="n">
-        <v>32349.82072208959</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>258</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>258</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7553,24 +7047,21 @@
         <v>1520.9125</v>
       </c>
       <c r="G183" t="n">
-        <v>30828.90822208959</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>258</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>258</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7592,24 +7083,21 @@
         <v>1355.0646</v>
       </c>
       <c r="G184" t="n">
-        <v>30828.90822208959</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>258</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>258</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7631,24 +7119,21 @@
         <v>2162</v>
       </c>
       <c r="G185" t="n">
-        <v>28666.90822208959</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>258</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>258</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7670,24 +7155,21 @@
         <v>479.5453</v>
       </c>
       <c r="G186" t="n">
-        <v>28666.90822208959</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>258</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>258</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7709,24 +7191,21 @@
         <v>2060.7452</v>
       </c>
       <c r="G187" t="n">
-        <v>26606.16302208959</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>258</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>258</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7748,26 +7227,21 @@
         <v>2060.7452</v>
       </c>
       <c r="G188" t="n">
-        <v>26606.16302208959</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
-        <v>260</v>
-      </c>
-      <c r="J188" t="n">
-        <v>258</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7789,24 +7263,21 @@
         <v>3385.2829</v>
       </c>
       <c r="G189" t="n">
-        <v>29991.44592208959</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>258</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>258</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7828,24 +7299,21 @@
         <v>3496.2395</v>
       </c>
       <c r="G190" t="n">
-        <v>29991.44592208959</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>258</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>258</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7867,24 +7335,21 @@
         <v>10</v>
       </c>
       <c r="G191" t="n">
-        <v>30001.44592208959</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>258</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>258</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7906,24 +7371,21 @@
         <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>30000.44592208959</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>258</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>258</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7945,24 +7407,21 @@
         <v>1011</v>
       </c>
       <c r="G193" t="n">
-        <v>31011.44592208959</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>258</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>258</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7984,24 +7443,21 @@
         <v>1000</v>
       </c>
       <c r="G194" t="n">
-        <v>32011.44592208959</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>258</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>258</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8023,24 +7479,21 @@
         <v>2200</v>
       </c>
       <c r="G195" t="n">
-        <v>34211.44592208959</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>258</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>258</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8062,24 +7515,21 @@
         <v>500.0346</v>
       </c>
       <c r="G196" t="n">
-        <v>34211.44592208959</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>258</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>258</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8101,24 +7551,21 @@
         <v>172.3281</v>
       </c>
       <c r="G197" t="n">
-        <v>34039.11782208959</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>258</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>258</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8140,24 +7587,21 @@
         <v>1450.0657</v>
       </c>
       <c r="G198" t="n">
-        <v>35489.18352208959</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>258</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>258</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8179,24 +7623,21 @@
         <v>323.7465</v>
       </c>
       <c r="G199" t="n">
-        <v>35489.18352208959</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>258</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>258</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8218,24 +7659,21 @@
         <v>3615.1455</v>
       </c>
       <c r="G200" t="n">
-        <v>31874.03802208959</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>258</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>258</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8257,24 +7695,21 @@
         <v>226.2535</v>
       </c>
       <c r="G201" t="n">
-        <v>32100.29152208959</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>258</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>258</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8296,24 +7731,21 @@
         <v>1631.8735</v>
       </c>
       <c r="G202" t="n">
-        <v>33732.16502208959</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>258</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>258</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8335,24 +7767,21 @@
         <v>2.0001</v>
       </c>
       <c r="G203" t="n">
-        <v>33734.16512208959</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>258</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>258</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8374,24 +7803,21 @@
         <v>1761.1857</v>
       </c>
       <c r="G204" t="n">
-        <v>33734.16512208959</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>258</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>258</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8413,24 +7839,21 @@
         <v>96.9345</v>
       </c>
       <c r="G205" t="n">
-        <v>33637.23062208958</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>258</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>258</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8452,24 +7875,21 @@
         <v>1</v>
       </c>
       <c r="G206" t="n">
-        <v>33638.23062208958</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>258</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>258</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8491,24 +7911,21 @@
         <v>15802.00151449814</v>
       </c>
       <c r="G207" t="n">
-        <v>49440.23213658773</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>258</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>258</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8530,24 +7947,21 @@
         <v>197.0522</v>
       </c>
       <c r="G208" t="n">
-        <v>49243.17993658773</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>258</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>258</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8569,24 +7983,21 @@
         <v>7703.001</v>
       </c>
       <c r="G209" t="n">
-        <v>56946.18093658773</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>258</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>258</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8608,24 +8019,21 @@
         <v>10</v>
       </c>
       <c r="G210" t="n">
-        <v>56936.18093658773</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>258</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>258</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8647,24 +8055,21 @@
         <v>20</v>
       </c>
       <c r="G211" t="n">
-        <v>56956.18093658773</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>258</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>258</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8686,24 +8091,21 @@
         <v>1247.6198</v>
       </c>
       <c r="G212" t="n">
-        <v>56956.18093658773</v>
-      </c>
-      <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>258</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1.037635658914729</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>258</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8725,18 +8127,21 @@
         <v>1598.5702</v>
       </c>
       <c r="G213" t="n">
-        <v>58554.75113658773</v>
-      </c>
-      <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>258</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8758,18 +8163,21 @@
         <v>5804.5495</v>
       </c>
       <c r="G214" t="n">
-        <v>58554.75113658773</v>
-      </c>
-      <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>258</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8791,18 +8199,21 @@
         <v>6950</v>
       </c>
       <c r="G215" t="n">
-        <v>65504.75113658773</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>258</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8824,18 +8235,23 @@
         <v>36.4877</v>
       </c>
       <c r="G216" t="n">
-        <v>65541.23883658773</v>
-      </c>
-      <c r="H216" t="n">
         <v>2</v>
       </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>258</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1.053139534883721</v>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
-      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8857,18 +8273,15 @@
         <v>15579.5454</v>
       </c>
       <c r="G217" t="n">
-        <v>49961.69343658772</v>
-      </c>
-      <c r="H217" t="n">
         <v>2</v>
       </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8890,18 +8303,15 @@
         <v>1110</v>
       </c>
       <c r="G218" t="n">
-        <v>48851.69343658772</v>
-      </c>
-      <c r="H218" t="n">
         <v>2</v>
       </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8923,18 +8333,15 @@
         <v>1481.248</v>
       </c>
       <c r="G219" t="n">
-        <v>47370.44543658772</v>
-      </c>
-      <c r="H219" t="n">
         <v>2</v>
       </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8956,18 +8363,15 @@
         <v>1057.0279</v>
       </c>
       <c r="G220" t="n">
-        <v>48427.47333658773</v>
-      </c>
-      <c r="H220" t="n">
         <v>2</v>
       </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8989,18 +8393,15 @@
         <v>2207.8594</v>
       </c>
       <c r="G221" t="n">
-        <v>48427.47333658773</v>
-      </c>
-      <c r="H221" t="n">
         <v>2</v>
       </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9022,18 +8423,15 @@
         <v>388.4204</v>
       </c>
       <c r="G222" t="n">
-        <v>48039.05293658772</v>
-      </c>
-      <c r="H222" t="n">
         <v>2</v>
       </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9055,18 +8453,15 @@
         <v>6552.0569</v>
       </c>
       <c r="G223" t="n">
-        <v>48039.05293658772</v>
-      </c>
-      <c r="H223" t="n">
         <v>2</v>
       </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9088,18 +8483,15 @@
         <v>43</v>
       </c>
       <c r="G224" t="n">
-        <v>48039.05293658772</v>
-      </c>
-      <c r="H224" t="n">
         <v>2</v>
       </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9121,18 +8513,15 @@
         <v>1.3115</v>
       </c>
       <c r="G225" t="n">
-        <v>48039.05293658772</v>
-      </c>
-      <c r="H225" t="n">
         <v>2</v>
       </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9154,18 +8543,15 @@
         <v>7000</v>
       </c>
       <c r="G226" t="n">
-        <v>41039.05293658772</v>
-      </c>
-      <c r="H226" t="n">
         <v>2</v>
       </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9187,18 +8573,15 @@
         <v>15.2842</v>
       </c>
       <c r="G227" t="n">
-        <v>41054.33713658772</v>
-      </c>
-      <c r="H227" t="n">
         <v>2</v>
       </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9220,18 +8603,15 @@
         <v>7617.8526</v>
       </c>
       <c r="G228" t="n">
-        <v>33436.48453658773</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9253,18 +8633,15 @@
         <v>2487.4263</v>
       </c>
       <c r="G229" t="n">
-        <v>35923.91083658773</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9286,18 +8663,15 @@
         <v>31489.4999</v>
       </c>
       <c r="G230" t="n">
-        <v>67413.41073658773</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9319,18 +8693,15 @@
         <v>32.0873</v>
       </c>
       <c r="G231" t="n">
-        <v>67381.32343658773</v>
-      </c>
-      <c r="H231" t="n">
         <v>2</v>
       </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9352,18 +8723,15 @@
         <v>3.2178</v>
       </c>
       <c r="G232" t="n">
-        <v>67381.32343658773</v>
-      </c>
-      <c r="H232" t="n">
         <v>2</v>
       </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9385,18 +8753,15 @@
         <v>1</v>
       </c>
       <c r="G233" t="n">
-        <v>67382.32343658773</v>
-      </c>
-      <c r="H233" t="n">
         <v>2</v>
       </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9418,18 +8783,15 @@
         <v>1</v>
       </c>
       <c r="G234" t="n">
-        <v>67382.32343658773</v>
-      </c>
-      <c r="H234" t="n">
         <v>2</v>
       </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9451,18 +8813,15 @@
         <v>9.7614</v>
       </c>
       <c r="G235" t="n">
-        <v>67382.32343658773</v>
-      </c>
-      <c r="H235" t="n">
         <v>2</v>
       </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9484,18 +8843,15 @@
         <v>1055.9313</v>
       </c>
       <c r="G236" t="n">
-        <v>68438.25473658773</v>
-      </c>
-      <c r="H236" t="n">
         <v>2</v>
       </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9517,18 +8873,15 @@
         <v>650</v>
       </c>
       <c r="G237" t="n">
-        <v>68438.25473658773</v>
-      </c>
-      <c r="H237" t="n">
         <v>2</v>
       </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9550,18 +8903,15 @@
         <v>2211</v>
       </c>
       <c r="G238" t="n">
-        <v>66227.25473658773</v>
-      </c>
-      <c r="H238" t="n">
         <v>2</v>
       </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9583,18 +8933,15 @@
         <v>5187.6481</v>
       </c>
       <c r="G239" t="n">
-        <v>71414.90283658773</v>
-      </c>
-      <c r="H239" t="n">
         <v>2</v>
       </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9616,18 +8963,15 @@
         <v>3194</v>
       </c>
       <c r="G240" t="n">
-        <v>68220.90283658773</v>
-      </c>
-      <c r="H240" t="n">
         <v>2</v>
       </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9649,18 +8993,15 @@
         <v>2200</v>
       </c>
       <c r="G241" t="n">
-        <v>68220.90283658773</v>
-      </c>
-      <c r="H241" t="n">
         <v>2</v>
       </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9682,18 +9023,15 @@
         <v>360.5205</v>
       </c>
       <c r="G242" t="n">
-        <v>67860.38233658773</v>
-      </c>
-      <c r="H242" t="n">
         <v>2</v>
       </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9715,18 +9053,15 @@
         <v>15802.0015</v>
       </c>
       <c r="G243" t="n">
-        <v>52058.38083658773</v>
-      </c>
-      <c r="H243" t="n">
         <v>2</v>
       </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9748,18 +9083,15 @@
         <v>1000</v>
       </c>
       <c r="G244" t="n">
-        <v>52058.38083658773</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
